--- a/Basis/Simple_Envelope_Evaluation/publicated_value.xlsx
+++ b/Basis/Simple_Envelope_Evaluation/publicated_value.xlsx
@@ -8,26 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miura\Dropbox\BRI-EES-House\03_HCLoad_and_Envelope\Basis\Simple_Envelope_Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF00797D-3AFC-438B-98EE-00226675AAF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F62703-28D7-46A1-B59F-6B7212C52E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test2019" sheetId="1" r:id="rId1"/>
-    <sheet name="test2017" sheetId="3" r:id="rId2"/>
-    <sheet name="仕様書" sheetId="2" r:id="rId3"/>
+    <sheet name="test2020" sheetId="4" r:id="rId1"/>
+    <sheet name="test2019" sheetId="1" r:id="rId2"/>
+    <sheet name="test2017" sheetId="3" r:id="rId3"/>
+    <sheet name="仕様書" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="170">
   <si>
     <t>2017.04～</t>
     <phoneticPr fontId="1"/>
@@ -978,6 +985,1475 @@
     </rPh>
     <rPh sb="42" eb="44">
       <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開口部比率の変更により修正</t>
+    <rPh sb="0" eb="3">
+      <t>カイコウブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒリツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 屋根・天井</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 壁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 ドア</t>
+    <rPh sb="2" eb="4">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 窓</t>
+    <rPh sb="2" eb="4">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 床（浴室）</t>
+    <rPh sb="2" eb="4">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨクシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 床（その他）</t>
+    <rPh sb="2" eb="4">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 土間（玄関）</t>
+    <rPh sb="2" eb="4">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドマ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゲンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 基礎（玄関）</t>
+    <rPh sb="2" eb="4">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゲンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 屋根・天井 1地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 屋根・天井 2地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 屋根・天井 3地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 屋根・天井 4地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 屋根・天井 5地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 屋根・天井 6地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 屋根・天井 7地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 屋根・天井 8地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 屋根・天井 1地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 屋根・天井 2地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 屋根・天井 3地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 屋根・天井 4地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 屋根・天井 5地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 屋根・天井 6地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 屋根・天井 7地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 壁 1地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 壁 2地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 壁 3地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 壁 4地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 壁 5地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 壁 6地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 壁 7地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 壁 8地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 壁 1地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 壁 2地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 壁 3地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 壁 4地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 壁 5地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 壁 6地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 壁 7地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 ドア 1地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 ドア 2地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 ドア 3地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 ドア 4地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 ドア 5地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 ドア 6地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 ドア 7地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 ドア 8地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 ドア 1地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 ドア 2地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 ドア 3地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 ドア 4地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 ドア 5地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 ドア 6地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 ドア 7地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 窓 1地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 窓 2地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 窓 3地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 窓 4地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 窓 5地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 窓 6地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 窓 7地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 窓 8地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 窓 1地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 窓 2地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 窓 3地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 窓 4地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 窓 5地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 窓 6地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 窓 7地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 玄関等の基礎 1地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 玄関等の基礎 2地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 玄関等の基礎 3地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 玄関等の基礎 4地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 玄関等の基礎 5地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 玄関等の基礎 6地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 玄関等の基礎 7地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 玄関等の基礎 8地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 玄関等の基礎 1地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 玄関等の基礎 2地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 玄関等の基礎 3地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 玄関等の基礎 4地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 玄関等の基礎 5地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 玄関等の基礎 6地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 玄関等の基礎 7地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 土間（浴室その他）</t>
+    <rPh sb="2" eb="4">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 基礎（浴室その他）</t>
+    <rPh sb="2" eb="4">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 浴室その他の基礎 1地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 浴室その他の基礎 2地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 浴室その他の基礎 3地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 浴室その他の基礎 4地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 浴室その他の基礎 5地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 浴室その他の基礎 6地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 浴室その他の基礎 7地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 浴室その他の基礎 8地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 浴室その他の基礎 1地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 浴室その他の基礎 2地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 浴室その他の基礎 3地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 浴室その他の基礎 4地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 浴室その他の基礎 5地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 浴室その他の基礎 6地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 浴室その他の基礎 7地域</t>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1028,12 +2504,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1520,11 +2999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ECC471-A60C-4EE5-94F5-B6269F8DA6CD}">
+  <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -1559,10 +3038,10 @@
       <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>262.45999999999998</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>262.45999999999998</v>
       </c>
       <c r="D2" s="1">
@@ -1570,9 +3049,6 @@
       </c>
       <c r="E2">
         <v>275.69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1614,16 +3090,19 @@
         <v>45</v>
       </c>
       <c r="B5" s="1">
-        <v>30.47</v>
+        <v>34.06</v>
       </c>
       <c r="C5" s="1">
-        <v>30.47</v>
+        <v>34.06</v>
       </c>
       <c r="D5" s="1">
-        <v>30.47</v>
+        <v>34.06</v>
       </c>
       <c r="E5" s="1">
-        <v>30.47</v>
+        <v>34.06</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1631,16 +3110,19 @@
         <v>46</v>
       </c>
       <c r="B6" s="1">
-        <v>22.37</v>
+        <v>22.74</v>
       </c>
       <c r="C6" s="1">
-        <v>22.37</v>
+        <v>22.74</v>
       </c>
       <c r="D6" s="1">
-        <v>22.37</v>
+        <v>22.74</v>
       </c>
       <c r="E6" s="1">
-        <v>22.37</v>
+        <v>22.74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1648,16 +3130,19 @@
         <v>47</v>
       </c>
       <c r="B7" s="1">
-        <v>47.92</v>
+        <v>48.49</v>
       </c>
       <c r="C7" s="1">
-        <v>47.92</v>
+        <v>48.49</v>
       </c>
       <c r="D7" s="1">
-        <v>47.92</v>
+        <v>48.49</v>
       </c>
       <c r="E7" s="1">
-        <v>47.92</v>
+        <v>48.49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1665,16 +3150,19 @@
         <v>48</v>
       </c>
       <c r="B8" s="1">
-        <v>22.28</v>
+        <v>22.97</v>
       </c>
       <c r="C8" s="1">
-        <v>22.28</v>
+        <v>22.97</v>
       </c>
       <c r="D8" s="1">
-        <v>22.28</v>
+        <v>22.97</v>
       </c>
       <c r="E8" s="1">
-        <v>22.28</v>
+        <v>22.97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1750,16 +3238,19 @@
         <v>53</v>
       </c>
       <c r="B13" s="1">
-        <v>22.69</v>
+        <v>19.11</v>
       </c>
       <c r="C13" s="1">
-        <v>22.69</v>
+        <v>19.11</v>
       </c>
       <c r="D13" s="1">
-        <v>22.69</v>
+        <v>19.11</v>
       </c>
       <c r="E13" s="1">
-        <v>22.69</v>
+        <v>19.11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1767,16 +3258,19 @@
         <v>54</v>
       </c>
       <c r="B14" s="1">
-        <v>2.38</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>2.38</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>2.38</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>2.38</v>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1784,16 +3278,19 @@
         <v>55</v>
       </c>
       <c r="B15" s="1">
-        <v>3.63</v>
+        <v>3.05</v>
       </c>
       <c r="C15" s="1">
-        <v>3.63</v>
+        <v>3.05</v>
       </c>
       <c r="D15" s="1">
-        <v>3.63</v>
+        <v>3.05</v>
       </c>
       <c r="E15" s="1">
-        <v>3.63</v>
+        <v>3.05</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1801,16 +3298,19 @@
         <v>56</v>
       </c>
       <c r="B16" s="1">
-        <v>4.37</v>
+        <v>3.68</v>
       </c>
       <c r="C16" s="1">
-        <v>4.37</v>
+        <v>3.68</v>
       </c>
       <c r="D16" s="1">
-        <v>4.37</v>
+        <v>3.68</v>
       </c>
       <c r="E16" s="1">
-        <v>4.37</v>
+        <v>3.68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2048,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2355,6 +3855,1706 @@
       </c>
       <c r="E48">
         <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C49">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D49">
+        <v>0.192</v>
+      </c>
+      <c r="E49">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="C50">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="D50">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E50">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="C51">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="D51">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="E51">
+        <v>1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52">
+        <v>0.107</v>
+      </c>
+      <c r="C52">
+        <v>0.107</v>
+      </c>
+      <c r="D52">
+        <v>0.105</v>
+      </c>
+      <c r="E52">
+        <v>0.10200000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="C53">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54">
+        <v>0.121</v>
+      </c>
+      <c r="C54">
+        <v>0.121</v>
+      </c>
+      <c r="D54">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C55">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D55">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E55">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E56">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C57">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D57">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E57">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E58">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C59">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D59">
+        <v>0.65</v>
+      </c>
+      <c r="E59">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C60">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D60">
+        <v>0.65</v>
+      </c>
+      <c r="E60">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C61">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D61">
+        <v>0.65</v>
+      </c>
+      <c r="E61">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C62">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D62">
+        <v>0.65</v>
+      </c>
+      <c r="E62">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C63">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D63">
+        <v>0.65</v>
+      </c>
+      <c r="E63">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C64">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D64">
+        <v>0.65</v>
+      </c>
+      <c r="E64">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C65">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D65">
+        <v>0.65</v>
+      </c>
+      <c r="E65">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C66">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D66">
+        <v>0.65</v>
+      </c>
+      <c r="E66">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C67">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D67">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E67">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C68">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D68">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E68">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C69">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D69">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E69">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C70">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D70">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E70">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C71">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D71">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E71">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C72">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D72">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E72">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C73">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D73">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E73">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74">
+        <v>0.79</v>
+      </c>
+      <c r="C74">
+        <v>0.79</v>
+      </c>
+      <c r="D74">
+        <v>0.78</v>
+      </c>
+      <c r="E74">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="C75">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D75">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E75">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="C76">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D76">
+        <v>0.754</v>
+      </c>
+      <c r="E76">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77">
+        <v>0.75</v>
+      </c>
+      <c r="C77">
+        <v>0.75</v>
+      </c>
+      <c r="D77">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="E77">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="C78">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="D78">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E78">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="C79">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D79">
+        <v>0.751</v>
+      </c>
+      <c r="E79">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="C80">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D80">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="E80">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="C81">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D81">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="E81">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="C82">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="D82">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="E82">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83">
+        <v>0.874</v>
+      </c>
+      <c r="C83">
+        <v>0.874</v>
+      </c>
+      <c r="D83">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="E83">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84">
+        <v>0.876</v>
+      </c>
+      <c r="C84">
+        <v>0.876</v>
+      </c>
+      <c r="D84">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="E84">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="C85">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="D85">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E85">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="C86">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="D86">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="E86">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="C87">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D87">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E87">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="C88">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="D88">
+        <v>0.873</v>
+      </c>
+      <c r="E88">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89">
+        <v>0.02</v>
+      </c>
+      <c r="C89">
+        <v>0.02</v>
+      </c>
+      <c r="D89">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E89">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90">
+        <v>0.02</v>
+      </c>
+      <c r="C90">
+        <v>0.02</v>
+      </c>
+      <c r="D90">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E90">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91">
+        <v>0.02</v>
+      </c>
+      <c r="C91">
+        <v>0.02</v>
+      </c>
+      <c r="D91">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E91">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C92">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D92">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E92">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93">
+        <v>0.02</v>
+      </c>
+      <c r="C93">
+        <v>0.02</v>
+      </c>
+      <c r="D93">
+        <v>0.02</v>
+      </c>
+      <c r="E93">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94">
+        <v>0.02</v>
+      </c>
+      <c r="C94">
+        <v>0.02</v>
+      </c>
+      <c r="D94">
+        <v>0.02</v>
+      </c>
+      <c r="E94">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C95">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D95">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E95">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C96">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D96">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E96">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C97">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D97">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E97">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C98">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D98">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E98">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C99">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D99">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E99">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C100">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D100">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E100">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C101">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D101">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E101">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C102">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D102">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E102">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C103">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D103">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E103">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104">
+        <v>4.6769999999999996</v>
+      </c>
+      <c r="C104">
+        <v>4.6769999999999996</v>
+      </c>
+      <c r="D104">
+        <v>4.6130000000000004</v>
+      </c>
+      <c r="E104">
+        <v>4.4530000000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105">
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="C105">
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="D105">
+        <v>4.702</v>
+      </c>
+      <c r="E105">
+        <v>4.5380000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106">
+        <v>4.71</v>
+      </c>
+      <c r="C106">
+        <v>4.71</v>
+      </c>
+      <c r="D106">
+        <v>4.6449999999999996</v>
+      </c>
+      <c r="E106">
+        <v>4.484</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107">
+        <v>4.2759999999999998</v>
+      </c>
+      <c r="C107">
+        <v>4.2759999999999998</v>
+      </c>
+      <c r="D107">
+        <v>4.2169999999999996</v>
+      </c>
+      <c r="E107">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108">
+        <v>4.5780000000000003</v>
+      </c>
+      <c r="C108">
+        <v>4.5780000000000003</v>
+      </c>
+      <c r="D108">
+        <v>4.5149999999999997</v>
+      </c>
+      <c r="E108">
+        <v>4.3579999999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109">
+        <v>4.3559999999999999</v>
+      </c>
+      <c r="C109">
+        <v>4.3559999999999999</v>
+      </c>
+      <c r="D109">
+        <v>4.2960000000000003</v>
+      </c>
+      <c r="E109">
+        <v>4.1470000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110">
+        <v>4.2210000000000001</v>
+      </c>
+      <c r="C110">
+        <v>4.2210000000000001</v>
+      </c>
+      <c r="D110">
+        <v>4.1630000000000003</v>
+      </c>
+      <c r="E110">
+        <v>4.0190000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111">
+        <v>4.55</v>
+      </c>
+      <c r="C111">
+        <v>4.55</v>
+      </c>
+      <c r="D111">
+        <v>4.4870000000000001</v>
+      </c>
+      <c r="E111">
+        <v>4.3310000000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112">
+        <v>4.9349999999999996</v>
+      </c>
+      <c r="C112">
+        <v>4.9349999999999996</v>
+      </c>
+      <c r="D112">
+        <v>4.867</v>
+      </c>
+      <c r="E112">
+        <v>4.6980000000000004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113">
+        <v>4.6520000000000001</v>
+      </c>
+      <c r="C113">
+        <v>4.6520000000000001</v>
+      </c>
+      <c r="D113">
+        <v>4.5880000000000001</v>
+      </c>
+      <c r="E113">
+        <v>4.4290000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>133</v>
+      </c>
+      <c r="B114">
+        <v>4.6349999999999998</v>
+      </c>
+      <c r="C114">
+        <v>4.6349999999999998</v>
+      </c>
+      <c r="D114">
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="E114">
+        <v>4.4130000000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115">
+        <v>4.4109999999999996</v>
+      </c>
+      <c r="C115">
+        <v>4.4109999999999996</v>
+      </c>
+      <c r="D115">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E115">
+        <v>4.1989999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>135</v>
+      </c>
+      <c r="B116">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C116">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D116">
+        <v>5.03</v>
+      </c>
+      <c r="E116">
+        <v>4.8550000000000004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="C117">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="D117">
+        <v>4.72</v>
+      </c>
+      <c r="E117">
+        <v>4.556</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118">
+        <v>5.2409999999999997</v>
+      </c>
+      <c r="C118">
+        <v>5.2409999999999997</v>
+      </c>
+      <c r="D118">
+        <v>5.1689999999999996</v>
+      </c>
+      <c r="E118">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C119">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D119">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E119">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C120">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D120">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E120">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>140</v>
+      </c>
+      <c r="B121">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C121">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D121">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E121">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C122">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D122">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E122">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>142</v>
+      </c>
+      <c r="B123">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C123">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D123">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E123">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>143</v>
+      </c>
+      <c r="B124">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C124">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D124">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E124">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>144</v>
+      </c>
+      <c r="B125">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C125">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D125">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E125">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C126">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D126">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E126">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>146</v>
+      </c>
+      <c r="B127">
+        <v>2E-3</v>
+      </c>
+      <c r="C127">
+        <v>2E-3</v>
+      </c>
+      <c r="D127">
+        <v>2E-3</v>
+      </c>
+      <c r="E127">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>147</v>
+      </c>
+      <c r="B128">
+        <v>2E-3</v>
+      </c>
+      <c r="C128">
+        <v>2E-3</v>
+      </c>
+      <c r="D128">
+        <v>2E-3</v>
+      </c>
+      <c r="E128">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>148</v>
+      </c>
+      <c r="B129">
+        <v>2E-3</v>
+      </c>
+      <c r="C129">
+        <v>2E-3</v>
+      </c>
+      <c r="D129">
+        <v>2E-3</v>
+      </c>
+      <c r="E129">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130">
+        <v>2E-3</v>
+      </c>
+      <c r="C130">
+        <v>2E-3</v>
+      </c>
+      <c r="D130">
+        <v>2E-3</v>
+      </c>
+      <c r="E130">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>150</v>
+      </c>
+      <c r="B131">
+        <v>2E-3</v>
+      </c>
+      <c r="C131">
+        <v>2E-3</v>
+      </c>
+      <c r="D131">
+        <v>2E-3</v>
+      </c>
+      <c r="E131">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>151</v>
+      </c>
+      <c r="B132">
+        <v>2E-3</v>
+      </c>
+      <c r="C132">
+        <v>2E-3</v>
+      </c>
+      <c r="D132">
+        <v>2E-3</v>
+      </c>
+      <c r="E132">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133">
+        <v>2E-3</v>
+      </c>
+      <c r="C133">
+        <v>2E-3</v>
+      </c>
+      <c r="D133">
+        <v>2E-3</v>
+      </c>
+      <c r="E133">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0.01</v>
+      </c>
+      <c r="E134">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0.01</v>
+      </c>
+      <c r="E135">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>157</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0.01</v>
+      </c>
+      <c r="E136">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0.01</v>
+      </c>
+      <c r="E137">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E138">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0.01</v>
+      </c>
+      <c r="E139">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0.01</v>
+      </c>
+      <c r="E140">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0.01</v>
+      </c>
+      <c r="E141">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E142">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>164</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E143">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E144">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E145">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E146">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>168</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E147">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E148">
+        <v>0.10100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2365,6 +5565,851 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="44.6875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="102.8125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="35.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2">
+        <v>262.45999999999998</v>
+      </c>
+      <c r="C2" s="2">
+        <v>262.45999999999998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="E2">
+        <v>275.69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>50.85</v>
+      </c>
+      <c r="C4">
+        <v>50.85</v>
+      </c>
+      <c r="D4">
+        <v>50.85</v>
+      </c>
+      <c r="E4">
+        <v>50.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30.47</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30.47</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30.47</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>22.37</v>
+      </c>
+      <c r="C6" s="1">
+        <v>22.37</v>
+      </c>
+      <c r="D6" s="1">
+        <v>22.37</v>
+      </c>
+      <c r="E6" s="1">
+        <v>22.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1">
+        <v>47.92</v>
+      </c>
+      <c r="C7" s="1">
+        <v>47.92</v>
+      </c>
+      <c r="D7" s="1">
+        <v>47.92</v>
+      </c>
+      <c r="E7" s="1">
+        <v>47.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22.28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>22.28</v>
+      </c>
+      <c r="D8" s="1">
+        <v>22.28</v>
+      </c>
+      <c r="E8" s="1">
+        <v>22.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1">
+        <v>22.69</v>
+      </c>
+      <c r="C13" s="1">
+        <v>22.69</v>
+      </c>
+      <c r="D13" s="1">
+        <v>22.69</v>
+      </c>
+      <c r="E13" s="1">
+        <v>22.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4.37</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.37</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.37</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3.31</v>
+      </c>
+      <c r="C17">
+        <v>3.31</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>45.05</v>
+      </c>
+      <c r="C18">
+        <v>45.05</v>
+      </c>
+      <c r="D18">
+        <v>45.05</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>0.33</v>
+      </c>
+      <c r="C20">
+        <v>0.33</v>
+      </c>
+      <c r="D20">
+        <v>0.33</v>
+      </c>
+      <c r="E20">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>0.25</v>
+      </c>
+      <c r="C21">
+        <v>0.25</v>
+      </c>
+      <c r="D21">
+        <v>0.25</v>
+      </c>
+      <c r="E21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.91</v>
+      </c>
+      <c r="E25">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.91</v>
+      </c>
+      <c r="E26">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1.82</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>1.82</v>
+      </c>
+      <c r="C35">
+        <v>1.82</v>
+      </c>
+      <c r="D35">
+        <v>1.82</v>
+      </c>
+      <c r="E35">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>1.37</v>
+      </c>
+      <c r="C36">
+        <v>1.37</v>
+      </c>
+      <c r="D36">
+        <v>1.37</v>
+      </c>
+      <c r="E36">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>3.19</v>
+      </c>
+      <c r="C38">
+        <v>3.19</v>
+      </c>
+      <c r="D38">
+        <v>3.19</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1.82</v>
+      </c>
+      <c r="E40">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1.82</v>
+      </c>
+      <c r="E41">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>3.64</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AB0EC2-B5C0-44C7-91F4-9237E42E2BAB}">
   <dimension ref="A1:D37"/>
   <sheetViews>
@@ -2796,11 +6841,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2231F8E3-CA17-4967-B794-336E0B405E29}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/Basis/Simple_Envelope_Evaluation/publicated_value.xlsx
+++ b/Basis/Simple_Envelope_Evaluation/publicated_value.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miura\Dropbox\BRI-EES-House\03_HCLoad_and_Envelope\Basis\Simple_Envelope_Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F62703-28D7-46A1-B59F-6B7212C52E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FC1730-6206-4197-BCC1-4714AA650C58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="190">
   <si>
     <t>2017.04～</t>
     <phoneticPr fontId="1"/>
@@ -2456,6 +2456,66 @@
       <t>チイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上面に面した屋根又は天井の熱橋</t>
+  </si>
+  <si>
+    <t>南西に面した壁の熱橋</t>
+  </si>
+  <si>
+    <t>北西に面した壁の熱橋</t>
+  </si>
+  <si>
+    <t>北東に面した壁の熱橋</t>
+  </si>
+  <si>
+    <t>南東に面した壁の熱橋</t>
+  </si>
+  <si>
+    <t>床下に面した床の熱橋</t>
+  </si>
+  <si>
+    <t>上面に面した屋根又は天井と壁の熱橋</t>
+  </si>
+  <si>
+    <t>南西に面した屋根又は天井と壁の熱橋</t>
+  </si>
+  <si>
+    <t>北西に面した屋根又は天井と壁の熱橋</t>
+  </si>
+  <si>
+    <t>北東に面した屋根又は天井と壁の熱橋</t>
+  </si>
+  <si>
+    <t>南東に面した屋根又は天井と壁の熱橋</t>
+  </si>
+  <si>
+    <t>南西に面した壁と壁の熱橋</t>
+  </si>
+  <si>
+    <t>北西に面した壁と壁の熱橋</t>
+  </si>
+  <si>
+    <t>北東に面した壁と壁の熱橋</t>
+  </si>
+  <si>
+    <t>南東に面した壁と壁の熱橋</t>
+  </si>
+  <si>
+    <t>南西に面した壁と床の熱橋</t>
+  </si>
+  <si>
+    <t>北西に面した壁と床の熱橋</t>
+  </si>
+  <si>
+    <t>北東に面した壁と床の熱橋</t>
+  </si>
+  <si>
+    <t>南東に面した壁と床の熱橋</t>
+  </si>
+  <si>
+    <t>床下に面した壁と床の熱橋</t>
   </si>
 </sst>
 </file>
@@ -3000,10 +3060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ECC471-A60C-4EE5-94F5-B6269F8DA6CD}">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -3859,1701 +3919,2041 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="B49">
-        <v>0.19400000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="C49">
-        <v>0.19400000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="D49">
-        <v>0.192</v>
+        <v>15.4</v>
       </c>
       <c r="E49">
-        <v>0.185</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B50">
-        <v>0.48899999999999999</v>
+        <v>13.89</v>
       </c>
       <c r="C50">
-        <v>0.48899999999999999</v>
+        <v>13.89</v>
       </c>
       <c r="D50">
-        <v>0.48199999999999998</v>
+        <v>13.89</v>
       </c>
       <c r="E50">
-        <v>0.46600000000000003</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="B51">
-        <v>1.3999999999999999E-2</v>
+        <v>5.6</v>
       </c>
       <c r="C51">
-        <v>1.3999999999999999E-2</v>
+        <v>5.6</v>
       </c>
       <c r="D51">
-        <v>1.3999999999999999E-2</v>
+        <v>5.6</v>
       </c>
       <c r="E51">
-        <v>1.3000000000000001E-2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="B52">
-        <v>0.107</v>
+        <v>5.6</v>
       </c>
       <c r="C52">
-        <v>0.107</v>
+        <v>5.6</v>
       </c>
       <c r="D52">
-        <v>0.105</v>
+        <v>5.6</v>
       </c>
       <c r="E52">
-        <v>0.10200000000000001</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="B53">
-        <v>9.0000000000000011E-3</v>
+        <v>10.32</v>
       </c>
       <c r="C53">
-        <v>9.0000000000000011E-3</v>
+        <v>10.32</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>10.32</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="B54">
-        <v>0.121</v>
+        <v>15.4</v>
       </c>
       <c r="C54">
-        <v>0.121</v>
+        <v>15.4</v>
       </c>
       <c r="D54">
-        <v>0.11899999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="B55">
-        <v>4.0000000000000001E-3</v>
+        <v>28.42</v>
       </c>
       <c r="C55">
-        <v>4.0000000000000001E-3</v>
+        <v>28.42</v>
       </c>
       <c r="D55">
-        <v>4.0000000000000001E-3</v>
+        <v>28.42</v>
       </c>
       <c r="E55">
-        <v>3.0000000000000001E-3</v>
+        <v>28.42</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="D56">
-        <v>1.2E-2</v>
+        <v>5.3</v>
       </c>
       <c r="E56">
-        <v>5.0999999999999997E-2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="B57">
-        <v>2.1000000000000001E-2</v>
+        <v>7.12</v>
       </c>
       <c r="C57">
-        <v>2.1000000000000001E-2</v>
+        <v>7.12</v>
       </c>
       <c r="D57">
-        <v>2.1000000000000001E-2</v>
+        <v>7.12</v>
       </c>
       <c r="E57">
-        <v>1.2E-2</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="D58">
-        <v>2.4E-2</v>
+        <v>13.6</v>
       </c>
       <c r="E58">
-        <v>0.10100000000000001</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="B59">
-        <v>0.65900000000000003</v>
+        <v>2.4</v>
       </c>
       <c r="C59">
-        <v>0.65900000000000003</v>
+        <v>2.4</v>
       </c>
       <c r="D59">
-        <v>0.65</v>
+        <v>2.4</v>
       </c>
       <c r="E59">
-        <v>0.628</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="B60">
-        <v>0.65900000000000003</v>
+        <v>5.6</v>
       </c>
       <c r="C60">
-        <v>0.65900000000000003</v>
+        <v>5.6</v>
       </c>
       <c r="D60">
-        <v>0.65</v>
+        <v>5.6</v>
       </c>
       <c r="E60">
-        <v>0.628</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="B61">
-        <v>0.65900000000000003</v>
+        <v>11.4</v>
       </c>
       <c r="C61">
-        <v>0.65900000000000003</v>
+        <v>11.4</v>
       </c>
       <c r="D61">
-        <v>0.65</v>
+        <v>11.4</v>
       </c>
       <c r="E61">
-        <v>0.628</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="B62">
-        <v>0.65900000000000003</v>
+        <v>11.4</v>
       </c>
       <c r="C62">
-        <v>0.65900000000000003</v>
+        <v>11.4</v>
       </c>
       <c r="D62">
-        <v>0.65</v>
+        <v>11.4</v>
       </c>
       <c r="E62">
-        <v>0.628</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="B63">
-        <v>0.65900000000000003</v>
+        <v>5.6</v>
       </c>
       <c r="C63">
-        <v>0.65900000000000003</v>
+        <v>5.6</v>
       </c>
       <c r="D63">
-        <v>0.65</v>
+        <v>5.6</v>
       </c>
       <c r="E63">
-        <v>0.628</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="B64">
-        <v>0.65900000000000003</v>
+        <v>10.61</v>
       </c>
       <c r="C64">
-        <v>0.65900000000000003</v>
+        <v>10.61</v>
       </c>
       <c r="D64">
-        <v>0.65</v>
+        <v>10.61</v>
       </c>
       <c r="E64">
-        <v>0.628</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="B65">
-        <v>0.65900000000000003</v>
+        <v>2.97</v>
       </c>
       <c r="C65">
-        <v>0.65900000000000003</v>
+        <v>2.97</v>
       </c>
       <c r="D65">
-        <v>0.65</v>
+        <v>2.97</v>
       </c>
       <c r="E65">
-        <v>0.628</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="B66">
-        <v>0.65900000000000003</v>
+        <v>9.24</v>
       </c>
       <c r="C66">
-        <v>0.65900000000000003</v>
+        <v>9.24</v>
       </c>
       <c r="D66">
-        <v>0.65</v>
+        <v>9.24</v>
       </c>
       <c r="E66">
-        <v>0.628</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="B67">
-        <v>0.65800000000000003</v>
+        <v>4.79</v>
       </c>
       <c r="C67">
-        <v>0.65800000000000003</v>
+        <v>4.79</v>
       </c>
       <c r="D67">
-        <v>0.64900000000000002</v>
+        <v>4.79</v>
       </c>
       <c r="E67">
-        <v>0.627</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="B68">
-        <v>0.65800000000000003</v>
+        <v>3.64</v>
       </c>
       <c r="C68">
-        <v>0.65800000000000003</v>
+        <v>3.64</v>
       </c>
       <c r="D68">
-        <v>0.64900000000000002</v>
+        <v>3.64</v>
       </c>
       <c r="E68">
-        <v>0.627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.65800000000000003</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="C69">
-        <v>0.65800000000000003</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="D69">
-        <v>0.64900000000000002</v>
+        <v>0.192</v>
       </c>
       <c r="E69">
-        <v>0.627</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.65800000000000003</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="C70">
-        <v>0.65800000000000003</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D70">
-        <v>0.64900000000000002</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="E70">
-        <v>0.627</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.65800000000000003</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="C71">
-        <v>0.65800000000000003</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="D71">
-        <v>0.64900000000000002</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="E71">
-        <v>0.627</v>
+        <v>1.3000000000000001E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.65800000000000003</v>
+        <v>0.107</v>
       </c>
       <c r="C72">
-        <v>0.65800000000000003</v>
+        <v>0.107</v>
       </c>
       <c r="D72">
-        <v>0.64900000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="E72">
-        <v>0.627</v>
+        <v>0.10200000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.65800000000000003</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="C73">
-        <v>0.65800000000000003</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="D73">
-        <v>0.64900000000000002</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>0.627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.79</v>
+        <v>0.121</v>
       </c>
       <c r="C74">
-        <v>0.79</v>
+        <v>0.121</v>
       </c>
       <c r="D74">
-        <v>0.78</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="E74">
-        <v>0.752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B75">
-        <v>0.78400000000000003</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C75">
-        <v>0.78400000000000003</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D75">
-        <v>0.77300000000000002</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E75">
-        <v>0.746</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="B76">
-        <v>0.76500000000000001</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0.76500000000000001</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>0.754</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E76">
-        <v>0.72799999999999998</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>0.75</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C77">
-        <v>0.75</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D77">
-        <v>0.73899999999999999</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E77">
-        <v>0.71399999999999997</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="B78">
-        <v>0.78300000000000003</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0.78300000000000003</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0.77300000000000002</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E78">
-        <v>0.746</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>0.76200000000000001</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C79">
-        <v>0.76200000000000001</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D79">
-        <v>0.751</v>
+        <v>0.65</v>
       </c>
       <c r="E79">
-        <v>0.72499999999999998</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>0.73799999999999999</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C80">
-        <v>0.73799999999999999</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D80">
-        <v>0.72799999999999998</v>
+        <v>0.65</v>
       </c>
       <c r="E80">
-        <v>0.70299999999999996</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>0.76700000000000002</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C81">
-        <v>0.76700000000000002</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D81">
-        <v>0.75600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="E81">
-        <v>0.73</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>0.89800000000000002</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C82">
-        <v>0.89800000000000002</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D82">
-        <v>0.88600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="E82">
-        <v>0.85499999999999998</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>0.874</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C83">
-        <v>0.874</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D83">
-        <v>0.86199999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="E83">
-        <v>0.83199999999999996</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>0.876</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C84">
-        <v>0.876</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D84">
-        <v>0.86399999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="E84">
-        <v>0.83399999999999996</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>0.83699999999999997</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C85">
-        <v>0.83699999999999997</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D85">
-        <v>0.82599999999999996</v>
+        <v>0.65</v>
       </c>
       <c r="E85">
-        <v>0.79700000000000004</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>0.89300000000000002</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C86">
-        <v>0.89300000000000002</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D86">
-        <v>0.88100000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="E86">
-        <v>0.85</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>0.88200000000000001</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C87">
-        <v>0.88200000000000001</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D87">
-        <v>0.86899999999999999</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E87">
-        <v>0.83899999999999997</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>0.88500000000000001</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C88">
-        <v>0.88500000000000001</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D88">
-        <v>0.873</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E88">
-        <v>0.84199999999999997</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>0.02</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C89">
-        <v>0.02</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D89">
-        <v>1.9E-2</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E89">
-        <v>1.9E-2</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>0.02</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C90">
-        <v>0.02</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D90">
-        <v>1.9E-2</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E90">
-        <v>1.9E-2</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>0.02</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C91">
-        <v>0.02</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D91">
-        <v>1.9E-2</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E91">
-        <v>1.9E-2</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>1.9E-2</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C92">
-        <v>1.9E-2</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D92">
-        <v>1.9E-2</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E92">
-        <v>1.7999999999999999E-2</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>0.02</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C93">
-        <v>0.02</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D93">
-        <v>0.02</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E93">
-        <v>0.02</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>0.02</v>
+        <v>0.79</v>
       </c>
       <c r="C94">
-        <v>0.02</v>
+        <v>0.79</v>
       </c>
       <c r="D94">
-        <v>0.02</v>
+        <v>0.78</v>
       </c>
       <c r="E94">
-        <v>1.9E-2</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>1.9E-2</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="C95">
-        <v>1.9E-2</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="D95">
-        <v>1.9E-2</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="E95">
-        <v>1.7999999999999999E-2</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>1.9E-2</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="C96">
-        <v>1.9E-2</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D96">
-        <v>1.9E-2</v>
+        <v>0.754</v>
       </c>
       <c r="E96">
-        <v>1.7999999999999999E-2</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>1.4E-2</v>
+        <v>0.75</v>
       </c>
       <c r="C97">
-        <v>1.4E-2</v>
+        <v>0.75</v>
       </c>
       <c r="D97">
-        <v>1.4E-2</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="E97">
-        <v>1.4E-2</v>
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>1.4999999999999999E-2</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="C98">
-        <v>1.4999999999999999E-2</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="D98">
-        <v>1.4999999999999999E-2</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="E98">
-        <v>1.4E-2</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>1.4999999999999999E-2</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="C99">
-        <v>1.4999999999999999E-2</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="D99">
-        <v>1.4999999999999999E-2</v>
+        <v>0.751</v>
       </c>
       <c r="E99">
-        <v>1.4999999999999999E-2</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>1.4E-2</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="C100">
-        <v>1.4E-2</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D100">
-        <v>1.4E-2</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="E100">
-        <v>1.4E-2</v>
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>1.2999999999999999E-2</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="C101">
-        <v>1.2999999999999999E-2</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="D101">
-        <v>1.2999999999999999E-2</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="E101">
-        <v>1.2999999999999999E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>1.4E-2</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="C102">
-        <v>1.4E-2</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D102">
-        <v>1.4E-2</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="E102">
-        <v>1.2999999999999999E-2</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>1.2E-2</v>
+        <v>0.874</v>
       </c>
       <c r="C103">
-        <v>1.2E-2</v>
+        <v>0.874</v>
       </c>
       <c r="D103">
-        <v>1.2E-2</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="E103">
-        <v>1.2E-2</v>
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>4.6769999999999996</v>
+        <v>0.876</v>
       </c>
       <c r="C104">
-        <v>4.6769999999999996</v>
+        <v>0.876</v>
       </c>
       <c r="D104">
-        <v>4.6130000000000004</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="E104">
-        <v>4.4530000000000003</v>
+        <v>0.83399999999999996</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>4.7670000000000003</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="C105">
-        <v>4.7670000000000003</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="D105">
-        <v>4.702</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="E105">
-        <v>4.5380000000000003</v>
+        <v>0.79700000000000004</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>4.71</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="C106">
-        <v>4.71</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D106">
-        <v>4.6449999999999996</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="E106">
-        <v>4.484</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>4.2759999999999998</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="C107">
-        <v>4.2759999999999998</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D107">
-        <v>4.2169999999999996</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E107">
-        <v>4.07</v>
+        <v>0.83899999999999997</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>4.5780000000000003</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C108">
-        <v>4.5780000000000003</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D108">
-        <v>4.5149999999999997</v>
+        <v>0.873</v>
       </c>
       <c r="E108">
-        <v>4.3579999999999997</v>
+        <v>0.84199999999999997</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>4.3559999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="C109">
-        <v>4.3559999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="D109">
-        <v>4.2960000000000003</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E109">
-        <v>4.1470000000000002</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B110">
-        <v>4.2210000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="C110">
-        <v>4.2210000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="D110">
-        <v>4.1630000000000003</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E110">
-        <v>4.0190000000000001</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>4.55</v>
+        <v>0.02</v>
       </c>
       <c r="C111">
-        <v>4.55</v>
+        <v>0.02</v>
       </c>
       <c r="D111">
-        <v>4.4870000000000001</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E111">
-        <v>4.3310000000000004</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>4.9349999999999996</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C112">
-        <v>4.9349999999999996</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D112">
-        <v>4.867</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E112">
-        <v>4.6980000000000004</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>4.6520000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="C113">
-        <v>4.6520000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="D113">
-        <v>4.5880000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="E113">
-        <v>4.4290000000000003</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>4.6349999999999998</v>
+        <v>0.02</v>
       </c>
       <c r="C114">
-        <v>4.6349999999999998</v>
+        <v>0.02</v>
       </c>
       <c r="D114">
-        <v>4.5720000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="E114">
-        <v>4.4130000000000003</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>4.4109999999999996</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C115">
-        <v>4.4109999999999996</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D115">
-        <v>4.3499999999999996</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E115">
-        <v>4.1989999999999998</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>5.0999999999999996</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C116">
-        <v>5.0999999999999996</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D116">
-        <v>5.03</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E116">
-        <v>4.8550000000000004</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>4.7859999999999996</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C117">
-        <v>4.7859999999999996</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D117">
-        <v>4.72</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E117">
-        <v>4.556</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>5.2409999999999997</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C118">
-        <v>5.2409999999999997</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D118">
-        <v>5.1689999999999996</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E118">
-        <v>4.99</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C119">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D119">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E119">
-        <v>3.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C120">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D120">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E120">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C121">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D121">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E121">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C122">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D122">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E122">
-        <v>3.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C123">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D123">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E123">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>4.0000000000000001E-3</v>
+        <v>4.6769999999999996</v>
       </c>
       <c r="C124">
-        <v>4.0000000000000001E-3</v>
+        <v>4.6769999999999996</v>
       </c>
       <c r="D124">
-        <v>4.0000000000000001E-3</v>
+        <v>4.6130000000000004</v>
       </c>
       <c r="E124">
-        <v>4.0000000000000001E-3</v>
+        <v>4.4530000000000003</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>4.0000000000000001E-3</v>
+        <v>4.7670000000000003</v>
       </c>
       <c r="C125">
-        <v>4.0000000000000001E-3</v>
+        <v>4.7670000000000003</v>
       </c>
       <c r="D125">
-        <v>4.0000000000000001E-3</v>
+        <v>4.702</v>
       </c>
       <c r="E125">
-        <v>3.0000000000000001E-3</v>
+        <v>4.5380000000000003</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>4.0000000000000001E-3</v>
+        <v>4.71</v>
       </c>
       <c r="C126">
-        <v>4.0000000000000001E-3</v>
+        <v>4.71</v>
       </c>
       <c r="D126">
-        <v>4.0000000000000001E-3</v>
+        <v>4.6449999999999996</v>
       </c>
       <c r="E126">
-        <v>3.0000000000000001E-3</v>
+        <v>4.484</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>2E-3</v>
+        <v>4.2759999999999998</v>
       </c>
       <c r="C127">
-        <v>2E-3</v>
+        <v>4.2759999999999998</v>
       </c>
       <c r="D127">
-        <v>2E-3</v>
+        <v>4.2169999999999996</v>
       </c>
       <c r="E127">
-        <v>2E-3</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>2E-3</v>
+        <v>4.5780000000000003</v>
       </c>
       <c r="C128">
-        <v>2E-3</v>
+        <v>4.5780000000000003</v>
       </c>
       <c r="D128">
-        <v>2E-3</v>
+        <v>4.5149999999999997</v>
       </c>
       <c r="E128">
-        <v>2E-3</v>
+        <v>4.3579999999999997</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>2E-3</v>
+        <v>4.3559999999999999</v>
       </c>
       <c r="C129">
-        <v>2E-3</v>
+        <v>4.3559999999999999</v>
       </c>
       <c r="D129">
-        <v>2E-3</v>
+        <v>4.2960000000000003</v>
       </c>
       <c r="E129">
-        <v>2E-3</v>
+        <v>4.1470000000000002</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>2E-3</v>
+        <v>4.2210000000000001</v>
       </c>
       <c r="C130">
-        <v>2E-3</v>
+        <v>4.2210000000000001</v>
       </c>
       <c r="D130">
-        <v>2E-3</v>
+        <v>4.1630000000000003</v>
       </c>
       <c r="E130">
-        <v>2E-3</v>
+        <v>4.0190000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B131">
-        <v>2E-3</v>
+        <v>4.55</v>
       </c>
       <c r="C131">
-        <v>2E-3</v>
+        <v>4.55</v>
       </c>
       <c r="D131">
-        <v>2E-3</v>
+        <v>4.4870000000000001</v>
       </c>
       <c r="E131">
-        <v>2E-3</v>
+        <v>4.3310000000000004</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B132">
-        <v>2E-3</v>
+        <v>4.9349999999999996</v>
       </c>
       <c r="C132">
-        <v>2E-3</v>
+        <v>4.9349999999999996</v>
       </c>
       <c r="D132">
-        <v>2E-3</v>
+        <v>4.867</v>
       </c>
       <c r="E132">
-        <v>2E-3</v>
+        <v>4.6980000000000004</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>2E-3</v>
+        <v>4.6520000000000001</v>
       </c>
       <c r="C133">
-        <v>2E-3</v>
+        <v>4.6520000000000001</v>
       </c>
       <c r="D133">
-        <v>2E-3</v>
+        <v>4.5880000000000001</v>
       </c>
       <c r="E133">
-        <v>2E-3</v>
+        <v>4.4290000000000003</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>4.6349999999999998</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>4.6349999999999998</v>
       </c>
       <c r="D134">
-        <v>0.01</v>
+        <v>4.5720000000000001</v>
       </c>
       <c r="E134">
-        <v>8.4000000000000005E-2</v>
+        <v>4.4130000000000003</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>4.4109999999999996</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>4.4109999999999996</v>
       </c>
       <c r="D135">
-        <v>0.01</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E135">
-        <v>8.3000000000000004E-2</v>
+        <v>4.1989999999999998</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D136">
-        <v>0.01</v>
+        <v>5.03</v>
       </c>
       <c r="E136">
-        <v>8.1000000000000003E-2</v>
+        <v>4.8550000000000004</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>4.7859999999999996</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>4.7859999999999996</v>
       </c>
       <c r="D137">
-        <v>0.01</v>
+        <v>4.72</v>
       </c>
       <c r="E137">
-        <v>7.9000000000000001E-2</v>
+        <v>4.556</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>5.2409999999999997</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>5.2409999999999997</v>
       </c>
       <c r="D138">
-        <v>1.0999999999999999E-2</v>
+        <v>5.1689999999999996</v>
       </c>
       <c r="E138">
-        <v>8.2000000000000003E-2</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D139">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E139">
-        <v>0.08</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D140">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E140">
-        <v>7.6999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D141">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E141">
-        <v>8.1000000000000003E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D142">
-        <v>7.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E142">
-        <v>0.1</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D143">
-        <v>7.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E143">
-        <v>9.7000000000000003E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D144">
-        <v>8.0000000000000002E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E144">
-        <v>9.7000000000000003E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D145">
-        <v>7.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E145">
-        <v>9.2999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D146">
-        <v>7.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E146">
-        <v>0.10100000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="D147">
-        <v>7.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E147">
-        <v>9.8000000000000004E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2E-3</v>
+      </c>
+      <c r="C148">
+        <v>2E-3</v>
+      </c>
+      <c r="D148">
+        <v>2E-3</v>
+      </c>
+      <c r="E148">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2E-3</v>
+      </c>
+      <c r="C149">
+        <v>2E-3</v>
+      </c>
+      <c r="D149">
+        <v>2E-3</v>
+      </c>
+      <c r="E149">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2E-3</v>
+      </c>
+      <c r="C150">
+        <v>2E-3</v>
+      </c>
+      <c r="D150">
+        <v>2E-3</v>
+      </c>
+      <c r="E150">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2E-3</v>
+      </c>
+      <c r="C151">
+        <v>2E-3</v>
+      </c>
+      <c r="D151">
+        <v>2E-3</v>
+      </c>
+      <c r="E151">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2E-3</v>
+      </c>
+      <c r="C152">
+        <v>2E-3</v>
+      </c>
+      <c r="D152">
+        <v>2E-3</v>
+      </c>
+      <c r="E152">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2E-3</v>
+      </c>
+      <c r="C153">
+        <v>2E-3</v>
+      </c>
+      <c r="D153">
+        <v>2E-3</v>
+      </c>
+      <c r="E153">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0.01</v>
+      </c>
+      <c r="E154">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0.01</v>
+      </c>
+      <c r="E155">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0.01</v>
+      </c>
+      <c r="E156">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0.01</v>
+      </c>
+      <c r="E157">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E158">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0.01</v>
+      </c>
+      <c r="E159">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0.01</v>
+      </c>
+      <c r="E160">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0.01</v>
+      </c>
+      <c r="E161">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E162">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E163">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E164">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E165">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E166">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E167">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
         <v>169</v>
       </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E148">
+      <c r="E168">
         <v>0.10100000000000001</v>
       </c>
     </row>

--- a/Basis/Simple_Envelope_Evaluation/publicated_value.xlsx
+++ b/Basis/Simple_Envelope_Evaluation/publicated_value.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miura\Dropbox\BRI-EES-House\03_HCLoad_and_Envelope\Basis\Simple_Envelope_Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FC1730-6206-4197-BCC1-4714AA650C58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9857AF-7626-49EA-9436-9A08CE952560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2476,46 +2476,111 @@
     <t>床下に面した床の熱橋</t>
   </si>
   <si>
-    <t>上面に面した屋根又は天井と壁の熱橋</t>
-  </si>
-  <si>
-    <t>南西に面した屋根又は天井と壁の熱橋</t>
-  </si>
-  <si>
-    <t>北西に面した屋根又は天井と壁の熱橋</t>
-  </si>
-  <si>
-    <t>北東に面した屋根又は天井と壁の熱橋</t>
-  </si>
-  <si>
-    <t>南東に面した屋根又は天井と壁の熱橋</t>
-  </si>
-  <si>
-    <t>南西に面した壁と壁の熱橋</t>
-  </si>
-  <si>
-    <t>北西に面した壁と壁の熱橋</t>
-  </si>
-  <si>
-    <t>北東に面した壁と壁の熱橋</t>
-  </si>
-  <si>
-    <t>南東に面した壁と壁の熱橋</t>
-  </si>
-  <si>
-    <t>南西に面した壁と床の熱橋</t>
-  </si>
-  <si>
-    <t>北西に面した壁と床の熱橋</t>
-  </si>
-  <si>
-    <t>北東に面した壁と床の熱橋</t>
-  </si>
-  <si>
-    <t>南東に面した壁と床の熱橋</t>
-  </si>
-  <si>
-    <t>床下に面した壁と床の熱橋</t>
+    <t>上面と南西に面した屋根又は天井と壁の熱橋</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上面と北西に面した屋根又は天井と壁の熱橋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上面と北東に面した屋根又は天井と壁の熱橋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上面と南東に面した屋根又は天井と壁の熱橋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南西と北西に面した壁と壁の熱橋</t>
+    <rPh sb="3" eb="5">
+      <t>ホクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北西と北東に面した壁と壁の熱橋</t>
+    <rPh sb="3" eb="5">
+      <t>ホクトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北東と南東に面した壁と壁の熱橋</t>
+    <rPh sb="3" eb="5">
+      <t>ナントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南東と南西に面した壁と壁の熱橋</t>
+    <rPh sb="3" eb="5">
+      <t>ナンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南西と床下に面した壁と床の熱橋</t>
+    <rPh sb="3" eb="5">
+      <t>ユカシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北西と床下に面した壁と床の熱橋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北東と床下に面した壁と床の熱橋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南東と床下に面した壁と床の熱橋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床断熱住宅における浴室床なしと浴室床断熱の値を変更</t>
+    <rPh sb="0" eb="3">
+      <t>ユカダンネツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュウタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ダンネツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値変更</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2564,7 +2629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2575,6 +2640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3060,10 +3126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ECC471-A60C-4EE5-94F5-B6269F8DA6CD}">
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65:E67"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -3110,6 +3176,9 @@
       <c r="E2">
         <v>275.69</v>
       </c>
+      <c r="F2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -3373,7 +3442,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3390,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -3407,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3424,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -3441,7 +3510,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -3458,7 +3527,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -3475,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -3492,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -3509,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -3526,7 +3595,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3543,7 +3612,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -3560,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3577,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -3594,7 +3663,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -3610,8 +3679,11 @@
       <c r="E30">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -3628,7 +3700,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -3884,501 +3956,501 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" t="s">
+      <c r="A47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
         <v>4.79</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" t="s">
+      <c r="A48" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" t="s">
+      <c r="A49" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>15.4</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="4">
         <v>15.4</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="4">
         <v>15.4</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
         <v>15.4</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" t="s">
+      <c r="A50" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>13.89</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <v>13.89</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="4">
         <v>13.89</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
         <v>13.89</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" t="s">
+      <c r="A51" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>5.6</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <v>5.6</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="4">
         <v>5.6</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>5.6</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" t="s">
+      <c r="A52" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>5.6</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="4">
         <v>5.6</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="4">
         <v>5.6</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>5.6</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" t="s">
+      <c r="A53" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>10.32</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="4">
         <v>10.32</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="4">
         <v>10.32</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <v>10.32</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" t="s">
+      <c r="A54" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
+        <v>19.04</v>
+      </c>
+      <c r="C54" s="4">
+        <v>19.04</v>
+      </c>
+      <c r="D54" s="4">
+        <v>19.04</v>
+      </c>
+      <c r="E54" s="4">
         <v>15.4</v>
       </c>
-      <c r="C54">
-        <v>15.4</v>
-      </c>
-      <c r="D54">
-        <v>15.4</v>
-      </c>
-      <c r="E54">
-        <v>15.4</v>
-      </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" t="s">
+      <c r="A55" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B55">
-        <v>28.42</v>
-      </c>
-      <c r="C55">
-        <v>28.42</v>
-      </c>
-      <c r="D55">
-        <v>28.42</v>
-      </c>
-      <c r="E55">
-        <v>28.42</v>
+      <c r="B55" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="C55" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="D55" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="E55" s="4">
+        <v>10.61</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" t="s">
+      <c r="A56" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B56">
-        <v>5.3</v>
-      </c>
-      <c r="C56">
-        <v>5.3</v>
-      </c>
-      <c r="D56">
-        <v>5.3</v>
-      </c>
-      <c r="E56">
-        <v>5.3</v>
+      <c r="B56" s="4">
+        <v>14.23</v>
+      </c>
+      <c r="C56" s="4">
+        <v>14.23</v>
+      </c>
+      <c r="D56" s="4">
+        <v>14.23</v>
+      </c>
+      <c r="E56" s="4">
+        <v>14.23</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" t="s">
+      <c r="A57" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B57">
-        <v>7.12</v>
-      </c>
-      <c r="C57">
-        <v>7.12</v>
-      </c>
-      <c r="D57">
-        <v>7.12</v>
-      </c>
-      <c r="E57">
-        <v>7.12</v>
+      <c r="B57" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="C57" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="D57" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>27.2</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" t="s">
+      <c r="A58" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B58">
-        <v>13.6</v>
-      </c>
-      <c r="C58">
-        <v>13.6</v>
-      </c>
-      <c r="D58">
-        <v>13.6</v>
-      </c>
-      <c r="E58">
-        <v>13.6</v>
+      <c r="B58" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="C58" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="E58" s="4">
+        <v>4.79</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" t="s">
+      <c r="A59" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B59">
-        <v>2.4</v>
-      </c>
-      <c r="C59">
-        <v>2.4</v>
-      </c>
-      <c r="D59">
-        <v>2.4</v>
-      </c>
-      <c r="E59">
-        <v>2.4</v>
+      <c r="B59" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="C59" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="D59" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E59" s="4">
+        <v>5.6</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" t="s">
+      <c r="A60" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="C60" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="D60" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="E60" s="4">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="4">
         <v>5.6</v>
       </c>
-      <c r="C60">
+      <c r="C61" s="4">
         <v>5.6</v>
       </c>
-      <c r="D60">
+      <c r="D61" s="4">
         <v>5.6</v>
       </c>
-      <c r="E60">
+      <c r="E61" s="4">
         <v>5.6</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>182</v>
-      </c>
-      <c r="B61">
-        <v>11.4</v>
-      </c>
-      <c r="C61">
-        <v>11.4</v>
-      </c>
-      <c r="D61">
-        <v>11.4</v>
-      </c>
-      <c r="E61">
-        <v>11.4</v>
-      </c>
-    </row>
     <row r="62" spans="1:5">
-      <c r="A62" t="s">
+      <c r="A62" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B62">
-        <v>11.4</v>
-      </c>
-      <c r="C62">
-        <v>11.4</v>
-      </c>
-      <c r="D62">
-        <v>11.4</v>
-      </c>
-      <c r="E62">
-        <v>11.4</v>
+      <c r="B62" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="C62" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="D62" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E62" s="4">
+        <v>5.6</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" t="s">
+      <c r="A63" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B63">
-        <v>5.6</v>
-      </c>
-      <c r="C63">
-        <v>5.6</v>
-      </c>
-      <c r="D63">
-        <v>5.6</v>
-      </c>
-      <c r="E63">
-        <v>5.6</v>
+      <c r="B63" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="C63" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="D63" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="E63" s="4">
+        <v>10.61</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" t="s">
+      <c r="A64" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B64">
-        <v>10.61</v>
-      </c>
-      <c r="C64">
-        <v>10.61</v>
-      </c>
-      <c r="D64">
-        <v>10.61</v>
-      </c>
-      <c r="E64">
-        <v>10.61</v>
+      <c r="B64" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="C64" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2.97</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" t="s">
+      <c r="A65" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B65">
-        <v>2.97</v>
-      </c>
-      <c r="C65">
-        <v>2.97</v>
-      </c>
-      <c r="D65">
-        <v>2.97</v>
-      </c>
-      <c r="E65">
-        <v>2.97</v>
+      <c r="B65" s="4">
+        <v>9.24</v>
+      </c>
+      <c r="C65" s="4">
+        <v>9.24</v>
+      </c>
+      <c r="D65" s="4">
+        <v>9.24</v>
+      </c>
+      <c r="E65" s="4">
+        <v>9.24</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" t="s">
+      <c r="A66" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B66">
-        <v>9.24</v>
-      </c>
-      <c r="C66">
-        <v>9.24</v>
-      </c>
-      <c r="D66">
-        <v>9.24</v>
-      </c>
-      <c r="E66">
-        <v>9.24</v>
+      <c r="B66" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="C66" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="D66" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="E66" s="4">
+        <v>4.79</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>4.79</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="C67">
-        <v>4.79</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="D67">
-        <v>4.79</v>
+        <v>0.192</v>
       </c>
       <c r="E67">
-        <v>4.79</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>3.64</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="C68">
-        <v>3.64</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D68">
-        <v>3.64</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.19400000000000001</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="C69">
-        <v>0.19400000000000001</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="D69">
-        <v>0.192</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="E69">
-        <v>0.185</v>
+        <v>1.3000000000000001E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.48899999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="C70">
-        <v>0.48899999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="D70">
-        <v>0.48199999999999998</v>
+        <v>0.105</v>
       </c>
       <c r="E70">
-        <v>0.46600000000000003</v>
+        <v>0.10200000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>1.3999999999999999E-2</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="C71">
-        <v>1.3999999999999999E-2</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="D71">
-        <v>1.3999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>1.3000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.107</v>
+        <v>0.121</v>
       </c>
       <c r="C72">
-        <v>0.107</v>
+        <v>0.121</v>
       </c>
       <c r="D72">
-        <v>0.105</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="E72">
-        <v>0.10200000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>9.0000000000000011E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C73">
-        <v>9.0000000000000011E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="B74">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>0.11899999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>4.0000000000000001E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C75">
-        <v>4.0000000000000001E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D75">
-        <v>4.0000000000000001E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E75">
-        <v>3.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -4387,49 +4459,49 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>1.2E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E76">
-        <v>5.0999999999999997E-2</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>2.1000000000000001E-2</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C77">
-        <v>2.1000000000000001E-2</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D77">
-        <v>2.1000000000000001E-2</v>
+        <v>0.65</v>
       </c>
       <c r="E77">
-        <v>1.2E-2</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D78">
-        <v>2.4E-2</v>
+        <v>0.65</v>
       </c>
       <c r="E78">
-        <v>0.10100000000000001</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
         <v>0.65900000000000003</v>
@@ -4446,7 +4518,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
         <v>0.65900000000000003</v>
@@ -4463,7 +4535,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
         <v>0.65900000000000003</v>
@@ -4480,7 +4552,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
         <v>0.65900000000000003</v>
@@ -4497,7 +4569,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
         <v>0.65900000000000003</v>
@@ -4514,7 +4586,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
         <v>0.65900000000000003</v>
@@ -4531,41 +4603,41 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.65900000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C85">
-        <v>0.65900000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D85">
-        <v>0.65</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E85">
-        <v>0.628</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.65900000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C86">
-        <v>0.65900000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D86">
-        <v>0.65</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E86">
-        <v>0.628</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
         <v>0.65800000000000003</v>
@@ -4582,7 +4654,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
         <v>0.65800000000000003</v>
@@ -4599,7 +4671,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
         <v>0.65800000000000003</v>
@@ -4616,7 +4688,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
         <v>0.65800000000000003</v>
@@ -4633,7 +4705,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
         <v>0.65800000000000003</v>
@@ -4650,296 +4722,296 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.65800000000000003</v>
+        <v>0.79</v>
       </c>
       <c r="C92">
-        <v>0.65800000000000003</v>
+        <v>0.79</v>
       </c>
       <c r="D92">
-        <v>0.64900000000000002</v>
+        <v>0.78</v>
       </c>
       <c r="E92">
-        <v>0.627</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.65800000000000003</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="C93">
-        <v>0.65800000000000003</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="D93">
-        <v>0.64900000000000002</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="E93">
-        <v>0.627</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.79</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="C94">
-        <v>0.79</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D94">
-        <v>0.78</v>
+        <v>0.754</v>
       </c>
       <c r="E94">
-        <v>0.752</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.78400000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="C95">
-        <v>0.78400000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="D95">
-        <v>0.77300000000000002</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="E95">
-        <v>0.746</v>
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
-        <v>0.76500000000000001</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="C96">
-        <v>0.76500000000000001</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="D96">
-        <v>0.754</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="E96">
-        <v>0.72799999999999998</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.75</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="C97">
-        <v>0.75</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="D97">
-        <v>0.73899999999999999</v>
+        <v>0.751</v>
       </c>
       <c r="E97">
-        <v>0.71399999999999997</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.78300000000000003</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="C98">
-        <v>0.78300000000000003</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D98">
-        <v>0.77300000000000002</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="E98">
-        <v>0.746</v>
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.76200000000000001</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="C99">
-        <v>0.76200000000000001</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="D99">
-        <v>0.751</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="E99">
-        <v>0.72499999999999998</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
-        <v>0.73799999999999999</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="C100">
-        <v>0.73799999999999999</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D100">
-        <v>0.72799999999999998</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="E100">
-        <v>0.70299999999999996</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.76700000000000002</v>
+        <v>0.874</v>
       </c>
       <c r="C101">
-        <v>0.76700000000000002</v>
+        <v>0.874</v>
       </c>
       <c r="D101">
-        <v>0.75600000000000001</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="E101">
-        <v>0.73</v>
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
-        <v>0.89800000000000002</v>
+        <v>0.876</v>
       </c>
       <c r="C102">
-        <v>0.89800000000000002</v>
+        <v>0.876</v>
       </c>
       <c r="D102">
-        <v>0.88600000000000001</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="E102">
-        <v>0.85499999999999998</v>
+        <v>0.83399999999999996</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
-        <v>0.874</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="C103">
-        <v>0.874</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="D103">
-        <v>0.86199999999999999</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="E103">
-        <v>0.83199999999999996</v>
+        <v>0.79700000000000004</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
-        <v>0.876</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="C104">
-        <v>0.876</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D104">
-        <v>0.86399999999999999</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="E104">
-        <v>0.83399999999999996</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B105">
-        <v>0.83699999999999997</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="C105">
-        <v>0.83699999999999997</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D105">
-        <v>0.82599999999999996</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E105">
-        <v>0.79700000000000004</v>
+        <v>0.83899999999999997</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106">
-        <v>0.89300000000000002</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C106">
-        <v>0.89300000000000002</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D106">
-        <v>0.88100000000000001</v>
+        <v>0.873</v>
       </c>
       <c r="E106">
-        <v>0.85</v>
+        <v>0.84199999999999997</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107">
-        <v>0.88200000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="C107">
-        <v>0.88200000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="D107">
-        <v>0.86899999999999999</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E107">
-        <v>0.83899999999999997</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108">
-        <v>0.88500000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="C108">
-        <v>0.88500000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="D108">
-        <v>0.873</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E108">
-        <v>0.84199999999999997</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109">
         <v>0.02</v>
@@ -4956,24 +5028,24 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C110">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D110">
         <v>1.9E-2</v>
       </c>
       <c r="E110">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111">
         <v>0.02</v>
@@ -4982,126 +5054,126 @@
         <v>0.02</v>
       </c>
       <c r="D111">
-        <v>1.9E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E111">
-        <v>1.9E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112">
+        <v>0.02</v>
+      </c>
+      <c r="C112">
+        <v>0.02</v>
+      </c>
+      <c r="D112">
+        <v>0.02</v>
+      </c>
+      <c r="E112">
         <v>1.9E-2</v>
-      </c>
-      <c r="C112">
-        <v>1.9E-2</v>
-      </c>
-      <c r="D112">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E112">
-        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C113">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D113">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E113">
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B114">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C114">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D114">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E114">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115">
-        <v>1.9E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C115">
-        <v>1.9E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D115">
-        <v>1.9E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E115">
-        <v>1.7999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B116">
-        <v>1.9E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C116">
-        <v>1.9E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D116">
-        <v>1.9E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E116">
-        <v>1.7999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B117">
-        <v>1.4E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C117">
-        <v>1.4E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D117">
-        <v>1.4E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E117">
-        <v>1.4E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B118">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C118">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D118">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E118">
         <v>1.4E-2</v>
@@ -5109,24 +5181,24 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B119">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C119">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D119">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E119">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B120">
         <v>1.4E-2</v>
@@ -5138,318 +5210,318 @@
         <v>1.4E-2</v>
       </c>
       <c r="E120">
-        <v>1.4E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B121">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C121">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D121">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E121">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B122">
-        <v>1.4E-2</v>
+        <v>4.6769999999999996</v>
       </c>
       <c r="C122">
-        <v>1.4E-2</v>
+        <v>4.6769999999999996</v>
       </c>
       <c r="D122">
-        <v>1.4E-2</v>
+        <v>4.6130000000000004</v>
       </c>
       <c r="E122">
-        <v>1.2999999999999999E-2</v>
+        <v>4.4530000000000003</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B123">
-        <v>1.2E-2</v>
+        <v>4.7670000000000003</v>
       </c>
       <c r="C123">
-        <v>1.2E-2</v>
+        <v>4.7670000000000003</v>
       </c>
       <c r="D123">
-        <v>1.2E-2</v>
+        <v>4.702</v>
       </c>
       <c r="E123">
-        <v>1.2E-2</v>
+        <v>4.5380000000000003</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B124">
-        <v>4.6769999999999996</v>
+        <v>4.71</v>
       </c>
       <c r="C124">
-        <v>4.6769999999999996</v>
+        <v>4.71</v>
       </c>
       <c r="D124">
-        <v>4.6130000000000004</v>
+        <v>4.6449999999999996</v>
       </c>
       <c r="E124">
-        <v>4.4530000000000003</v>
+        <v>4.484</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B125">
-        <v>4.7670000000000003</v>
+        <v>4.2759999999999998</v>
       </c>
       <c r="C125">
-        <v>4.7670000000000003</v>
+        <v>4.2759999999999998</v>
       </c>
       <c r="D125">
-        <v>4.702</v>
+        <v>4.2169999999999996</v>
       </c>
       <c r="E125">
-        <v>4.5380000000000003</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B126">
-        <v>4.71</v>
+        <v>4.5780000000000003</v>
       </c>
       <c r="C126">
-        <v>4.71</v>
+        <v>4.5780000000000003</v>
       </c>
       <c r="D126">
-        <v>4.6449999999999996</v>
+        <v>4.5149999999999997</v>
       </c>
       <c r="E126">
-        <v>4.484</v>
+        <v>4.3579999999999997</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B127">
-        <v>4.2759999999999998</v>
+        <v>4.3559999999999999</v>
       </c>
       <c r="C127">
-        <v>4.2759999999999998</v>
+        <v>4.3559999999999999</v>
       </c>
       <c r="D127">
-        <v>4.2169999999999996</v>
+        <v>4.2960000000000003</v>
       </c>
       <c r="E127">
-        <v>4.07</v>
+        <v>4.1470000000000002</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B128">
-        <v>4.5780000000000003</v>
+        <v>4.2210000000000001</v>
       </c>
       <c r="C128">
-        <v>4.5780000000000003</v>
+        <v>4.2210000000000001</v>
       </c>
       <c r="D128">
-        <v>4.5149999999999997</v>
+        <v>4.1630000000000003</v>
       </c>
       <c r="E128">
-        <v>4.3579999999999997</v>
+        <v>4.0190000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B129">
-        <v>4.3559999999999999</v>
+        <v>4.55</v>
       </c>
       <c r="C129">
-        <v>4.3559999999999999</v>
+        <v>4.55</v>
       </c>
       <c r="D129">
-        <v>4.2960000000000003</v>
+        <v>4.4870000000000001</v>
       </c>
       <c r="E129">
-        <v>4.1470000000000002</v>
+        <v>4.3310000000000004</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B130">
-        <v>4.2210000000000001</v>
+        <v>4.9349999999999996</v>
       </c>
       <c r="C130">
-        <v>4.2210000000000001</v>
+        <v>4.9349999999999996</v>
       </c>
       <c r="D130">
-        <v>4.1630000000000003</v>
+        <v>4.867</v>
       </c>
       <c r="E130">
-        <v>4.0190000000000001</v>
+        <v>4.6980000000000004</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B131">
-        <v>4.55</v>
+        <v>4.6520000000000001</v>
       </c>
       <c r="C131">
-        <v>4.55</v>
+        <v>4.6520000000000001</v>
       </c>
       <c r="D131">
-        <v>4.4870000000000001</v>
+        <v>4.5880000000000001</v>
       </c>
       <c r="E131">
-        <v>4.3310000000000004</v>
+        <v>4.4290000000000003</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B132">
-        <v>4.9349999999999996</v>
+        <v>4.6349999999999998</v>
       </c>
       <c r="C132">
-        <v>4.9349999999999996</v>
+        <v>4.6349999999999998</v>
       </c>
       <c r="D132">
-        <v>4.867</v>
+        <v>4.5720000000000001</v>
       </c>
       <c r="E132">
-        <v>4.6980000000000004</v>
+        <v>4.4130000000000003</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B133">
-        <v>4.6520000000000001</v>
+        <v>4.4109999999999996</v>
       </c>
       <c r="C133">
-        <v>4.6520000000000001</v>
+        <v>4.4109999999999996</v>
       </c>
       <c r="D133">
-        <v>4.5880000000000001</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E133">
-        <v>4.4290000000000003</v>
+        <v>4.1989999999999998</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134">
-        <v>4.6349999999999998</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C134">
-        <v>4.6349999999999998</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D134">
-        <v>4.5720000000000001</v>
+        <v>5.03</v>
       </c>
       <c r="E134">
-        <v>4.4130000000000003</v>
+        <v>4.8550000000000004</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B135">
-        <v>4.4109999999999996</v>
+        <v>4.7859999999999996</v>
       </c>
       <c r="C135">
-        <v>4.4109999999999996</v>
+        <v>4.7859999999999996</v>
       </c>
       <c r="D135">
-        <v>4.3499999999999996</v>
+        <v>4.72</v>
       </c>
       <c r="E135">
-        <v>4.1989999999999998</v>
+        <v>4.556</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B136">
-        <v>5.0999999999999996</v>
+        <v>5.2409999999999997</v>
       </c>
       <c r="C136">
-        <v>5.0999999999999996</v>
+        <v>5.2409999999999997</v>
       </c>
       <c r="D136">
-        <v>5.03</v>
+        <v>5.1689999999999996</v>
       </c>
       <c r="E136">
-        <v>4.8550000000000004</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B137">
-        <v>4.7859999999999996</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C137">
-        <v>4.7859999999999996</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D137">
-        <v>4.72</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E137">
-        <v>4.556</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B138">
-        <v>5.2409999999999997</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C138">
-        <v>5.2409999999999997</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D138">
-        <v>5.1689999999999996</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E138">
-        <v>4.99</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B139">
         <v>4.0000000000000001E-3</v>
@@ -5461,12 +5533,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E139">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B140">
         <v>4.0000000000000001E-3</v>
@@ -5478,12 +5550,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E140">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B141">
         <v>4.0000000000000001E-3</v>
@@ -5500,7 +5572,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B142">
         <v>4.0000000000000001E-3</v>
@@ -5512,12 +5584,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E142">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B143">
         <v>4.0000000000000001E-3</v>
@@ -5529,12 +5601,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E143">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B144">
         <v>4.0000000000000001E-3</v>
@@ -5546,46 +5618,46 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E144">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B145">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C145">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D145">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E145">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B146">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C146">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D146">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E146">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B147">
         <v>2E-3</v>
@@ -5602,7 +5674,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B148">
         <v>2E-3</v>
@@ -5619,7 +5691,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B149">
         <v>2E-3</v>
@@ -5636,7 +5708,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B150">
         <v>2E-3</v>
@@ -5653,7 +5725,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B151">
         <v>2E-3</v>
@@ -5670,41 +5742,41 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B152">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D152">
-        <v>2E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E152">
-        <v>2E-3</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B153">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="C153">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>2E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E153">
-        <v>2E-3</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -5716,12 +5788,12 @@
         <v>0.01</v>
       </c>
       <c r="E154">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -5733,12 +5805,12 @@
         <v>0.01</v>
       </c>
       <c r="E155">
-        <v>8.3000000000000004E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -5747,15 +5819,15 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E156">
-        <v>8.1000000000000003E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -5767,12 +5839,12 @@
         <v>0.01</v>
       </c>
       <c r="E157">
-        <v>7.9000000000000001E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -5781,15 +5853,15 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E158">
-        <v>8.2000000000000003E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -5801,12 +5873,12 @@
         <v>0.01</v>
       </c>
       <c r="E159">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -5815,15 +5887,15 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E160">
-        <v>7.6999999999999999E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -5832,15 +5904,15 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E161">
-        <v>8.1000000000000003E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -5849,15 +5921,15 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>7.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E162">
-        <v>0.1</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -5869,12 +5941,12 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E163">
-        <v>9.7000000000000003E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -5883,15 +5955,15 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E164">
-        <v>9.7000000000000003E-2</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -5903,12 +5975,12 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E165">
-        <v>9.2999999999999999E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -5917,43 +5989,9 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E166">
-        <v>0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" t="s">
-        <v>168</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E167">
-        <v>9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" t="s">
-        <v>169</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E168">
         <v>0.10100000000000001</v>
       </c>
     </row>
@@ -5968,8 +6006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:E48"/>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>

--- a/Basis/Simple_Envelope_Evaluation/publicated_value.xlsx
+++ b/Basis/Simple_Envelope_Evaluation/publicated_value.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miura\Dropbox\BRI-EES-House\03_HCLoad_and_Envelope\Basis\Simple_Envelope_Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9857AF-7626-49EA-9436-9A08CE952560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A81BCAB-160A-4F1A-9469-57507155439A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test2020" sheetId="4" r:id="rId1"/>
-    <sheet name="test2019" sheetId="1" r:id="rId2"/>
-    <sheet name="test2017" sheetId="3" r:id="rId3"/>
-    <sheet name="仕様書" sheetId="2" r:id="rId4"/>
+    <sheet name="test2020_2" sheetId="5" r:id="rId1"/>
+    <sheet name="test2020" sheetId="4" r:id="rId2"/>
+    <sheet name="test2019" sheetId="1" r:id="rId3"/>
+    <sheet name="test2017" sheetId="3" r:id="rId4"/>
+    <sheet name="仕様書" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="295">
   <si>
     <t>2017.04～</t>
     <phoneticPr fontId="1"/>
@@ -2579,6 +2580,762 @@
     </rPh>
     <rPh sb="1" eb="3">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南西と北西に面した壁と壁の熱橋（出隅）</t>
+    <rPh sb="3" eb="5">
+      <t>ホクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>デスミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北西と北東に面した壁と壁の熱橋（出隅）</t>
+    <rPh sb="3" eb="5">
+      <t>ホクトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北東と南東に面した壁と壁の熱橋（出隅）</t>
+    <rPh sb="3" eb="5">
+      <t>ナントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南東と南西に面した壁と壁の熱橋（出隅）</t>
+    <rPh sb="3" eb="5">
+      <t>ナンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南西と北西に面した壁と壁の熱橋（入隅）</t>
+    <rPh sb="3" eb="5">
+      <t>ホクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北西と北東に面した壁と壁の熱橋（入隅）</t>
+    <rPh sb="3" eb="5">
+      <t>ホクトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北東と南東に面した壁と壁の熱橋（入隅）</t>
+    <rPh sb="3" eb="5">
+      <t>ナントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南東と南西に面した壁と壁の熱橋（入隅）</t>
+    <rPh sb="3" eb="5">
+      <t>ナンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 熱橋部位 屋根又は天井</t>
+    <rPh sb="2" eb="4">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 熱橋部位 壁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 熱橋部位 床</t>
+    <rPh sb="10" eb="11">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 熱橋部位 屋根又は天井と壁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 熱橋部位 壁と壁（出隅）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 熱橋部位 壁と壁（入隅）</t>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 熱橋部位 壁と床</t>
+    <rPh sb="12" eb="13">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 屋根又は天井 1地域</t>
+    <rPh sb="19" eb="21">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 屋根又は天井 2地域</t>
+    <rPh sb="19" eb="21">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 屋根又は天井 3地域</t>
+    <rPh sb="19" eb="21">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 屋根又は天井 4地域</t>
+    <rPh sb="19" eb="21">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 屋根又は天井 5地域</t>
+    <rPh sb="19" eb="21">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 屋根又は天井 6地域</t>
+    <rPh sb="19" eb="21">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 屋根又は天井 7地域</t>
+    <rPh sb="19" eb="21">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 屋根又は天井 8地域</t>
+    <rPh sb="19" eb="21">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁 1地域</t>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁 2地域</t>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁 3地域</t>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁 4地域</t>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁 5地域</t>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁 6地域</t>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁 7地域</t>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁 8地域</t>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 屋根又は天井と壁 1地域</t>
+    <rPh sb="21" eb="23">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 屋根又は天井と壁 2地域</t>
+    <rPh sb="21" eb="23">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 屋根又は天井と壁 3地域</t>
+    <rPh sb="21" eb="23">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 屋根又は天井と壁 4地域</t>
+    <rPh sb="21" eb="23">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 屋根又は天井と壁 5地域</t>
+    <rPh sb="21" eb="23">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 屋根又は天井と壁 6地域</t>
+    <rPh sb="21" eb="23">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 屋根又は天井と壁 7地域</t>
+    <rPh sb="21" eb="23">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 屋根又は天井と壁 8地域</t>
+    <rPh sb="21" eb="23">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁（出隅） 1地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁（出隅） 2地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁（出隅） 3地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁（出隅） 4地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁（出隅） 5地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁（出隅） 6地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁（出隅） 7地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁（出隅） 8地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁（入隅） 1地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁（入隅） 2地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁（入隅） 3地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁（入隅） 4地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁（入隅） 5地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁（入隅） 6地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁（入隅） 7地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁（入隅） 8地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と床 1地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と床 2地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と床 3地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と床 4地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と床 5地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と床 6地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と床 7地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と床 8地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 屋根又は天井 1地域</t>
+    <rPh sb="19" eb="21">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 屋根又は天井 2地域</t>
+    <rPh sb="19" eb="21">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 屋根又は天井 3地域</t>
+    <rPh sb="19" eb="21">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 屋根又は天井 4地域</t>
+    <rPh sb="19" eb="21">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 屋根又は天井 5地域</t>
+    <rPh sb="19" eb="21">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 屋根又は天井 6地域</t>
+    <rPh sb="19" eb="21">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 屋根又は天井 7地域</t>
+    <rPh sb="19" eb="21">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁 1地域</t>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁 2地域</t>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁 3地域</t>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁 4地域</t>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁 5地域</t>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁 6地域</t>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁 7地域</t>
+    <rPh sb="14" eb="16">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 屋根又は天井と壁 1地域</t>
+    <rPh sb="21" eb="23">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 屋根又は天井と壁 2地域</t>
+    <rPh sb="21" eb="23">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 屋根又は天井と壁 3地域</t>
+    <rPh sb="21" eb="23">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 屋根又は天井と壁 4地域</t>
+    <rPh sb="21" eb="23">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 屋根又は天井と壁 5地域</t>
+    <rPh sb="21" eb="23">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 屋根又は天井と壁 6地域</t>
+    <rPh sb="21" eb="23">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 屋根又は天井と壁 7地域</t>
+    <rPh sb="21" eb="23">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁（出隅） 1地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁（出隅） 2地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁（出隅） 3地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁（出隅） 4地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁（出隅） 5地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁（出隅） 6地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁（出隅） 7地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁（入隅） 1地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁（入隅） 2地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁（入隅） 3地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁（入隅） 4地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁（入隅） 5地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁（入隅） 6地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁（入隅） 7地域</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と床 1地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と床 2地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と床 3地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と床 4地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と床 5地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と床 6地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と床 7地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3125,11 +3882,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ECC471-A60C-4EE5-94F5-B6269F8DA6CD}">
-  <dimension ref="A1:F166"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A54213-DE88-487B-B9ED-F82CF304DA25}">
+  <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B254" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E269" sqref="E269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -3447,7 +4207,7 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>3.31</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>3.31</v>
@@ -3464,7 +4224,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>45.05</v>
+        <v>48.36</v>
       </c>
       <c r="C18">
         <v>45.05</v>
@@ -4088,7 +4848,7 @@
         <v>19.04</v>
       </c>
       <c r="E54" s="4">
-        <v>15.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4161,7 +4921,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B59" s="4">
         <v>5.6</v>
@@ -4178,24 +4938,24 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B60" s="4">
-        <v>17.2</v>
+        <v>11.4</v>
       </c>
       <c r="C60" s="4">
-        <v>17.2</v>
+        <v>11.4</v>
       </c>
       <c r="D60" s="4">
-        <v>17.2</v>
+        <v>11.4</v>
       </c>
       <c r="E60" s="4">
-        <v>17.2</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="4" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B61" s="4">
         <v>5.6</v>
@@ -4212,7 +4972,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="4" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B62" s="4">
         <v>5.6</v>
@@ -4229,1707 +4989,1707 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B63" s="4">
-        <v>10.61</v>
+        <v>0</v>
       </c>
       <c r="C63" s="4">
-        <v>10.61</v>
+        <v>0</v>
       </c>
       <c r="D63" s="4">
-        <v>10.61</v>
+        <v>0</v>
       </c>
       <c r="E63" s="4">
-        <v>10.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B64" s="4">
-        <v>2.97</v>
+        <v>5.8</v>
       </c>
       <c r="C64" s="4">
-        <v>2.97</v>
+        <v>5.8</v>
       </c>
       <c r="D64" s="4">
-        <v>2.97</v>
+        <v>5.8</v>
       </c>
       <c r="E64" s="4">
-        <v>2.97</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B65" s="4">
-        <v>9.24</v>
+        <v>0</v>
       </c>
       <c r="C65" s="4">
-        <v>9.24</v>
+        <v>0</v>
       </c>
       <c r="D65" s="4">
-        <v>9.24</v>
+        <v>0</v>
       </c>
       <c r="E65" s="4">
-        <v>9.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="C67" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="D67" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="E67" s="4">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="C68" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="E68" s="4">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="4">
+        <v>9.24</v>
+      </c>
+      <c r="C69" s="4">
+        <v>9.24</v>
+      </c>
+      <c r="D69" s="4">
+        <v>9.24</v>
+      </c>
+      <c r="E69" s="4">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B70" s="4">
         <v>4.79</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C70" s="4">
         <v>4.79</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D70" s="4">
         <v>4.79</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E70" s="4">
         <v>4.79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="C67">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="D67">
-        <v>0.192</v>
-      </c>
-      <c r="E67">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="C68">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="D68">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="E68">
-        <v>0.46600000000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69">
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="C69">
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="D69">
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="E69">
-        <v>1.3000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70">
-        <v>0.107</v>
-      </c>
-      <c r="C70">
-        <v>0.107</v>
-      </c>
-      <c r="D70">
-        <v>0.105</v>
-      </c>
-      <c r="E70">
-        <v>0.10200000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>9.0000000000000011E-3</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="C71">
-        <v>9.0000000000000011E-3</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>0.121</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="C72">
-        <v>0.121</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D72">
-        <v>0.11899999999999999</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>4.0000000000000001E-3</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="C73">
-        <v>4.0000000000000001E-3</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="D73">
-        <v>4.0000000000000001E-3</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="E73">
-        <v>3.0000000000000001E-3</v>
+        <v>1.3000000000000001E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="D74">
-        <v>1.2E-2</v>
+        <v>0.105</v>
       </c>
       <c r="E74">
-        <v>5.0999999999999997E-2</v>
+        <v>0.10200000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>2.1000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>2.1000000000000001E-2</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="D75">
-        <v>2.1000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>0.129</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="D76">
-        <v>2.4E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="E76">
-        <v>0.10100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>0.65900000000000003</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C77">
-        <v>0.65900000000000003</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D77">
-        <v>0.65</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E77">
-        <v>0.628</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="B78">
-        <v>0.65900000000000003</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0.65900000000000003</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0.65</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E78">
-        <v>0.628</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B79">
-        <v>0.65900000000000003</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C79">
-        <v>0.65900000000000003</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D79">
-        <v>0.65</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E79">
-        <v>0.628</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="B80">
-        <v>0.65900000000000003</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0.65900000000000003</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>0.65</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E80">
-        <v>0.628</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="B81">
-        <v>0.65900000000000003</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C81">
-        <v>0.65900000000000003</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D81">
-        <v>0.65</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E81">
-        <v>0.628</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="B82">
-        <v>0.65900000000000003</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C82">
-        <v>0.65900000000000003</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D82">
-        <v>0.65</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="E82">
-        <v>0.628</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="B83">
-        <v>0.65900000000000003</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C83">
-        <v>0.65900000000000003</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D83">
-        <v>0.65</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="E83">
-        <v>0.628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="B84">
-        <v>0.65900000000000003</v>
+        <v>0.217</v>
       </c>
       <c r="C84">
-        <v>0.65900000000000003</v>
+        <v>0.217</v>
       </c>
       <c r="D84">
-        <v>0.65</v>
+        <v>0.214</v>
       </c>
       <c r="E84">
-        <v>0.628</v>
+        <v>0.20699999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="B85">
-        <v>0.65800000000000003</v>
+        <v>0.108</v>
       </c>
       <c r="C85">
-        <v>0.65800000000000003</v>
+        <v>0.108</v>
       </c>
       <c r="D85">
-        <v>0.64900000000000002</v>
+        <v>0.106</v>
       </c>
       <c r="E85">
-        <v>0.627</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="B86">
-        <v>0.65800000000000003</v>
+        <v>2.3E-2</v>
       </c>
       <c r="C86">
-        <v>0.65800000000000003</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D86">
-        <v>0.64900000000000002</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E86">
-        <v>0.627</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="B87">
-        <v>0.65800000000000003</v>
+        <v>0.106</v>
       </c>
       <c r="C87">
-        <v>0.65800000000000003</v>
+        <v>0.106</v>
       </c>
       <c r="D87">
-        <v>0.64900000000000002</v>
+        <v>0.104</v>
       </c>
       <c r="E87">
-        <v>0.627</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B88">
-        <v>0.65800000000000003</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C88">
-        <v>0.65800000000000003</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D88">
-        <v>0.64900000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="E88">
-        <v>0.627</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B89">
-        <v>0.65800000000000003</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C89">
-        <v>0.65800000000000003</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D89">
-        <v>0.64900000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="E89">
-        <v>0.627</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B90">
-        <v>0.65800000000000003</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C90">
-        <v>0.65800000000000003</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D90">
-        <v>0.64900000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="E90">
-        <v>0.627</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B91">
-        <v>0.65800000000000003</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C91">
-        <v>0.65800000000000003</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D91">
-        <v>0.64900000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="E91">
-        <v>0.627</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B92">
-        <v>0.79</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C92">
-        <v>0.79</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D92">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="E92">
-        <v>0.752</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B93">
-        <v>0.78400000000000003</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C93">
-        <v>0.78400000000000003</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D93">
-        <v>0.77300000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="E93">
-        <v>0.746</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B94">
-        <v>0.76500000000000001</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C94">
-        <v>0.76500000000000001</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D94">
-        <v>0.754</v>
+        <v>0.65</v>
       </c>
       <c r="E94">
-        <v>0.72799999999999998</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B95">
-        <v>0.75</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C95">
-        <v>0.75</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D95">
-        <v>0.73899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="E95">
-        <v>0.71399999999999997</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B96">
-        <v>0.78300000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C96">
-        <v>0.78300000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D96">
-        <v>0.77300000000000002</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E96">
-        <v>0.746</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B97">
-        <v>0.76200000000000001</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C97">
-        <v>0.76200000000000001</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D97">
-        <v>0.751</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E97">
-        <v>0.72499999999999998</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B98">
-        <v>0.73799999999999999</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C98">
-        <v>0.73799999999999999</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D98">
-        <v>0.72799999999999998</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E98">
-        <v>0.70299999999999996</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B99">
-        <v>0.76700000000000002</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C99">
-        <v>0.76700000000000002</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D99">
-        <v>0.75600000000000001</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E99">
-        <v>0.73</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B100">
-        <v>0.89800000000000002</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C100">
-        <v>0.89800000000000002</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D100">
-        <v>0.88600000000000001</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E100">
-        <v>0.85499999999999998</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B101">
-        <v>0.874</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C101">
-        <v>0.874</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D101">
-        <v>0.86199999999999999</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E101">
-        <v>0.83199999999999996</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B102">
-        <v>0.876</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C102">
-        <v>0.876</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D102">
-        <v>0.86399999999999999</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E102">
-        <v>0.83399999999999996</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B103">
-        <v>0.83699999999999997</v>
+        <v>0.79</v>
       </c>
       <c r="C103">
-        <v>0.83699999999999997</v>
+        <v>0.79</v>
       </c>
       <c r="D103">
-        <v>0.82599999999999996</v>
+        <v>0.78</v>
       </c>
       <c r="E103">
-        <v>0.79700000000000004</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B104">
-        <v>0.89300000000000002</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="C104">
-        <v>0.89300000000000002</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="D104">
-        <v>0.88100000000000001</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="E104">
-        <v>0.85</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B105">
-        <v>0.88200000000000001</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="C105">
-        <v>0.88200000000000001</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D105">
-        <v>0.86899999999999999</v>
+        <v>0.754</v>
       </c>
       <c r="E105">
-        <v>0.83899999999999997</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B106">
-        <v>0.88500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="C106">
-        <v>0.88500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="D106">
-        <v>0.873</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="E106">
-        <v>0.84199999999999997</v>
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B107">
-        <v>0.02</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="C107">
-        <v>0.02</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="D107">
-        <v>1.9E-2</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="E107">
-        <v>1.9E-2</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B108">
-        <v>0.02</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="C108">
-        <v>0.02</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="D108">
-        <v>1.9E-2</v>
+        <v>0.751</v>
       </c>
       <c r="E108">
-        <v>1.9E-2</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B109">
-        <v>0.02</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="C109">
-        <v>0.02</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D109">
-        <v>1.9E-2</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="E109">
-        <v>1.9E-2</v>
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B110">
-        <v>1.9E-2</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="C110">
-        <v>1.9E-2</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="D110">
-        <v>1.9E-2</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="E110">
-        <v>1.7999999999999999E-2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B111">
-        <v>0.02</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="C111">
-        <v>0.02</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D111">
-        <v>0.02</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="E111">
-        <v>0.02</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B112">
-        <v>0.02</v>
+        <v>0.874</v>
       </c>
       <c r="C112">
-        <v>0.02</v>
+        <v>0.874</v>
       </c>
       <c r="D112">
-        <v>0.02</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="E112">
-        <v>1.9E-2</v>
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B113">
-        <v>1.9E-2</v>
+        <v>0.876</v>
       </c>
       <c r="C113">
-        <v>1.9E-2</v>
+        <v>0.876</v>
       </c>
       <c r="D113">
-        <v>1.9E-2</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="E113">
-        <v>1.7999999999999999E-2</v>
+        <v>0.83399999999999996</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B114">
-        <v>1.9E-2</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="C114">
-        <v>1.9E-2</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="D114">
-        <v>1.9E-2</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="E114">
-        <v>1.7999999999999999E-2</v>
+        <v>0.79700000000000004</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B115">
-        <v>1.4E-2</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="C115">
-        <v>1.4E-2</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D115">
-        <v>1.4E-2</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="E115">
-        <v>1.4E-2</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B116">
-        <v>1.4999999999999999E-2</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="C116">
-        <v>1.4999999999999999E-2</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D116">
-        <v>1.4999999999999999E-2</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E116">
-        <v>1.4E-2</v>
+        <v>0.83899999999999997</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B117">
-        <v>1.4999999999999999E-2</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C117">
-        <v>1.4999999999999999E-2</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D117">
-        <v>1.4999999999999999E-2</v>
+        <v>0.873</v>
       </c>
       <c r="E117">
-        <v>1.4999999999999999E-2</v>
+        <v>0.84199999999999997</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B118">
-        <v>1.4E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C118">
-        <v>1.4E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D118">
-        <v>1.4E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E118">
-        <v>1.4E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B119">
-        <v>1.2999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C119">
-        <v>1.2999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D119">
-        <v>1.2999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E119">
-        <v>1.2999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B120">
-        <v>1.4E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C120">
-        <v>1.4E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D120">
-        <v>1.4E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E120">
-        <v>1.2999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B121">
-        <v>1.2E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C121">
-        <v>1.2E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D121">
-        <v>1.2E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E121">
-        <v>1.2E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B122">
-        <v>4.6769999999999996</v>
+        <v>0.02</v>
       </c>
       <c r="C122">
-        <v>4.6769999999999996</v>
+        <v>0.02</v>
       </c>
       <c r="D122">
-        <v>4.6130000000000004</v>
+        <v>0.02</v>
       </c>
       <c r="E122">
-        <v>4.4530000000000003</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B123">
-        <v>4.7670000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="C123">
-        <v>4.7670000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="D123">
-        <v>4.702</v>
+        <v>0.02</v>
       </c>
       <c r="E123">
-        <v>4.5380000000000003</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B124">
-        <v>4.71</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C124">
-        <v>4.71</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D124">
-        <v>4.6449999999999996</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E124">
-        <v>4.484</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B125">
-        <v>4.2759999999999998</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C125">
-        <v>4.2759999999999998</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D125">
-        <v>4.2169999999999996</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E125">
-        <v>4.07</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B126">
-        <v>4.5780000000000003</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C126">
-        <v>4.5780000000000003</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D126">
-        <v>4.5149999999999997</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E126">
-        <v>4.3579999999999997</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B127">
-        <v>4.3559999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C127">
-        <v>4.3559999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D127">
-        <v>4.2960000000000003</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E127">
-        <v>4.1470000000000002</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B128">
-        <v>4.2210000000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C128">
-        <v>4.2210000000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D128">
-        <v>4.1630000000000003</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E128">
-        <v>4.0190000000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B129">
-        <v>4.55</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C129">
-        <v>4.55</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D129">
-        <v>4.4870000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E129">
-        <v>4.3310000000000004</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B130">
-        <v>4.9349999999999996</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C130">
-        <v>4.9349999999999996</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D130">
-        <v>4.867</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E130">
-        <v>4.6980000000000004</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B131">
-        <v>4.6520000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C131">
-        <v>4.6520000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D131">
-        <v>4.5880000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E131">
-        <v>4.4290000000000003</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B132">
-        <v>4.6349999999999998</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C132">
-        <v>4.6349999999999998</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D132">
-        <v>4.5720000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E132">
-        <v>4.4130000000000003</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B133">
-        <v>4.4109999999999996</v>
+        <v>4.6769999999999996</v>
       </c>
       <c r="C133">
-        <v>4.4109999999999996</v>
+        <v>4.6769999999999996</v>
       </c>
       <c r="D133">
-        <v>4.3499999999999996</v>
+        <v>4.6130000000000004</v>
       </c>
       <c r="E133">
-        <v>4.1989999999999998</v>
+        <v>4.4530000000000003</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B134">
-        <v>5.0999999999999996</v>
+        <v>4.7670000000000003</v>
       </c>
       <c r="C134">
-        <v>5.0999999999999996</v>
+        <v>4.7670000000000003</v>
       </c>
       <c r="D134">
-        <v>5.03</v>
+        <v>4.702</v>
       </c>
       <c r="E134">
-        <v>4.8550000000000004</v>
+        <v>4.5380000000000003</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B135">
-        <v>4.7859999999999996</v>
+        <v>4.71</v>
       </c>
       <c r="C135">
-        <v>4.7859999999999996</v>
+        <v>4.71</v>
       </c>
       <c r="D135">
-        <v>4.72</v>
+        <v>4.6449999999999996</v>
       </c>
       <c r="E135">
-        <v>4.556</v>
+        <v>4.484</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B136">
-        <v>5.2409999999999997</v>
+        <v>4.2759999999999998</v>
       </c>
       <c r="C136">
-        <v>5.2409999999999997</v>
+        <v>4.2759999999999998</v>
       </c>
       <c r="D136">
-        <v>5.1689999999999996</v>
+        <v>4.2169999999999996</v>
       </c>
       <c r="E136">
-        <v>4.99</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B137">
-        <v>4.0000000000000001E-3</v>
+        <v>4.5780000000000003</v>
       </c>
       <c r="C137">
-        <v>4.0000000000000001E-3</v>
+        <v>4.5780000000000003</v>
       </c>
       <c r="D137">
-        <v>4.0000000000000001E-3</v>
+        <v>4.5149999999999997</v>
       </c>
       <c r="E137">
-        <v>3.0000000000000001E-3</v>
+        <v>4.3579999999999997</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B138">
-        <v>4.0000000000000001E-3</v>
+        <v>4.3559999999999999</v>
       </c>
       <c r="C138">
-        <v>4.0000000000000001E-3</v>
+        <v>4.3559999999999999</v>
       </c>
       <c r="D138">
-        <v>4.0000000000000001E-3</v>
+        <v>4.2960000000000003</v>
       </c>
       <c r="E138">
-        <v>4.0000000000000001E-3</v>
+        <v>4.1470000000000002</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B139">
-        <v>4.0000000000000001E-3</v>
+        <v>4.2210000000000001</v>
       </c>
       <c r="C139">
-        <v>4.0000000000000001E-3</v>
+        <v>4.2210000000000001</v>
       </c>
       <c r="D139">
-        <v>4.0000000000000001E-3</v>
+        <v>4.1630000000000003</v>
       </c>
       <c r="E139">
-        <v>4.0000000000000001E-3</v>
+        <v>4.0190000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B140">
-        <v>4.0000000000000001E-3</v>
+        <v>4.55</v>
       </c>
       <c r="C140">
-        <v>4.0000000000000001E-3</v>
+        <v>4.55</v>
       </c>
       <c r="D140">
-        <v>4.0000000000000001E-3</v>
+        <v>4.4870000000000001</v>
       </c>
       <c r="E140">
-        <v>3.0000000000000001E-3</v>
+        <v>4.3310000000000004</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B141">
-        <v>4.0000000000000001E-3</v>
+        <v>4.9349999999999996</v>
       </c>
       <c r="C141">
-        <v>4.0000000000000001E-3</v>
+        <v>4.9349999999999996</v>
       </c>
       <c r="D141">
-        <v>4.0000000000000001E-3</v>
+        <v>4.867</v>
       </c>
       <c r="E141">
-        <v>4.0000000000000001E-3</v>
+        <v>4.6980000000000004</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B142">
-        <v>4.0000000000000001E-3</v>
+        <v>4.6520000000000001</v>
       </c>
       <c r="C142">
-        <v>4.0000000000000001E-3</v>
+        <v>4.6520000000000001</v>
       </c>
       <c r="D142">
-        <v>4.0000000000000001E-3</v>
+        <v>4.5880000000000001</v>
       </c>
       <c r="E142">
-        <v>4.0000000000000001E-3</v>
+        <v>4.4290000000000003</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B143">
-        <v>4.0000000000000001E-3</v>
+        <v>4.6349999999999998</v>
       </c>
       <c r="C143">
-        <v>4.0000000000000001E-3</v>
+        <v>4.6349999999999998</v>
       </c>
       <c r="D143">
-        <v>4.0000000000000001E-3</v>
+        <v>4.5720000000000001</v>
       </c>
       <c r="E143">
-        <v>3.0000000000000001E-3</v>
+        <v>4.4130000000000003</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B144">
-        <v>4.0000000000000001E-3</v>
+        <v>4.4109999999999996</v>
       </c>
       <c r="C144">
-        <v>4.0000000000000001E-3</v>
+        <v>4.4109999999999996</v>
       </c>
       <c r="D144">
-        <v>4.0000000000000001E-3</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E144">
-        <v>3.0000000000000001E-3</v>
+        <v>4.1989999999999998</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B145">
-        <v>2E-3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C145">
-        <v>2E-3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D145">
-        <v>2E-3</v>
+        <v>5.03</v>
       </c>
       <c r="E145">
-        <v>2E-3</v>
+        <v>4.8550000000000004</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B146">
-        <v>2E-3</v>
+        <v>4.7859999999999996</v>
       </c>
       <c r="C146">
-        <v>2E-3</v>
+        <v>4.7859999999999996</v>
       </c>
       <c r="D146">
-        <v>2E-3</v>
+        <v>4.72</v>
       </c>
       <c r="E146">
-        <v>2E-3</v>
+        <v>4.556</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B147">
-        <v>2E-3</v>
+        <v>5.2409999999999997</v>
       </c>
       <c r="C147">
-        <v>2E-3</v>
+        <v>5.2409999999999997</v>
       </c>
       <c r="D147">
-        <v>2E-3</v>
+        <v>5.1689999999999996</v>
       </c>
       <c r="E147">
-        <v>2E-3</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B148">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C148">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D148">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E148">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B149">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C149">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D149">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E149">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B150">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C150">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D150">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E150">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B151">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C151">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D151">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E151">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D152">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E152">
-        <v>8.4000000000000005E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D153">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E153">
-        <v>8.3000000000000004E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D154">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E154">
-        <v>8.1000000000000003E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D155">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E155">
-        <v>7.9000000000000001E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="D156">
-        <v>1.0999999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E156">
-        <v>8.2000000000000003E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="D157">
-        <v>0.01</v>
+        <v>2E-3</v>
       </c>
       <c r="E157">
-        <v>0.08</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="D158">
-        <v>0.01</v>
+        <v>2E-3</v>
       </c>
       <c r="E158">
-        <v>7.6999999999999999E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="D159">
-        <v>0.01</v>
+        <v>2E-3</v>
       </c>
       <c r="E159">
-        <v>8.1000000000000003E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="D160">
-        <v>7.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E160">
-        <v>0.1</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="D161">
-        <v>7.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E161">
-        <v>9.7000000000000003E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="D162">
-        <v>8.0000000000000002E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E162">
-        <v>9.7000000000000003E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -5938,15 +6698,15 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E163">
-        <v>9.2999999999999999E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -5955,15 +6715,15 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E164">
-        <v>0.10100000000000001</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -5972,27 +6732,1744 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E165">
-        <v>9.8000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
+        <v>158</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0.01</v>
+      </c>
+      <c r="E166">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>159</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E167">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>160</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0.01</v>
+      </c>
+      <c r="E168">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>161</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0.01</v>
+      </c>
+      <c r="E169">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>162</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0.01</v>
+      </c>
+      <c r="E170">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>163</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E171">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>164</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E172">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>165</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E173">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>166</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E174">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>167</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E175">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>168</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E176">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
         <v>169</v>
       </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-      <c r="D166">
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E166">
+      <c r="E177">
         <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>205</v>
+      </c>
+      <c r="B178">
+        <v>0.2</v>
+      </c>
+      <c r="C178">
+        <v>0.2</v>
+      </c>
+      <c r="D178">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E178">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>206</v>
+      </c>
+      <c r="B179">
+        <v>0.2</v>
+      </c>
+      <c r="C179">
+        <v>0.2</v>
+      </c>
+      <c r="D179">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E179">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>207</v>
+      </c>
+      <c r="B180">
+        <v>0.2</v>
+      </c>
+      <c r="C180">
+        <v>0.2</v>
+      </c>
+      <c r="D180">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E180">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>208</v>
+      </c>
+      <c r="B181">
+        <v>0.2</v>
+      </c>
+      <c r="C181">
+        <v>0.2</v>
+      </c>
+      <c r="D181">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E181">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>209</v>
+      </c>
+      <c r="B182">
+        <v>0.2</v>
+      </c>
+      <c r="C182">
+        <v>0.2</v>
+      </c>
+      <c r="D182">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E182">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>210</v>
+      </c>
+      <c r="B183">
+        <v>0.2</v>
+      </c>
+      <c r="C183">
+        <v>0.2</v>
+      </c>
+      <c r="D183">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E183">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>211</v>
+      </c>
+      <c r="B184">
+        <v>0.2</v>
+      </c>
+      <c r="C184">
+        <v>0.2</v>
+      </c>
+      <c r="D184">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E184">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>212</v>
+      </c>
+      <c r="B185">
+        <v>0.2</v>
+      </c>
+      <c r="C185">
+        <v>0.2</v>
+      </c>
+      <c r="D185">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E185">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>253</v>
+      </c>
+      <c r="B186">
+        <v>0.2</v>
+      </c>
+      <c r="C186">
+        <v>0.2</v>
+      </c>
+      <c r="D186">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E186">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>254</v>
+      </c>
+      <c r="B187">
+        <v>0.2</v>
+      </c>
+      <c r="C187">
+        <v>0.2</v>
+      </c>
+      <c r="D187">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E187">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>255</v>
+      </c>
+      <c r="B188">
+        <v>0.2</v>
+      </c>
+      <c r="C188">
+        <v>0.2</v>
+      </c>
+      <c r="D188">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E188">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>256</v>
+      </c>
+      <c r="B189">
+        <v>0.2</v>
+      </c>
+      <c r="C189">
+        <v>0.2</v>
+      </c>
+      <c r="D189">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E189">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>257</v>
+      </c>
+      <c r="B190">
+        <v>0.2</v>
+      </c>
+      <c r="C190">
+        <v>0.2</v>
+      </c>
+      <c r="D190">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E190">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>258</v>
+      </c>
+      <c r="B191">
+        <v>0.2</v>
+      </c>
+      <c r="C191">
+        <v>0.2</v>
+      </c>
+      <c r="D191">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E191">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>259</v>
+      </c>
+      <c r="B192">
+        <v>0.2</v>
+      </c>
+      <c r="C192">
+        <v>0.2</v>
+      </c>
+      <c r="D192">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E192">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>213</v>
+      </c>
+      <c r="B193">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C193">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="D193">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="E193">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>214</v>
+      </c>
+      <c r="B194">
+        <v>0.23</v>
+      </c>
+      <c r="C194">
+        <v>0.23</v>
+      </c>
+      <c r="D194">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E194">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>215</v>
+      </c>
+      <c r="B195">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C195">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D195">
+        <v>0.222</v>
+      </c>
+      <c r="E195">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>216</v>
+      </c>
+      <c r="B196">
+        <v>0.215</v>
+      </c>
+      <c r="C196">
+        <v>0.215</v>
+      </c>
+      <c r="D196">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E196">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>217</v>
+      </c>
+      <c r="B197">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C197">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D197">
+        <v>0.222</v>
+      </c>
+      <c r="E197">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>218</v>
+      </c>
+      <c r="B198">
+        <v>0.218</v>
+      </c>
+      <c r="C198">
+        <v>0.218</v>
+      </c>
+      <c r="D198">
+        <v>0.215</v>
+      </c>
+      <c r="E198">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>219</v>
+      </c>
+      <c r="B199">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C199">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="D199">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E199">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>220</v>
+      </c>
+      <c r="B200">
+        <v>0.224</v>
+      </c>
+      <c r="C200">
+        <v>0.224</v>
+      </c>
+      <c r="D200">
+        <v>0.221</v>
+      </c>
+      <c r="E200">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>260</v>
+      </c>
+      <c r="B201">
+        <v>0.3</v>
+      </c>
+      <c r="C201">
+        <v>0.3</v>
+      </c>
+      <c r="D201">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E201">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>261</v>
+      </c>
+      <c r="B202">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="C202">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="D202">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E202">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>262</v>
+      </c>
+      <c r="B203">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="C203">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="D203">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="E203">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>263</v>
+      </c>
+      <c r="B204">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C204">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D204">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="E204">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>264</v>
+      </c>
+      <c r="B205">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C205">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D205">
+        <v>0.3</v>
+      </c>
+      <c r="E205">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>265</v>
+      </c>
+      <c r="B206">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="C206">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D206">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="E206">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>266</v>
+      </c>
+      <c r="B207">
+        <v>0.307</v>
+      </c>
+      <c r="C207">
+        <v>0.307</v>
+      </c>
+      <c r="D207">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E207">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>221</v>
+      </c>
+      <c r="B208">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="C208">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D208">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E208">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>222</v>
+      </c>
+      <c r="B209">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="C209">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="D209">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E209">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>223</v>
+      </c>
+      <c r="B210">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="C210">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D210">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="E210">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>224</v>
+      </c>
+      <c r="B211">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="C211">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D211">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E211">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>225</v>
+      </c>
+      <c r="B212">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="C212">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="D212">
+        <v>0.53</v>
+      </c>
+      <c r="E212">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>226</v>
+      </c>
+      <c r="B213">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="C213">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D213">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="E213">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>227</v>
+      </c>
+      <c r="B214">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="C214">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D214">
+        <v>0.52</v>
+      </c>
+      <c r="E214">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>228</v>
+      </c>
+      <c r="B215">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="C215">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D215">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="E215">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>267</v>
+      </c>
+      <c r="B216">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="C216">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="D216">
+        <v>0.53</v>
+      </c>
+      <c r="E216">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>268</v>
+      </c>
+      <c r="B217">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="C217">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D217">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E217">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>269</v>
+      </c>
+      <c r="B218">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="C218">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="D218">
+        <v>0.53</v>
+      </c>
+      <c r="E218">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>270</v>
+      </c>
+      <c r="B219">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="C219">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D219">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E219">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>271</v>
+      </c>
+      <c r="B220">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="C220">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D220">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="E220">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>272</v>
+      </c>
+      <c r="B221">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="C221">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D221">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="E221">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>273</v>
+      </c>
+      <c r="B222">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="C222">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D222">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="E222">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C223">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D223">
+        <v>0.17</v>
+      </c>
+      <c r="E223">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>230</v>
+      </c>
+      <c r="B224">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C224">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D224">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E224">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>231</v>
+      </c>
+      <c r="B225">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C225">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D225">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E225">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>232</v>
+      </c>
+      <c r="B226">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="C226">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D226">
+        <v>0.161</v>
+      </c>
+      <c r="E226">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>233</v>
+      </c>
+      <c r="B227">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C227">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D227">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E227">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>234</v>
+      </c>
+      <c r="B228">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C228">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D228">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E228">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>235</v>
+      </c>
+      <c r="B229">
+        <v>0.161</v>
+      </c>
+      <c r="C229">
+        <v>0.161</v>
+      </c>
+      <c r="D229">
+        <v>0.159</v>
+      </c>
+      <c r="E229">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>236</v>
+      </c>
+      <c r="B230">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C230">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D230">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E230">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>274</v>
+      </c>
+      <c r="B231">
+        <v>0.19</v>
+      </c>
+      <c r="C231">
+        <v>0.19</v>
+      </c>
+      <c r="D231">
+        <v>0.187</v>
+      </c>
+      <c r="E231">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>275</v>
+      </c>
+      <c r="B232">
+        <v>0.186</v>
+      </c>
+      <c r="C232">
+        <v>0.186</v>
+      </c>
+      <c r="D232">
+        <v>0.183</v>
+      </c>
+      <c r="E232">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>276</v>
+      </c>
+      <c r="B233">
+        <v>0.186</v>
+      </c>
+      <c r="C233">
+        <v>0.186</v>
+      </c>
+      <c r="D233">
+        <v>0.184</v>
+      </c>
+      <c r="E233">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>277</v>
+      </c>
+      <c r="B234">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="C234">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D234">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E234">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>278</v>
+      </c>
+      <c r="B235">
+        <v>0.188</v>
+      </c>
+      <c r="C235">
+        <v>0.188</v>
+      </c>
+      <c r="D235">
+        <v>0.185</v>
+      </c>
+      <c r="E235">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>279</v>
+      </c>
+      <c r="B236">
+        <v>0.187</v>
+      </c>
+      <c r="C236">
+        <v>0.187</v>
+      </c>
+      <c r="D236">
+        <v>0.184</v>
+      </c>
+      <c r="E236">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>280</v>
+      </c>
+      <c r="B237">
+        <v>0.185</v>
+      </c>
+      <c r="C237">
+        <v>0.185</v>
+      </c>
+      <c r="D237">
+        <v>0.183</v>
+      </c>
+      <c r="E237">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C238">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D238">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E238">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C239">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D239">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E239">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C240">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D240">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E240">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C241">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D241">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E241">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C242">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D242">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E242">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C243">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D243">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E243">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C244">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D244">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E244">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C245">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D245">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E245">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>281</v>
+      </c>
+      <c r="B246">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C246">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D246">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E246">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>282</v>
+      </c>
+      <c r="B247">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C247">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D247">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E247">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>283</v>
+      </c>
+      <c r="B248">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C248">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D248">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E248">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>284</v>
+      </c>
+      <c r="B249">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C249">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D249">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E249">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>285</v>
+      </c>
+      <c r="B250">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C250">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D250">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E250">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>286</v>
+      </c>
+      <c r="B251">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C251">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D251">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E251">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>287</v>
+      </c>
+      <c r="B252">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C252">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D252">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E252">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>245</v>
+      </c>
+      <c r="B253">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C253">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D253">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E253">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>246</v>
+      </c>
+      <c r="B254">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C254">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D254">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E254">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>247</v>
+      </c>
+      <c r="B255">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C255">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D255">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E255">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>248</v>
+      </c>
+      <c r="B256">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C256">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D256">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E256">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>249</v>
+      </c>
+      <c r="B257">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C257">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D257">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E257">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>250</v>
+      </c>
+      <c r="B258">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C258">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D258">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E258">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>251</v>
+      </c>
+      <c r="B259">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C259">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D259">
+        <v>0.08</v>
+      </c>
+      <c r="E259">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>252</v>
+      </c>
+      <c r="B260">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C260">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D260">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E260">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>288</v>
+      </c>
+      <c r="B261">
+        <v>0.107</v>
+      </c>
+      <c r="C261">
+        <v>0.107</v>
+      </c>
+      <c r="D261">
+        <v>0.105</v>
+      </c>
+      <c r="E261">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>289</v>
+      </c>
+      <c r="B262">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="C262">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D262">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E262">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>290</v>
+      </c>
+      <c r="B263">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="C263">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D263">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E263">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>291</v>
+      </c>
+      <c r="B264">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="C264">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D264">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E264">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>292</v>
+      </c>
+      <c r="B265">
+        <v>0.107</v>
+      </c>
+      <c r="C265">
+        <v>0.107</v>
+      </c>
+      <c r="D265">
+        <v>0.106</v>
+      </c>
+      <c r="E265">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>293</v>
+      </c>
+      <c r="B266">
+        <v>0.104</v>
+      </c>
+      <c r="C266">
+        <v>0.104</v>
+      </c>
+      <c r="D266">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E266">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>294</v>
+      </c>
+      <c r="B267">
+        <v>0.107</v>
+      </c>
+      <c r="C267">
+        <v>0.107</v>
+      </c>
+      <c r="D267">
+        <v>0.106</v>
+      </c>
+      <c r="E267">
+        <v>0.20399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6003,6 +8480,2884 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ECC471-A60C-4EE5-94F5-B6269F8DA6CD}">
+  <dimension ref="A1:F166"/>
+  <sheetViews>
+    <sheetView topLeftCell="A108" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="44.6875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="102.8125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="35.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3">
+        <v>262.45999999999998</v>
+      </c>
+      <c r="C2" s="3">
+        <v>262.45999999999998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="E2">
+        <v>275.69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>50.85</v>
+      </c>
+      <c r="C4">
+        <v>50.85</v>
+      </c>
+      <c r="D4">
+        <v>50.85</v>
+      </c>
+      <c r="E4">
+        <v>50.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1">
+        <v>34.06</v>
+      </c>
+      <c r="C5" s="1">
+        <v>34.06</v>
+      </c>
+      <c r="D5" s="1">
+        <v>34.06</v>
+      </c>
+      <c r="E5" s="1">
+        <v>34.06</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>22.74</v>
+      </c>
+      <c r="C6" s="1">
+        <v>22.74</v>
+      </c>
+      <c r="D6" s="1">
+        <v>22.74</v>
+      </c>
+      <c r="E6" s="1">
+        <v>22.74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1">
+        <v>48.49</v>
+      </c>
+      <c r="C7" s="1">
+        <v>48.49</v>
+      </c>
+      <c r="D7" s="1">
+        <v>48.49</v>
+      </c>
+      <c r="E7" s="1">
+        <v>48.49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22.97</v>
+      </c>
+      <c r="C8" s="1">
+        <v>22.97</v>
+      </c>
+      <c r="D8" s="1">
+        <v>22.97</v>
+      </c>
+      <c r="E8" s="1">
+        <v>22.97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1">
+        <v>19.11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>19.11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>19.11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>19.11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3.31</v>
+      </c>
+      <c r="C17">
+        <v>3.31</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>45.05</v>
+      </c>
+      <c r="C18">
+        <v>45.05</v>
+      </c>
+      <c r="D18">
+        <v>45.05</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>0.33</v>
+      </c>
+      <c r="C20">
+        <v>0.33</v>
+      </c>
+      <c r="D20">
+        <v>0.33</v>
+      </c>
+      <c r="E20">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>0.25</v>
+      </c>
+      <c r="C21">
+        <v>0.25</v>
+      </c>
+      <c r="D21">
+        <v>0.25</v>
+      </c>
+      <c r="E21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.91</v>
+      </c>
+      <c r="E25">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.91</v>
+      </c>
+      <c r="E26">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1.82</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>1.82</v>
+      </c>
+      <c r="C35">
+        <v>1.82</v>
+      </c>
+      <c r="D35">
+        <v>1.82</v>
+      </c>
+      <c r="E35">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>1.37</v>
+      </c>
+      <c r="C36">
+        <v>1.37</v>
+      </c>
+      <c r="D36">
+        <v>1.37</v>
+      </c>
+      <c r="E36">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>3.19</v>
+      </c>
+      <c r="C38">
+        <v>3.19</v>
+      </c>
+      <c r="D38">
+        <v>3.19</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1.82</v>
+      </c>
+      <c r="E40">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1.82</v>
+      </c>
+      <c r="E41">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>3.64</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="C49" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="D49" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="E49" s="4">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="4">
+        <v>13.89</v>
+      </c>
+      <c r="C50" s="4">
+        <v>13.89</v>
+      </c>
+      <c r="D50" s="4">
+        <v>13.89</v>
+      </c>
+      <c r="E50" s="4">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="C51" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="D51" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E51" s="4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="C52" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="D52" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E52" s="4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="4">
+        <v>10.32</v>
+      </c>
+      <c r="C53" s="4">
+        <v>10.32</v>
+      </c>
+      <c r="D53" s="4">
+        <v>10.32</v>
+      </c>
+      <c r="E53" s="4">
+        <v>10.32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="4">
+        <v>19.04</v>
+      </c>
+      <c r="C54" s="4">
+        <v>19.04</v>
+      </c>
+      <c r="D54" s="4">
+        <v>19.04</v>
+      </c>
+      <c r="E54" s="4">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="C55" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="D55" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="E55" s="4">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" s="4">
+        <v>14.23</v>
+      </c>
+      <c r="C56" s="4">
+        <v>14.23</v>
+      </c>
+      <c r="D56" s="4">
+        <v>14.23</v>
+      </c>
+      <c r="E56" s="4">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="C57" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="D57" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="C58" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="E58" s="4">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="C59" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="D59" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E59" s="4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="C60" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="D60" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="E60" s="4">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="C61" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="D61" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E61" s="4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="C62" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="D62" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E62" s="4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="C63" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="D63" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="E63" s="4">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="C64" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="4">
+        <v>9.24</v>
+      </c>
+      <c r="C65" s="4">
+        <v>9.24</v>
+      </c>
+      <c r="D65" s="4">
+        <v>9.24</v>
+      </c>
+      <c r="E65" s="4">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="C66" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="D66" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="E66" s="4">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C67">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D67">
+        <v>0.192</v>
+      </c>
+      <c r="E67">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="C68">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="D68">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E68">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="C69">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="D69">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="E69">
+        <v>1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>0.107</v>
+      </c>
+      <c r="C70">
+        <v>0.107</v>
+      </c>
+      <c r="D70">
+        <v>0.105</v>
+      </c>
+      <c r="E70">
+        <v>0.10200000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="C71">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>0.121</v>
+      </c>
+      <c r="C72">
+        <v>0.121</v>
+      </c>
+      <c r="D72">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C73">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D73">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E73">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E74">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C75">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D75">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E75">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E76">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C77">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D77">
+        <v>0.65</v>
+      </c>
+      <c r="E77">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C78">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D78">
+        <v>0.65</v>
+      </c>
+      <c r="E78">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C79">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D79">
+        <v>0.65</v>
+      </c>
+      <c r="E79">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C80">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D80">
+        <v>0.65</v>
+      </c>
+      <c r="E80">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C81">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D81">
+        <v>0.65</v>
+      </c>
+      <c r="E81">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C82">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D82">
+        <v>0.65</v>
+      </c>
+      <c r="E82">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C83">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D83">
+        <v>0.65</v>
+      </c>
+      <c r="E83">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C84">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D84">
+        <v>0.65</v>
+      </c>
+      <c r="E84">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C85">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D85">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E85">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C86">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D86">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E86">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C87">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D87">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E87">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C88">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D88">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E88">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C89">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D89">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E89">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C90">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D90">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E90">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C91">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D91">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E91">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>0.79</v>
+      </c>
+      <c r="C92">
+        <v>0.79</v>
+      </c>
+      <c r="D92">
+        <v>0.78</v>
+      </c>
+      <c r="E92">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="C93">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D93">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E93">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="C94">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D94">
+        <v>0.754</v>
+      </c>
+      <c r="E94">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>0.75</v>
+      </c>
+      <c r="C95">
+        <v>0.75</v>
+      </c>
+      <c r="D95">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="E95">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="C96">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="D96">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E96">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="C97">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D97">
+        <v>0.751</v>
+      </c>
+      <c r="E97">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="C98">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D98">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="E98">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="C99">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D99">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="E99">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="C100">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="D100">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="E100">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>0.874</v>
+      </c>
+      <c r="C101">
+        <v>0.874</v>
+      </c>
+      <c r="D101">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="E101">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>0.876</v>
+      </c>
+      <c r="C102">
+        <v>0.876</v>
+      </c>
+      <c r="D102">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="E102">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="C103">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="D103">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E103">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="C104">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="D104">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="E104">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="C105">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D105">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E105">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="C106">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="D106">
+        <v>0.873</v>
+      </c>
+      <c r="E106">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>0.02</v>
+      </c>
+      <c r="C107">
+        <v>0.02</v>
+      </c>
+      <c r="D107">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E107">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>0.02</v>
+      </c>
+      <c r="C108">
+        <v>0.02</v>
+      </c>
+      <c r="D108">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E108">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>0.02</v>
+      </c>
+      <c r="C109">
+        <v>0.02</v>
+      </c>
+      <c r="D109">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E109">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C110">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D110">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E110">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>0.02</v>
+      </c>
+      <c r="C111">
+        <v>0.02</v>
+      </c>
+      <c r="D111">
+        <v>0.02</v>
+      </c>
+      <c r="E111">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>0.02</v>
+      </c>
+      <c r="C112">
+        <v>0.02</v>
+      </c>
+      <c r="D112">
+        <v>0.02</v>
+      </c>
+      <c r="E112">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C113">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D113">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E113">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C114">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D114">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E114">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C115">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D115">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E115">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C116">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D116">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E116">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C117">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D117">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E117">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C118">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D118">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E118">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C119">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D119">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E119">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C120">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D120">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E120">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C121">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D121">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E121">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>4.6769999999999996</v>
+      </c>
+      <c r="C122">
+        <v>4.6769999999999996</v>
+      </c>
+      <c r="D122">
+        <v>4.6130000000000004</v>
+      </c>
+      <c r="E122">
+        <v>4.4530000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123">
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="C123">
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="D123">
+        <v>4.702</v>
+      </c>
+      <c r="E123">
+        <v>4.5380000000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124">
+        <v>4.71</v>
+      </c>
+      <c r="C124">
+        <v>4.71</v>
+      </c>
+      <c r="D124">
+        <v>4.6449999999999996</v>
+      </c>
+      <c r="E124">
+        <v>4.484</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125">
+        <v>4.2759999999999998</v>
+      </c>
+      <c r="C125">
+        <v>4.2759999999999998</v>
+      </c>
+      <c r="D125">
+        <v>4.2169999999999996</v>
+      </c>
+      <c r="E125">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126">
+        <v>4.5780000000000003</v>
+      </c>
+      <c r="C126">
+        <v>4.5780000000000003</v>
+      </c>
+      <c r="D126">
+        <v>4.5149999999999997</v>
+      </c>
+      <c r="E126">
+        <v>4.3579999999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127">
+        <v>4.3559999999999999</v>
+      </c>
+      <c r="C127">
+        <v>4.3559999999999999</v>
+      </c>
+      <c r="D127">
+        <v>4.2960000000000003</v>
+      </c>
+      <c r="E127">
+        <v>4.1470000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>4.2210000000000001</v>
+      </c>
+      <c r="C128">
+        <v>4.2210000000000001</v>
+      </c>
+      <c r="D128">
+        <v>4.1630000000000003</v>
+      </c>
+      <c r="E128">
+        <v>4.0190000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129">
+        <v>4.55</v>
+      </c>
+      <c r="C129">
+        <v>4.55</v>
+      </c>
+      <c r="D129">
+        <v>4.4870000000000001</v>
+      </c>
+      <c r="E129">
+        <v>4.3310000000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130">
+        <v>4.9349999999999996</v>
+      </c>
+      <c r="C130">
+        <v>4.9349999999999996</v>
+      </c>
+      <c r="D130">
+        <v>4.867</v>
+      </c>
+      <c r="E130">
+        <v>4.6980000000000004</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131">
+        <v>4.6520000000000001</v>
+      </c>
+      <c r="C131">
+        <v>4.6520000000000001</v>
+      </c>
+      <c r="D131">
+        <v>4.5880000000000001</v>
+      </c>
+      <c r="E131">
+        <v>4.4290000000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132">
+        <v>4.6349999999999998</v>
+      </c>
+      <c r="C132">
+        <v>4.6349999999999998</v>
+      </c>
+      <c r="D132">
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="E132">
+        <v>4.4130000000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133">
+        <v>4.4109999999999996</v>
+      </c>
+      <c r="C133">
+        <v>4.4109999999999996</v>
+      </c>
+      <c r="D133">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E133">
+        <v>4.1989999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C134">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D134">
+        <v>5.03</v>
+      </c>
+      <c r="E134">
+        <v>4.8550000000000004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="C135">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="D135">
+        <v>4.72</v>
+      </c>
+      <c r="E135">
+        <v>4.556</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136">
+        <v>5.2409999999999997</v>
+      </c>
+      <c r="C136">
+        <v>5.2409999999999997</v>
+      </c>
+      <c r="D136">
+        <v>5.1689999999999996</v>
+      </c>
+      <c r="E136">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C137">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D137">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E137">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C138">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D138">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E138">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C139">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D139">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E139">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C140">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D140">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E140">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C141">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D141">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E141">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C142">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D142">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E142">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C143">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D143">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E143">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C144">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D144">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E144">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145">
+        <v>2E-3</v>
+      </c>
+      <c r="C145">
+        <v>2E-3</v>
+      </c>
+      <c r="D145">
+        <v>2E-3</v>
+      </c>
+      <c r="E145">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>2E-3</v>
+      </c>
+      <c r="C146">
+        <v>2E-3</v>
+      </c>
+      <c r="D146">
+        <v>2E-3</v>
+      </c>
+      <c r="E146">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147">
+        <v>2E-3</v>
+      </c>
+      <c r="C147">
+        <v>2E-3</v>
+      </c>
+      <c r="D147">
+        <v>2E-3</v>
+      </c>
+      <c r="E147">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148">
+        <v>2E-3</v>
+      </c>
+      <c r="C148">
+        <v>2E-3</v>
+      </c>
+      <c r="D148">
+        <v>2E-3</v>
+      </c>
+      <c r="E148">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149">
+        <v>2E-3</v>
+      </c>
+      <c r="C149">
+        <v>2E-3</v>
+      </c>
+      <c r="D149">
+        <v>2E-3</v>
+      </c>
+      <c r="E149">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150">
+        <v>2E-3</v>
+      </c>
+      <c r="C150">
+        <v>2E-3</v>
+      </c>
+      <c r="D150">
+        <v>2E-3</v>
+      </c>
+      <c r="E150">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151">
+        <v>2E-3</v>
+      </c>
+      <c r="C151">
+        <v>2E-3</v>
+      </c>
+      <c r="D151">
+        <v>2E-3</v>
+      </c>
+      <c r="E151">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0.01</v>
+      </c>
+      <c r="E152">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0.01</v>
+      </c>
+      <c r="E153">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0.01</v>
+      </c>
+      <c r="E154">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0.01</v>
+      </c>
+      <c r="E155">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E156">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0.01</v>
+      </c>
+      <c r="E157">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0.01</v>
+      </c>
+      <c r="E158">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0.01</v>
+      </c>
+      <c r="E159">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E160">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E161">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E162">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E163">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E164">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E165">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E166">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
@@ -6847,7 +12202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AB0EC2-B5C0-44C7-91F4-9237E42E2BAB}">
   <dimension ref="A1:D37"/>
   <sheetViews>
@@ -7279,7 +12634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2231F8E3-CA17-4967-B794-336E0B405E29}">
   <dimension ref="A1:M1"/>
   <sheetViews>

--- a/Basis/Simple_Envelope_Evaluation/publicated_value.xlsx
+++ b/Basis/Simple_Envelope_Evaluation/publicated_value.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miura\Dropbox\BRI-EES-House\03_HCLoad_and_Envelope\Basis\Simple_Envelope_Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A81BCAB-160A-4F1A-9469-57507155439A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783C7DA0-C14C-450F-A9B1-A172EE01FC79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="test2017" sheetId="3" r:id="rId4"/>
     <sheet name="仕様書" sheetId="2" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">test2020_2!$A$1:$E$267</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3386,7 +3389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3398,6 +3401,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3883,13 +3887,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A54213-DE88-487B-B9ED-F82CF304DA25}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B254" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B220" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E269" sqref="E269"/>
+      <selection pane="bottomRight" activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -5127,16 +5134,16 @@
       <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="5">
         <v>0.19400000000000001</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="5">
         <v>0.19400000000000001</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="5">
         <v>0.192</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="5">
         <v>0.185</v>
       </c>
     </row>
@@ -5144,16 +5151,16 @@
       <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="5">
         <v>0.48899999999999999</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="5">
         <v>0.48899999999999999</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="5">
         <v>0.48199999999999998</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="5">
         <v>0.46600000000000003</v>
       </c>
     </row>
@@ -5161,16 +5168,16 @@
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="5">
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="5">
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="5">
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="5">
         <v>1.3000000000000001E-2</v>
       </c>
     </row>
@@ -5178,16 +5185,16 @@
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="5">
         <v>0.107</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="5">
         <v>0.107</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="5">
         <v>0.105</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="5">
         <v>0.10200000000000001</v>
       </c>
     </row>
@@ -5195,16 +5202,16 @@
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
+      <c r="B75" s="5">
+        <v>0</v>
+      </c>
+      <c r="C75" s="5">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
+      <c r="E75" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5212,16 +5219,16 @@
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="5">
         <v>0.129</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="5">
         <v>0.121</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="5">
         <v>0.11899999999999999</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5229,16 +5236,16 @@
       <c r="A77" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -5246,16 +5253,16 @@
       <c r="A78" t="s">
         <v>154</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
+      <c r="B78" s="5">
+        <v>0</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0</v>
+      </c>
+      <c r="D78" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
@@ -5263,16 +5270,16 @@
       <c r="A79" t="s">
         <v>76</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="5">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -5280,16 +5287,16 @@
       <c r="A80" t="s">
         <v>153</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
+      <c r="B80" s="5">
+        <v>0</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0</v>
+      </c>
+      <c r="D80" s="5">
         <v>2.4E-2</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="5">
         <v>0.10100000000000001</v>
       </c>
     </row>
@@ -5297,16 +5304,16 @@
       <c r="A81" t="s">
         <v>198</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="5">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="5">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="5">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="5">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
@@ -5314,16 +5321,16 @@
       <c r="A82" t="s">
         <v>199</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="5">
         <v>0.13500000000000001</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="5">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="5">
         <v>0.13400000000000001</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="5">
         <v>0.129</v>
       </c>
     </row>
@@ -5331,16 +5338,16 @@
       <c r="A83" t="s">
         <v>200</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5348,16 +5355,16 @@
       <c r="A84" t="s">
         <v>201</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="5">
         <v>0.217</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="5">
         <v>0.217</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="5">
         <v>0.214</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="5">
         <v>0.20699999999999999</v>
       </c>
     </row>
@@ -5365,16 +5372,16 @@
       <c r="A85" t="s">
         <v>202</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="5">
         <v>0.108</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="5">
         <v>0.108</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="5">
         <v>0.106</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="5">
         <v>0.10299999999999999</v>
       </c>
     </row>
@@ -5382,16 +5389,16 @@
       <c r="A86" t="s">
         <v>203</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="5">
         <v>2.3E-2</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="5">
         <v>2.3E-2</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
@@ -5399,16 +5406,16 @@
       <c r="A87" t="s">
         <v>204</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="5">
         <v>0.106</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="5">
         <v>0.106</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="5">
         <v>0.104</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="5">
         <v>0.10100000000000001</v>
       </c>
     </row>
@@ -5416,16 +5423,16 @@
       <c r="A88" t="s">
         <v>78</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="5">
         <v>0.65900000000000003</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="5">
         <v>0.65900000000000003</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="5">
         <v>0.65</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="5">
         <v>0.628</v>
       </c>
     </row>
@@ -5433,16 +5440,16 @@
       <c r="A89" t="s">
         <v>79</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="5">
         <v>0.65900000000000003</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="5">
         <v>0.65900000000000003</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="5">
         <v>0.65</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="5">
         <v>0.628</v>
       </c>
     </row>
@@ -5450,16 +5457,16 @@
       <c r="A90" t="s">
         <v>80</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="5">
         <v>0.65900000000000003</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="5">
         <v>0.65900000000000003</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="5">
         <v>0.65</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="5">
         <v>0.628</v>
       </c>
     </row>
@@ -5467,16 +5474,16 @@
       <c r="A91" t="s">
         <v>81</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="5">
         <v>0.65900000000000003</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="5">
         <v>0.65900000000000003</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="5">
         <v>0.65</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="5">
         <v>0.628</v>
       </c>
     </row>
@@ -5484,16 +5491,16 @@
       <c r="A92" t="s">
         <v>82</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="5">
         <v>0.65900000000000003</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="5">
         <v>0.65900000000000003</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="5">
         <v>0.65</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="5">
         <v>0.628</v>
       </c>
     </row>
@@ -5501,16 +5508,16 @@
       <c r="A93" t="s">
         <v>83</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="5">
         <v>0.65900000000000003</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="5">
         <v>0.65900000000000003</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="5">
         <v>0.65</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="5">
         <v>0.628</v>
       </c>
     </row>
@@ -5518,16 +5525,16 @@
       <c r="A94" t="s">
         <v>84</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="5">
         <v>0.65900000000000003</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="5">
         <v>0.65900000000000003</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="5">
         <v>0.65</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="5">
         <v>0.628</v>
       </c>
     </row>
@@ -5535,16 +5542,16 @@
       <c r="A95" t="s">
         <v>85</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="5">
         <v>0.65900000000000003</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="5">
         <v>0.65900000000000003</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="5">
         <v>0.65</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="5">
         <v>0.628</v>
       </c>
     </row>
@@ -5552,16 +5559,16 @@
       <c r="A96" t="s">
         <v>86</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="5">
         <v>0.65800000000000003</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="5">
         <v>0.65800000000000003</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="5">
         <v>0.64900000000000002</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="5">
         <v>0.627</v>
       </c>
     </row>
@@ -5569,16 +5576,16 @@
       <c r="A97" t="s">
         <v>87</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="5">
         <v>0.65800000000000003</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="5">
         <v>0.65800000000000003</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="5">
         <v>0.64900000000000002</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="5">
         <v>0.627</v>
       </c>
     </row>
@@ -5586,16 +5593,16 @@
       <c r="A98" t="s">
         <v>88</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="5">
         <v>0.65800000000000003</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="5">
         <v>0.65800000000000003</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="5">
         <v>0.64900000000000002</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="5">
         <v>0.627</v>
       </c>
     </row>
@@ -5603,16 +5610,16 @@
       <c r="A99" t="s">
         <v>89</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="5">
         <v>0.65800000000000003</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="5">
         <v>0.65800000000000003</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="5">
         <v>0.64900000000000002</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="5">
         <v>0.627</v>
       </c>
     </row>
@@ -5620,16 +5627,16 @@
       <c r="A100" t="s">
         <v>90</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="5">
         <v>0.65800000000000003</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="5">
         <v>0.65800000000000003</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="5">
         <v>0.64900000000000002</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="5">
         <v>0.627</v>
       </c>
     </row>
@@ -5637,16 +5644,16 @@
       <c r="A101" t="s">
         <v>91</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="5">
         <v>0.65800000000000003</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="5">
         <v>0.65800000000000003</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="5">
         <v>0.64900000000000002</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="5">
         <v>0.627</v>
       </c>
     </row>
@@ -5654,16 +5661,16 @@
       <c r="A102" t="s">
         <v>92</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="5">
         <v>0.65800000000000003</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="5">
         <v>0.65800000000000003</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="5">
         <v>0.64900000000000002</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="5">
         <v>0.627</v>
       </c>
     </row>
@@ -5671,16 +5678,16 @@
       <c r="A103" t="s">
         <v>93</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="5">
         <v>0.79</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="5">
         <v>0.79</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="5">
         <v>0.78</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="5">
         <v>0.752</v>
       </c>
     </row>
@@ -5688,16 +5695,16 @@
       <c r="A104" t="s">
         <v>94</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="5">
         <v>0.78400000000000003</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="5">
         <v>0.78400000000000003</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="5">
         <v>0.77300000000000002</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="5">
         <v>0.746</v>
       </c>
     </row>
@@ -5705,16 +5712,16 @@
       <c r="A105" t="s">
         <v>95</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="5">
         <v>0.76500000000000001</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="5">
         <v>0.76500000000000001</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="5">
         <v>0.754</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="5">
         <v>0.72799999999999998</v>
       </c>
     </row>
@@ -5722,16 +5729,16 @@
       <c r="A106" t="s">
         <v>96</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="5">
         <v>0.75</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="5">
         <v>0.75</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="5">
         <v>0.73899999999999999</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="5">
         <v>0.71399999999999997</v>
       </c>
     </row>
@@ -5739,16 +5746,16 @@
       <c r="A107" t="s">
         <v>97</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="5">
         <v>0.78300000000000003</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="5">
         <v>0.78300000000000003</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="5">
         <v>0.77300000000000002</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="5">
         <v>0.746</v>
       </c>
     </row>
@@ -5756,16 +5763,16 @@
       <c r="A108" t="s">
         <v>98</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="5">
         <v>0.76200000000000001</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="5">
         <v>0.76200000000000001</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="5">
         <v>0.751</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="5">
         <v>0.72499999999999998</v>
       </c>
     </row>
@@ -5773,16 +5780,16 @@
       <c r="A109" t="s">
         <v>99</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="5">
         <v>0.73799999999999999</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="5">
         <v>0.73799999999999999</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="5">
         <v>0.72799999999999998</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="5">
         <v>0.70299999999999996</v>
       </c>
     </row>
@@ -5790,16 +5797,16 @@
       <c r="A110" t="s">
         <v>100</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="5">
         <v>0.76700000000000002</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="5">
         <v>0.76700000000000002</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="5">
         <v>0.75600000000000001</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="5">
         <v>0.73</v>
       </c>
     </row>
@@ -5807,16 +5814,16 @@
       <c r="A111" t="s">
         <v>101</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="5">
         <v>0.89800000000000002</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="5">
         <v>0.89800000000000002</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="5">
         <v>0.88600000000000001</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="5">
         <v>0.85499999999999998</v>
       </c>
     </row>
@@ -5824,16 +5831,16 @@
       <c r="A112" t="s">
         <v>102</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="5">
         <v>0.874</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="5">
         <v>0.874</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="5">
         <v>0.86199999999999999</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="5">
         <v>0.83199999999999996</v>
       </c>
     </row>
@@ -5841,16 +5848,16 @@
       <c r="A113" t="s">
         <v>103</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="5">
         <v>0.876</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="5">
         <v>0.876</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="5">
         <v>0.86399999999999999</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="5">
         <v>0.83399999999999996</v>
       </c>
     </row>
@@ -5858,16 +5865,16 @@
       <c r="A114" t="s">
         <v>104</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="5">
         <v>0.83699999999999997</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="5">
         <v>0.83699999999999997</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="5">
         <v>0.82599999999999996</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="5">
         <v>0.79700000000000004</v>
       </c>
     </row>
@@ -5875,16 +5882,16 @@
       <c r="A115" t="s">
         <v>105</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="5">
         <v>0.89300000000000002</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="5">
         <v>0.89300000000000002</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="5">
         <v>0.88100000000000001</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="5">
         <v>0.85</v>
       </c>
     </row>
@@ -5892,16 +5899,16 @@
       <c r="A116" t="s">
         <v>106</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="5">
         <v>0.88200000000000001</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="5">
         <v>0.88200000000000001</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="5">
         <v>0.86899999999999999</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="5">
         <v>0.83899999999999997</v>
       </c>
     </row>
@@ -5909,16 +5916,16 @@
       <c r="A117" t="s">
         <v>107</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="5">
         <v>0.88500000000000001</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="5">
         <v>0.88500000000000001</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="5">
         <v>0.873</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="5">
         <v>0.84199999999999997</v>
       </c>
     </row>
@@ -5926,16 +5933,16 @@
       <c r="A118" t="s">
         <v>108</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="5">
         <v>0.02</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="5">
         <v>0.02</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="5">
         <v>1.9E-2</v>
       </c>
     </row>
@@ -5943,16 +5950,16 @@
       <c r="A119" t="s">
         <v>109</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="5">
         <v>0.02</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="5">
         <v>0.02</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="5">
         <v>1.9E-2</v>
       </c>
     </row>
@@ -5960,16 +5967,16 @@
       <c r="A120" t="s">
         <v>110</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="5">
         <v>0.02</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="5">
         <v>0.02</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="5">
         <v>1.9E-2</v>
       </c>
     </row>
@@ -5977,16 +5984,16 @@
       <c r="A121" t="s">
         <v>111</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
@@ -5994,16 +6001,16 @@
       <c r="A122" t="s">
         <v>112</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="5">
         <v>0.02</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="5">
         <v>0.02</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="5">
         <v>0.02</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="5">
         <v>0.02</v>
       </c>
     </row>
@@ -6011,16 +6018,16 @@
       <c r="A123" t="s">
         <v>113</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="5">
         <v>0.02</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="5">
         <v>0.02</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="5">
         <v>0.02</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="5">
         <v>1.9E-2</v>
       </c>
     </row>
@@ -6028,16 +6035,16 @@
       <c r="A124" t="s">
         <v>114</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
@@ -6045,16 +6052,16 @@
       <c r="A125" t="s">
         <v>115</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
@@ -6062,16 +6069,16 @@
       <c r="A126" t="s">
         <v>116</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="5">
         <v>1.4E-2</v>
       </c>
     </row>
@@ -6079,16 +6086,16 @@
       <c r="A127" t="s">
         <v>117</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="5">
         <v>1.4E-2</v>
       </c>
     </row>
@@ -6096,16 +6103,16 @@
       <c r="A128" t="s">
         <v>118</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -6113,16 +6120,16 @@
       <c r="A129" t="s">
         <v>119</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="5">
         <v>1.4E-2</v>
       </c>
     </row>
@@ -6130,16 +6137,16 @@
       <c r="A130" t="s">
         <v>120</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
@@ -6147,16 +6154,16 @@
       <c r="A131" t="s">
         <v>121</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
@@ -6164,16 +6171,16 @@
       <c r="A132" t="s">
         <v>122</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="5">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -6181,16 +6188,16 @@
       <c r="A133" t="s">
         <v>123</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="5">
         <v>4.6769999999999996</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="5">
         <v>4.6769999999999996</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="5">
         <v>4.6130000000000004</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="5">
         <v>4.4530000000000003</v>
       </c>
     </row>
@@ -6198,16 +6205,16 @@
       <c r="A134" t="s">
         <v>124</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="5">
         <v>4.7670000000000003</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="5">
         <v>4.7670000000000003</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="5">
         <v>4.702</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="5">
         <v>4.5380000000000003</v>
       </c>
     </row>
@@ -6215,16 +6222,16 @@
       <c r="A135" t="s">
         <v>125</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="5">
         <v>4.71</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="5">
         <v>4.71</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="5">
         <v>4.6449999999999996</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="5">
         <v>4.484</v>
       </c>
     </row>
@@ -6232,16 +6239,16 @@
       <c r="A136" t="s">
         <v>126</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="5">
         <v>4.2759999999999998</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="5">
         <v>4.2759999999999998</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="5">
         <v>4.2169999999999996</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="5">
         <v>4.07</v>
       </c>
     </row>
@@ -6249,16 +6256,16 @@
       <c r="A137" t="s">
         <v>127</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="5">
         <v>4.5780000000000003</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="5">
         <v>4.5780000000000003</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="5">
         <v>4.5149999999999997</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="5">
         <v>4.3579999999999997</v>
       </c>
     </row>
@@ -6266,16 +6273,16 @@
       <c r="A138" t="s">
         <v>128</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="5">
         <v>4.3559999999999999</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="5">
         <v>4.3559999999999999</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="5">
         <v>4.2960000000000003</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="5">
         <v>4.1470000000000002</v>
       </c>
     </row>
@@ -6283,16 +6290,16 @@
       <c r="A139" t="s">
         <v>129</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="5">
         <v>4.2210000000000001</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="5">
         <v>4.2210000000000001</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="5">
         <v>4.1630000000000003</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="5">
         <v>4.0190000000000001</v>
       </c>
     </row>
@@ -6300,16 +6307,16 @@
       <c r="A140" t="s">
         <v>130</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="5">
         <v>4.55</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="5">
         <v>4.55</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="5">
         <v>4.4870000000000001</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="5">
         <v>4.3310000000000004</v>
       </c>
     </row>
@@ -6317,16 +6324,16 @@
       <c r="A141" t="s">
         <v>131</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="5">
         <v>4.9349999999999996</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="5">
         <v>4.9349999999999996</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="5">
         <v>4.867</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="5">
         <v>4.6980000000000004</v>
       </c>
     </row>
@@ -6334,16 +6341,16 @@
       <c r="A142" t="s">
         <v>132</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="5">
         <v>4.6520000000000001</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="5">
         <v>4.6520000000000001</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="5">
         <v>4.5880000000000001</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="5">
         <v>4.4290000000000003</v>
       </c>
     </row>
@@ -6351,16 +6358,16 @@
       <c r="A143" t="s">
         <v>133</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="5">
         <v>4.6349999999999998</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="5">
         <v>4.6349999999999998</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="5">
         <v>4.5720000000000001</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="5">
         <v>4.4130000000000003</v>
       </c>
     </row>
@@ -6368,16 +6375,16 @@
       <c r="A144" t="s">
         <v>134</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="5">
         <v>4.4109999999999996</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="5">
         <v>4.4109999999999996</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="5">
         <v>4.3499999999999996</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="5">
         <v>4.1989999999999998</v>
       </c>
     </row>
@@ -6385,16 +6392,16 @@
       <c r="A145" t="s">
         <v>135</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="5">
         <v>5.03</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="5">
         <v>4.8550000000000004</v>
       </c>
     </row>
@@ -6402,16 +6409,16 @@
       <c r="A146" t="s">
         <v>136</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="5">
         <v>4.7859999999999996</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="5">
         <v>4.7859999999999996</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="5">
         <v>4.72</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="5">
         <v>4.556</v>
       </c>
     </row>
@@ -6419,16 +6426,16 @@
       <c r="A147" t="s">
         <v>137</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="5">
         <v>5.2409999999999997</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="5">
         <v>5.2409999999999997</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="5">
         <v>5.1689999999999996</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="5">
         <v>4.99</v>
       </c>
     </row>
@@ -6436,16 +6443,16 @@
       <c r="A148" t="s">
         <v>138</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -6453,16 +6460,16 @@
       <c r="A149" t="s">
         <v>139</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -6470,16 +6477,16 @@
       <c r="A150" t="s">
         <v>140</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -6487,16 +6494,16 @@
       <c r="A151" t="s">
         <v>141</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -6504,16 +6511,16 @@
       <c r="A152" t="s">
         <v>142</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -6521,16 +6528,16 @@
       <c r="A153" t="s">
         <v>143</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -6538,16 +6545,16 @@
       <c r="A154" t="s">
         <v>144</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -6555,16 +6562,16 @@
       <c r="A155" t="s">
         <v>145</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -6572,16 +6579,16 @@
       <c r="A156" t="s">
         <v>146</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="5">
         <v>2E-3</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="5">
         <v>2E-3</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="5">
         <v>2E-3</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="5">
         <v>2E-3</v>
       </c>
     </row>
@@ -6589,16 +6596,16 @@
       <c r="A157" t="s">
         <v>147</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="5">
         <v>2E-3</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="5">
         <v>2E-3</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="5">
         <v>2E-3</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="5">
         <v>2E-3</v>
       </c>
     </row>
@@ -6606,16 +6613,16 @@
       <c r="A158" t="s">
         <v>148</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="5">
         <v>2E-3</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="5">
         <v>2E-3</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="5">
         <v>2E-3</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="5">
         <v>2E-3</v>
       </c>
     </row>
@@ -6623,16 +6630,16 @@
       <c r="A159" t="s">
         <v>149</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="5">
         <v>2E-3</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="5">
         <v>2E-3</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="5">
         <v>2E-3</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="5">
         <v>2E-3</v>
       </c>
     </row>
@@ -6640,16 +6647,16 @@
       <c r="A160" t="s">
         <v>150</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="5">
         <v>2E-3</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="5">
         <v>2E-3</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="5">
         <v>2E-3</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="5">
         <v>2E-3</v>
       </c>
     </row>
@@ -6657,16 +6664,16 @@
       <c r="A161" t="s">
         <v>151</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="5">
         <v>2E-3</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="5">
         <v>2E-3</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="5">
         <v>2E-3</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="5">
         <v>2E-3</v>
       </c>
     </row>
@@ -6674,16 +6681,16 @@
       <c r="A162" t="s">
         <v>152</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="5">
         <v>2E-3</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="5">
         <v>2E-3</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="5">
         <v>2E-3</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="5">
         <v>2E-3</v>
       </c>
     </row>
@@ -6691,16 +6698,16 @@
       <c r="A163" t="s">
         <v>155</v>
       </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-      <c r="D163">
+      <c r="B163" s="5">
+        <v>0</v>
+      </c>
+      <c r="C163" s="5">
+        <v>0</v>
+      </c>
+      <c r="D163" s="5">
         <v>0.01</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6708,16 +6715,16 @@
       <c r="A164" t="s">
         <v>156</v>
       </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="D164">
+      <c r="B164" s="5">
+        <v>0</v>
+      </c>
+      <c r="C164" s="5">
+        <v>0</v>
+      </c>
+      <c r="D164" s="5">
         <v>0.01</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
@@ -6725,16 +6732,16 @@
       <c r="A165" t="s">
         <v>157</v>
       </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="D165">
+      <c r="B165" s="5">
+        <v>0</v>
+      </c>
+      <c r="C165" s="5">
+        <v>0</v>
+      </c>
+      <c r="D165" s="5">
         <v>0.01</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
@@ -6742,16 +6749,16 @@
       <c r="A166" t="s">
         <v>158</v>
       </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-      <c r="D166">
+      <c r="B166" s="5">
+        <v>0</v>
+      </c>
+      <c r="C166" s="5">
+        <v>0</v>
+      </c>
+      <c r="D166" s="5">
         <v>0.01</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="5">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
@@ -6759,16 +6766,16 @@
       <c r="A167" t="s">
         <v>159</v>
       </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
+      <c r="B167" s="5">
+        <v>0</v>
+      </c>
+      <c r="C167" s="5">
+        <v>0</v>
+      </c>
+      <c r="D167" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="5">
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
@@ -6776,16 +6783,16 @@
       <c r="A168" t="s">
         <v>160</v>
       </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168">
+      <c r="B168" s="5">
+        <v>0</v>
+      </c>
+      <c r="C168" s="5">
+        <v>0</v>
+      </c>
+      <c r="D168" s="5">
         <v>0.01</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="5">
         <v>0.08</v>
       </c>
     </row>
@@ -6793,16 +6800,16 @@
       <c r="A169" t="s">
         <v>161</v>
       </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="D169">
+      <c r="B169" s="5">
+        <v>0</v>
+      </c>
+      <c r="C169" s="5">
+        <v>0</v>
+      </c>
+      <c r="D169" s="5">
         <v>0.01</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="5">
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
@@ -6810,16 +6817,16 @@
       <c r="A170" t="s">
         <v>162</v>
       </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="D170">
+      <c r="B170" s="5">
+        <v>0</v>
+      </c>
+      <c r="C170" s="5">
+        <v>0</v>
+      </c>
+      <c r="D170" s="5">
         <v>0.01</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
@@ -6827,16 +6834,16 @@
       <c r="A171" t="s">
         <v>163</v>
       </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="D171">
+      <c r="B171" s="5">
+        <v>0</v>
+      </c>
+      <c r="C171" s="5">
+        <v>0</v>
+      </c>
+      <c r="D171" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="5">
         <v>0.1</v>
       </c>
     </row>
@@ -6844,16 +6851,16 @@
       <c r="A172" t="s">
         <v>164</v>
       </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-      <c r="D172">
+      <c r="B172" s="5">
+        <v>0</v>
+      </c>
+      <c r="C172" s="5">
+        <v>0</v>
+      </c>
+      <c r="D172" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="5">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
@@ -6861,16 +6868,16 @@
       <c r="A173" t="s">
         <v>165</v>
       </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="D173">
+      <c r="B173" s="5">
+        <v>0</v>
+      </c>
+      <c r="C173" s="5">
+        <v>0</v>
+      </c>
+      <c r="D173" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="5">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
@@ -6878,16 +6885,16 @@
       <c r="A174" t="s">
         <v>166</v>
       </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174">
+      <c r="B174" s="5">
+        <v>0</v>
+      </c>
+      <c r="C174" s="5">
+        <v>0</v>
+      </c>
+      <c r="D174" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="5">
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
@@ -6895,16 +6902,16 @@
       <c r="A175" t="s">
         <v>167</v>
       </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-      <c r="D175">
+      <c r="B175" s="5">
+        <v>0</v>
+      </c>
+      <c r="C175" s="5">
+        <v>0</v>
+      </c>
+      <c r="D175" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="5">
         <v>0.10100000000000001</v>
       </c>
     </row>
@@ -6912,16 +6919,16 @@
       <c r="A176" t="s">
         <v>168</v>
       </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="D176">
+      <c r="B176" s="5">
+        <v>0</v>
+      </c>
+      <c r="C176" s="5">
+        <v>0</v>
+      </c>
+      <c r="D176" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
@@ -6929,16 +6936,16 @@
       <c r="A177" t="s">
         <v>169</v>
       </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-      <c r="D177">
+      <c r="B177" s="5">
+        <v>0</v>
+      </c>
+      <c r="C177" s="5">
+        <v>0</v>
+      </c>
+      <c r="D177" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="5">
         <v>0.10100000000000001</v>
       </c>
     </row>
@@ -6946,16 +6953,16 @@
       <c r="A178" t="s">
         <v>205</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="5">
         <v>0.2</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="5">
         <v>0.2</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="5">
         <v>0.19700000000000001</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="5">
         <v>0.19</v>
       </c>
     </row>
@@ -6963,16 +6970,16 @@
       <c r="A179" t="s">
         <v>206</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="5">
         <v>0.2</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="5">
         <v>0.2</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="5">
         <v>0.19700000000000001</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="5">
         <v>0.19</v>
       </c>
     </row>
@@ -6980,16 +6987,16 @@
       <c r="A180" t="s">
         <v>207</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="5">
         <v>0.2</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="5">
         <v>0.2</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="5">
         <v>0.19700000000000001</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="5">
         <v>0.19</v>
       </c>
     </row>
@@ -6997,16 +7004,16 @@
       <c r="A181" t="s">
         <v>208</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="5">
         <v>0.2</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="5">
         <v>0.2</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="5">
         <v>0.19700000000000001</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="5">
         <v>0.19</v>
       </c>
     </row>
@@ -7014,16 +7021,16 @@
       <c r="A182" t="s">
         <v>209</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="5">
         <v>0.2</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="5">
         <v>0.2</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="5">
         <v>0.19700000000000001</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="5">
         <v>0.19</v>
       </c>
     </row>
@@ -7031,16 +7038,16 @@
       <c r="A183" t="s">
         <v>210</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="5">
         <v>0.2</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="5">
         <v>0.2</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="5">
         <v>0.19700000000000001</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="5">
         <v>0.19</v>
       </c>
     </row>
@@ -7048,16 +7055,16 @@
       <c r="A184" t="s">
         <v>211</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="5">
         <v>0.2</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="5">
         <v>0.2</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="5">
         <v>0.19700000000000001</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="5">
         <v>0.19</v>
       </c>
     </row>
@@ -7065,16 +7072,16 @@
       <c r="A185" t="s">
         <v>212</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="5">
         <v>0.2</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="5">
         <v>0.2</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="5">
         <v>0.19700000000000001</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="5">
         <v>0.19</v>
       </c>
     </row>
@@ -7082,135 +7089,135 @@
       <c r="A186" t="s">
         <v>253</v>
       </c>
-      <c r="B186">
-        <v>0.2</v>
-      </c>
-      <c r="C186">
-        <v>0.2</v>
-      </c>
-      <c r="D186">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="E186">
-        <v>0.19</v>
+      <c r="B186" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C186" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D186" s="5">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E186" s="5">
+        <v>0.189</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>254</v>
       </c>
-      <c r="B187">
-        <v>0.2</v>
-      </c>
-      <c r="C187">
-        <v>0.2</v>
-      </c>
-      <c r="D187">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="E187">
-        <v>0.19</v>
+      <c r="B187" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C187" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D187" s="5">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E187" s="5">
+        <v>0.189</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>255</v>
       </c>
-      <c r="B188">
-        <v>0.2</v>
-      </c>
-      <c r="C188">
-        <v>0.2</v>
-      </c>
-      <c r="D188">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="E188">
-        <v>0.19</v>
+      <c r="B188" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C188" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D188" s="5">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E188" s="5">
+        <v>0.189</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>256</v>
       </c>
-      <c r="B189">
-        <v>0.2</v>
-      </c>
-      <c r="C189">
-        <v>0.2</v>
-      </c>
-      <c r="D189">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="E189">
-        <v>0.19</v>
+      <c r="B189" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C189" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D189" s="5">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E189" s="5">
+        <v>0.189</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>257</v>
       </c>
-      <c r="B190">
-        <v>0.2</v>
-      </c>
-      <c r="C190">
-        <v>0.2</v>
-      </c>
-      <c r="D190">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="E190">
-        <v>0.19</v>
+      <c r="B190" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C190" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D190" s="5">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E190" s="5">
+        <v>0.189</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>258</v>
       </c>
-      <c r="B191">
-        <v>0.2</v>
-      </c>
-      <c r="C191">
-        <v>0.2</v>
-      </c>
-      <c r="D191">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="E191">
-        <v>0.19</v>
+      <c r="B191" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C191" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D191" s="5">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E191" s="5">
+        <v>0.189</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>259</v>
       </c>
-      <c r="B192">
-        <v>0.2</v>
-      </c>
-      <c r="C192">
-        <v>0.2</v>
-      </c>
-      <c r="D192">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="E192">
-        <v>0.19</v>
+      <c r="B192" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C192" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D192" s="5">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E192" s="5">
+        <v>0.189</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>213</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="5">
         <v>0.23100000000000001</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="5">
         <v>0.23100000000000001</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="5">
         <v>0.22800000000000001</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="5">
         <v>0.22</v>
       </c>
     </row>
@@ -7218,16 +7225,16 @@
       <c r="A194" t="s">
         <v>214</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="5">
         <v>0.23</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="5">
         <v>0.23</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="5">
         <v>0.22700000000000001</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="5">
         <v>0.219</v>
       </c>
     </row>
@@ -7235,16 +7242,16 @@
       <c r="A195" t="s">
         <v>215</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="5">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="5">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="5">
         <v>0.222</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="5">
         <v>0.215</v>
       </c>
     </row>
@@ -7252,16 +7259,16 @@
       <c r="A196" t="s">
         <v>216</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="5">
         <v>0.215</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="5">
         <v>0.215</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="5">
         <v>0.21199999999999999</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="5">
         <v>0.20499999999999999</v>
       </c>
     </row>
@@ -7269,16 +7276,16 @@
       <c r="A197" t="s">
         <v>217</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="5">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="5">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="5">
         <v>0.222</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="5">
         <v>0.214</v>
       </c>
     </row>
@@ -7286,16 +7293,16 @@
       <c r="A198" t="s">
         <v>218</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="5">
         <v>0.218</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="5">
         <v>0.218</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="5">
         <v>0.215</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="5">
         <v>0.20699999999999999</v>
       </c>
     </row>
@@ -7303,16 +7310,16 @@
       <c r="A199" t="s">
         <v>219</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="5">
         <v>0.21199999999999999</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="5">
         <v>0.21199999999999999</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="5">
         <v>0.20899999999999999</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="5">
         <v>0.20200000000000001</v>
       </c>
     </row>
@@ -7320,16 +7327,16 @@
       <c r="A200" t="s">
         <v>220</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="5">
         <v>0.224</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="5">
         <v>0.224</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="5">
         <v>0.221</v>
       </c>
-      <c r="E200">
+      <c r="E200" s="5">
         <v>0.21299999999999999</v>
       </c>
     </row>
@@ -7337,135 +7344,135 @@
       <c r="A201" t="s">
         <v>260</v>
       </c>
-      <c r="B201">
-        <v>0.3</v>
-      </c>
-      <c r="C201">
-        <v>0.3</v>
-      </c>
-      <c r="D201">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="E201">
-        <v>0.28599999999999998</v>
+      <c r="B201" s="5">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="C201" s="5">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D201" s="5">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="E201" s="5">
+        <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>261</v>
       </c>
-      <c r="B202">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="C202">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="D202">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="E202">
-        <v>0.27400000000000002</v>
+      <c r="B202" s="5">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="C202" s="5">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="D202" s="5">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="E202" s="5">
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>262</v>
       </c>
-      <c r="B203">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="C203">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="D203">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="E203">
-        <v>0.27300000000000002</v>
+      <c r="B203" s="5">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="C203" s="5">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D203" s="5">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="E203" s="5">
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>263</v>
       </c>
-      <c r="B204">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="C204">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="D204">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="E204">
-        <v>0.26200000000000001</v>
+      <c r="B204" s="5">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="C204" s="5">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="D204" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E204" s="5">
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>264</v>
       </c>
-      <c r="B205">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="C205">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="D205">
-        <v>0.3</v>
-      </c>
-      <c r="E205">
-        <v>0.28999999999999998</v>
+      <c r="B205" s="5">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="C205" s="5">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D205" s="5">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E205" s="5">
+        <v>0.28899999999999998</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>265</v>
       </c>
-      <c r="B206">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="C206">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="D206">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="E206">
-        <v>0.28199999999999997</v>
+      <c r="B206" s="5">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="C206" s="5">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D206" s="5">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="E206" s="5">
+        <v>0.28100000000000003</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>266</v>
       </c>
-      <c r="B207">
-        <v>0.307</v>
-      </c>
-      <c r="C207">
-        <v>0.307</v>
-      </c>
-      <c r="D207">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="E207">
-        <v>0.29199999999999998</v>
+      <c r="B207" s="5">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C207" s="5">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D207" s="5">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E207" s="5">
+        <v>0.29099999999999998</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>221</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="5">
         <v>0.53600000000000003</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="5">
         <v>0.53600000000000003</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="5">
         <v>0.52800000000000002</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="5">
         <v>0.51</v>
       </c>
     </row>
@@ -7473,16 +7480,16 @@
       <c r="A209" t="s">
         <v>222</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="5">
         <v>0.53500000000000003</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="5">
         <v>0.53500000000000003</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="5">
         <v>0.52700000000000002</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="5">
         <v>0.50900000000000001</v>
       </c>
     </row>
@@ -7490,16 +7497,16 @@
       <c r="A210" t="s">
         <v>223</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="5">
         <v>0.53100000000000003</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="5">
         <v>0.53100000000000003</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="5">
         <v>0.52400000000000002</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="5">
         <v>0.50600000000000001</v>
       </c>
     </row>
@@ -7507,16 +7514,16 @@
       <c r="A211" t="s">
         <v>224</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="5">
         <v>0.52900000000000003</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="5">
         <v>0.52900000000000003</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="5">
         <v>0.52200000000000002</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="5">
         <v>0.504</v>
       </c>
     </row>
@@ -7524,16 +7531,16 @@
       <c r="A212" t="s">
         <v>225</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="5">
         <v>0.53800000000000003</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="5">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="5">
         <v>0.53</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="5">
         <v>0.51200000000000001</v>
       </c>
     </row>
@@ -7541,16 +7548,16 @@
       <c r="A213" t="s">
         <v>226</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="5">
         <v>0.53300000000000003</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="5">
         <v>0.53300000000000003</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="5">
         <v>0.52600000000000002</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="5">
         <v>0.50800000000000001</v>
       </c>
     </row>
@@ -7558,16 +7565,16 @@
       <c r="A214" t="s">
         <v>227</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="5">
         <v>0.52700000000000002</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="5">
         <v>0.52700000000000002</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="5">
         <v>0.52</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="5">
         <v>0.502</v>
       </c>
     </row>
@@ -7575,16 +7582,16 @@
       <c r="A215" t="s">
         <v>228</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="5">
         <v>0.53100000000000003</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="5">
         <v>0.53100000000000003</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="5">
         <v>0.52400000000000002</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="5">
         <v>0.50600000000000001</v>
       </c>
     </row>
@@ -7592,135 +7599,135 @@
       <c r="A216" t="s">
         <v>267</v>
       </c>
-      <c r="B216">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="C216">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="D216">
-        <v>0.53</v>
-      </c>
-      <c r="E216">
-        <v>0.51100000000000001</v>
+      <c r="B216" s="5">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="C216" s="5">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D216" s="5">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="E216" s="5">
+        <v>0.51</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>268</v>
       </c>
-      <c r="B217">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="C217">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="D217">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="E217">
-        <v>0.51</v>
+      <c r="B217" s="5">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="C217" s="5">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="D217" s="5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E217" s="5">
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>269</v>
       </c>
-      <c r="B218">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="C218">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="D218">
-        <v>0.53</v>
-      </c>
-      <c r="E218">
-        <v>0.51100000000000001</v>
+      <c r="B218" s="5">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="C218" s="5">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D218" s="5">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="E218" s="5">
+        <v>0.51</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>270</v>
       </c>
-      <c r="B219">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="C219">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="D219">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="E219">
-        <v>0.504</v>
+      <c r="B219" s="5">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="C219" s="5">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D219" s="5">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="E219" s="5">
+        <v>0.503</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>271</v>
       </c>
-      <c r="B220">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="C220">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="D220">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="E220">
-        <v>0.50700000000000001</v>
+      <c r="B220" s="5">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="C220" s="5">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D220" s="5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E220" s="5">
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>272</v>
       </c>
-      <c r="B221">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="C221">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="D221">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="E221">
-        <v>0.50800000000000001</v>
+      <c r="B221" s="5">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="C221" s="5">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D221" s="5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E221" s="5">
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>273</v>
       </c>
-      <c r="B222">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="C222">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="D222">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="E222">
-        <v>0.503</v>
+      <c r="B222" s="5">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="C222" s="5">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D222" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="E222" s="5">
+        <v>0.502</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>229</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="5">
         <v>0.17199999999999999</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="5">
         <v>0.17199999999999999</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="5">
         <v>0.17</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="5">
         <v>0.16400000000000001</v>
       </c>
     </row>
@@ -7728,16 +7735,16 @@
       <c r="A224" t="s">
         <v>230</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="5">
         <v>0.17100000000000001</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="5">
         <v>0.17100000000000001</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="5">
         <v>0.16900000000000001</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="5">
         <v>0.16300000000000001</v>
       </c>
     </row>
@@ -7745,16 +7752,16 @@
       <c r="A225" t="s">
         <v>231</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="5">
         <v>0.16800000000000001</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="5">
         <v>0.16800000000000001</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="5">
         <v>0.16600000000000001</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="5">
         <v>0.16</v>
       </c>
     </row>
@@ -7762,16 +7769,16 @@
       <c r="A226" t="s">
         <v>232</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="5">
         <v>0.16300000000000001</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="5">
         <v>0.16300000000000001</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="5">
         <v>0.161</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="5">
         <v>0.155</v>
       </c>
     </row>
@@ -7779,16 +7786,16 @@
       <c r="A227" t="s">
         <v>233</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="5">
         <v>0.17100000000000001</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="5">
         <v>0.17100000000000001</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="5">
         <v>0.16900000000000001</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="5">
         <v>0.16300000000000001</v>
       </c>
     </row>
@@ -7796,16 +7803,16 @@
       <c r="A228" t="s">
         <v>234</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="5">
         <v>0.16400000000000001</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="5">
         <v>0.159</v>
       </c>
     </row>
@@ -7813,16 +7820,16 @@
       <c r="A229" t="s">
         <v>235</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="5">
         <v>0.161</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="5">
         <v>0.161</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="5">
         <v>0.159</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="5">
         <v>0.153</v>
       </c>
     </row>
@@ -7830,16 +7837,16 @@
       <c r="A230" t="s">
         <v>236</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="5">
         <v>0.16500000000000001</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="5">
         <v>0.159</v>
       </c>
     </row>
@@ -7847,135 +7854,135 @@
       <c r="A231" t="s">
         <v>274</v>
       </c>
-      <c r="B231">
-        <v>0.19</v>
-      </c>
-      <c r="C231">
-        <v>0.19</v>
-      </c>
-      <c r="D231">
-        <v>0.187</v>
-      </c>
-      <c r="E231">
-        <v>0.18099999999999999</v>
+      <c r="B231" s="5">
+        <v>0.189</v>
+      </c>
+      <c r="C231" s="5">
+        <v>0.189</v>
+      </c>
+      <c r="D231" s="5">
+        <v>0.186</v>
+      </c>
+      <c r="E231" s="5">
+        <v>0.18</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>275</v>
       </c>
-      <c r="B232">
-        <v>0.186</v>
-      </c>
-      <c r="C232">
-        <v>0.186</v>
-      </c>
-      <c r="D232">
-        <v>0.183</v>
-      </c>
-      <c r="E232">
-        <v>0.17699999999999999</v>
+      <c r="B232" s="5">
+        <v>0.185</v>
+      </c>
+      <c r="C232" s="5">
+        <v>0.185</v>
+      </c>
+      <c r="D232" s="5">
+        <v>0.182</v>
+      </c>
+      <c r="E232" s="5">
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>276</v>
       </c>
-      <c r="B233">
-        <v>0.186</v>
-      </c>
-      <c r="C233">
-        <v>0.186</v>
-      </c>
-      <c r="D233">
-        <v>0.184</v>
-      </c>
-      <c r="E233">
-        <v>0.17699999999999999</v>
+      <c r="B233" s="5">
+        <v>0.185</v>
+      </c>
+      <c r="C233" s="5">
+        <v>0.185</v>
+      </c>
+      <c r="D233" s="5">
+        <v>0.183</v>
+      </c>
+      <c r="E233" s="5">
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>277</v>
       </c>
-      <c r="B234">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="C234">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="D234">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="E234">
-        <v>0.16900000000000001</v>
+      <c r="B234" s="5">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C234" s="5">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D234" s="5">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E234" s="5">
+        <v>0.16800000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>278</v>
       </c>
-      <c r="B235">
-        <v>0.188</v>
-      </c>
-      <c r="C235">
-        <v>0.188</v>
-      </c>
-      <c r="D235">
-        <v>0.185</v>
-      </c>
-      <c r="E235">
-        <v>0.17899999999999999</v>
+      <c r="B235" s="5">
+        <v>0.187</v>
+      </c>
+      <c r="C235" s="5">
+        <v>0.187</v>
+      </c>
+      <c r="D235" s="5">
+        <v>0.184</v>
+      </c>
+      <c r="E235" s="5">
+        <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>279</v>
       </c>
-      <c r="B236">
-        <v>0.187</v>
-      </c>
-      <c r="C236">
-        <v>0.187</v>
-      </c>
-      <c r="D236">
-        <v>0.184</v>
-      </c>
-      <c r="E236">
-        <v>0.17799999999999999</v>
+      <c r="B236" s="5">
+        <v>0.186</v>
+      </c>
+      <c r="C236" s="5">
+        <v>0.186</v>
+      </c>
+      <c r="D236" s="5">
+        <v>0.183</v>
+      </c>
+      <c r="E236" s="5">
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>280</v>
       </c>
-      <c r="B237">
-        <v>0.185</v>
-      </c>
-      <c r="C237">
-        <v>0.185</v>
-      </c>
-      <c r="D237">
-        <v>0.183</v>
-      </c>
-      <c r="E237">
-        <v>0.17699999999999999</v>
+      <c r="B237" s="5">
+        <v>0.184</v>
+      </c>
+      <c r="C237" s="5">
+        <v>0.184</v>
+      </c>
+      <c r="D237" s="5">
+        <v>0.182</v>
+      </c>
+      <c r="E237" s="5">
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E238">
+      <c r="E238" s="5">
         <v>3.1E-2</v>
       </c>
     </row>
@@ -7983,16 +7990,16 @@
       <c r="A239" t="s">
         <v>238</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="5">
         <v>3.1E-2</v>
       </c>
     </row>
@@ -8000,16 +8007,16 @@
       <c r="A240" t="s">
         <v>239</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="5">
         <v>0.03</v>
       </c>
     </row>
@@ -8017,16 +8024,16 @@
       <c r="A241" t="s">
         <v>240</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="E241">
+      <c r="E241" s="5">
         <v>0.03</v>
       </c>
     </row>
@@ -8034,16 +8041,16 @@
       <c r="A242" t="s">
         <v>241</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="5">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="5">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="5">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
@@ -8051,16 +8058,16 @@
       <c r="A243" t="s">
         <v>242</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="5">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="5">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="5">
         <v>3.1E-2</v>
       </c>
     </row>
@@ -8068,16 +8075,16 @@
       <c r="A244" t="s">
         <v>243</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="E244">
+      <c r="E244" s="5">
         <v>0.03</v>
       </c>
     </row>
@@ -8085,16 +8092,16 @@
       <c r="A245" t="s">
         <v>244</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="E245">
+      <c r="E245" s="5">
         <v>0.03</v>
       </c>
     </row>
@@ -8102,135 +8109,135 @@
       <c r="A246" t="s">
         <v>281</v>
       </c>
-      <c r="B246">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C246">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D246">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E246">
+      <c r="B246" s="5">
         <v>2.4E-2</v>
+      </c>
+      <c r="C246" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D246" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E246" s="5">
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>282</v>
       </c>
-      <c r="B247">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C247">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D247">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E247">
+      <c r="B247" s="5">
         <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C247" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D247" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E247" s="5">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>283</v>
       </c>
-      <c r="B248">
-        <v>2.7E-2</v>
-      </c>
-      <c r="C248">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D248">
+      <c r="B248" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E248">
+      <c r="C248" s="5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D248" s="5">
         <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E248" s="5">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>284</v>
       </c>
-      <c r="B249">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C249">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D249">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E249">
+      <c r="B249" s="5">
         <v>2.4E-2</v>
+      </c>
+      <c r="C249" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D249" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E249" s="5">
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>285</v>
       </c>
-      <c r="B250">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C250">
-        <v>2.3E-2</v>
-      </c>
-      <c r="D250">
-        <v>2.3E-2</v>
-      </c>
-      <c r="E250">
+      <c r="B250" s="5">
         <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C250" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D250" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E250" s="5">
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>286</v>
       </c>
-      <c r="B251">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C251">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D251">
+      <c r="B251" s="5">
         <v>2.4E-2</v>
       </c>
-      <c r="E251">
+      <c r="C251" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D251" s="5">
         <v>2.3E-2</v>
+      </c>
+      <c r="E251" s="5">
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>287</v>
       </c>
-      <c r="B252">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="C252">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="D252">
+      <c r="B252" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E252">
+      <c r="C252" s="5">
         <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D252" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E252" s="5">
+        <v>0.02</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>245</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="5">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="5">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="5">
         <v>0.16600000000000001</v>
       </c>
     </row>
@@ -8238,16 +8245,16 @@
       <c r="A254" t="s">
         <v>246</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="5">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="5">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E254">
+      <c r="E254" s="5">
         <v>0.16600000000000001</v>
       </c>
     </row>
@@ -8255,16 +8262,16 @@
       <c r="A255" t="s">
         <v>247</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="5">
         <v>0.16200000000000001</v>
       </c>
     </row>
@@ -8272,16 +8279,16 @@
       <c r="A256" t="s">
         <v>248</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="E256">
+      <c r="E256" s="5">
         <v>0.157</v>
       </c>
     </row>
@@ -8289,16 +8296,16 @@
       <c r="A257" t="s">
         <v>249</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="5">
         <v>0.16400000000000001</v>
       </c>
     </row>
@@ -8306,16 +8313,16 @@
       <c r="A258" t="s">
         <v>250</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="5">
         <v>0.159</v>
       </c>
     </row>
@@ -8323,16 +8330,16 @@
       <c r="A259" t="s">
         <v>251</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="5">
         <v>0.08</v>
       </c>
-      <c r="E259">
+      <c r="E259" s="5">
         <v>0.154</v>
       </c>
     </row>
@@ -8340,16 +8347,16 @@
       <c r="A260" t="s">
         <v>252</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="E260">
+      <c r="E260" s="5">
         <v>0.16200000000000001</v>
       </c>
     </row>
@@ -8357,125 +8364,125 @@
       <c r="A261" t="s">
         <v>288</v>
       </c>
-      <c r="B261">
-        <v>0.107</v>
-      </c>
-      <c r="C261">
-        <v>0.107</v>
-      </c>
-      <c r="D261">
-        <v>0.105</v>
-      </c>
-      <c r="E261">
-        <v>0.20200000000000001</v>
+      <c r="B261" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="C261" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="D261" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="E261" s="5">
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>289</v>
       </c>
-      <c r="B262">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="C262">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D262">
+      <c r="B262" s="5">
         <v>0.10199999999999999</v>
       </c>
-      <c r="E262">
-        <v>0.19600000000000001</v>
+      <c r="C262" s="5">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D262" s="5">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E262" s="5">
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>290</v>
       </c>
-      <c r="B263">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="C263">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D263">
+      <c r="B263" s="5">
         <v>0.10199999999999999</v>
       </c>
-      <c r="E263">
-        <v>0.19600000000000001</v>
+      <c r="C263" s="5">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D263" s="5">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E263" s="5">
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>291</v>
       </c>
-      <c r="B264">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="C264">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="D264">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="E264">
-        <v>0.187</v>
+      <c r="B264" s="5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C264" s="5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D264" s="5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E264" s="5">
+        <v>0.186</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>292</v>
       </c>
-      <c r="B265">
-        <v>0.107</v>
-      </c>
-      <c r="C265">
-        <v>0.107</v>
-      </c>
-      <c r="D265">
+      <c r="B265" s="5">
         <v>0.106</v>
       </c>
-      <c r="E265">
-        <v>0.20300000000000001</v>
+      <c r="C265" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="D265" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="E265" s="5">
+        <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>293</v>
       </c>
-      <c r="B266">
-        <v>0.104</v>
-      </c>
-      <c r="C266">
-        <v>0.104</v>
-      </c>
-      <c r="D266">
+      <c r="B266" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E266">
-        <v>0.19800000000000001</v>
+      <c r="C266" s="5">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D266" s="5">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E266" s="5">
+        <v>0.19700000000000001</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>294</v>
       </c>
-      <c r="B267">
-        <v>0.107</v>
-      </c>
-      <c r="C267">
-        <v>0.107</v>
-      </c>
-      <c r="D267">
+      <c r="B267" s="5">
         <v>0.106</v>
       </c>
-      <c r="E267">
-        <v>0.20399999999999999</v>
+      <c r="C267" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="D267" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="E267" s="5">
+        <v>0.20300000000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Basis/Simple_Envelope_Evaluation/publicated_value.xlsx
+++ b/Basis/Simple_Envelope_Evaluation/publicated_value.xlsx
@@ -1,44 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miura\Dropbox\BRI-EES-House\03_HCLoad_and_Envelope\Basis\Simple_Envelope_Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783C7DA0-C14C-450F-A9B1-A172EE01FC79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF789E2-91F4-4285-BE30-EC0DCAD91878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test2020_2" sheetId="5" r:id="rId1"/>
-    <sheet name="test2020" sheetId="4" r:id="rId2"/>
-    <sheet name="test2019" sheetId="1" r:id="rId3"/>
-    <sheet name="test2017" sheetId="3" r:id="rId4"/>
-    <sheet name="仕様書" sheetId="2" r:id="rId5"/>
+    <sheet name="test2020_3" sheetId="6" r:id="rId1"/>
+    <sheet name="test2020_2" sheetId="5" r:id="rId2"/>
+    <sheet name="test2020" sheetId="4" r:id="rId3"/>
+    <sheet name="test2019" sheetId="1" r:id="rId4"/>
+    <sheet name="test2017" sheetId="3" r:id="rId5"/>
+    <sheet name="仕様書" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">test2020_2!$A$1:$E$267</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">test2020_2!$A$1:$E$267</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">test2020_3!$A$1:$E$247</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="311">
   <si>
     <t>2017.04～</t>
     <phoneticPr fontId="1"/>
@@ -3337,6 +3333,108 @@
   </si>
   <si>
     <t>ηAH係数 熱橋部位 壁と床 7地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA係数 熱橋部位 壁と壁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁 1地域</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁 2地域</t>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁 3地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁 4地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁 5地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁 6地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁 7地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAC係数 熱橋部位 壁と壁 8地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁 1地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁 2地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁 3地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁 4地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁 5地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁 6地域</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ηAH係数 熱橋部位 壁と壁 7地域</t>
     <rPh sb="16" eb="18">
       <t>チイキ</t>
     </rPh>
@@ -3886,17 +3984,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A54213-DE88-487B-B9ED-F82CF304DA25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E51732-8FB4-4532-A522-B91DE2E6CBD4}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F267"/>
+  <dimension ref="A1:F247"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B220" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B216" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F235" sqref="F235"/>
+      <selection pane="bottomRight" activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -4928,7 +5026,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B59" s="4">
         <v>5.6</v>
@@ -4945,24 +5043,24 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B60" s="4">
-        <v>11.4</v>
+        <v>17.2</v>
       </c>
       <c r="C60" s="4">
-        <v>11.4</v>
+        <v>17.2</v>
       </c>
       <c r="D60" s="4">
-        <v>11.4</v>
+        <v>17.2</v>
       </c>
       <c r="E60" s="4">
-        <v>11.4</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B61" s="4">
         <v>5.6</v>
@@ -4979,7 +5077,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B62" s="4">
         <v>5.6</v>
@@ -4996,432 +5094,432 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B63" s="4">
-        <v>0</v>
+        <v>10.61</v>
       </c>
       <c r="C63" s="4">
-        <v>0</v>
+        <v>10.61</v>
       </c>
       <c r="D63" s="4">
-        <v>0</v>
+        <v>10.61</v>
       </c>
       <c r="E63" s="4">
-        <v>0</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B64" s="4">
-        <v>5.8</v>
+        <v>2.97</v>
       </c>
       <c r="C64" s="4">
-        <v>5.8</v>
+        <v>2.97</v>
       </c>
       <c r="D64" s="4">
-        <v>5.8</v>
+        <v>2.97</v>
       </c>
       <c r="E64" s="4">
-        <v>5.8</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B65" s="4">
-        <v>0</v>
+        <v>9.24</v>
       </c>
       <c r="C65" s="4">
-        <v>0</v>
+        <v>9.24</v>
       </c>
       <c r="D65" s="4">
-        <v>0</v>
+        <v>9.24</v>
       </c>
       <c r="E65" s="4">
-        <v>0</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B66" s="4">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="C66" s="4">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="D66" s="4">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="E66" s="4">
-        <v>0</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="4">
-        <v>10.61</v>
-      </c>
-      <c r="C67" s="4">
-        <v>10.61</v>
-      </c>
-      <c r="D67" s="4">
-        <v>10.61</v>
-      </c>
-      <c r="E67" s="4">
-        <v>10.61</v>
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0.192</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0.185</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B68" s="4">
-        <v>2.97</v>
-      </c>
-      <c r="C68" s="4">
-        <v>2.97</v>
-      </c>
-      <c r="D68" s="4">
-        <v>2.97</v>
-      </c>
-      <c r="E68" s="4">
-        <v>2.97</v>
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B69" s="4">
-        <v>9.24</v>
-      </c>
-      <c r="C69" s="4">
-        <v>9.24</v>
-      </c>
-      <c r="D69" s="4">
-        <v>9.24</v>
-      </c>
-      <c r="E69" s="4">
-        <v>9.24</v>
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1.3000000000000001E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" s="4">
-        <v>4.79</v>
-      </c>
-      <c r="C70" s="4">
-        <v>4.79</v>
-      </c>
-      <c r="D70" s="4">
-        <v>4.79</v>
-      </c>
-      <c r="E70" s="4">
-        <v>4.79</v>
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.107</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0.107</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0.10200000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B71" s="5">
-        <v>0.19400000000000001</v>
+        <v>0</v>
       </c>
       <c r="C71" s="5">
-        <v>0.19400000000000001</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="D71" s="5">
-        <v>0.192</v>
+        <v>0</v>
       </c>
       <c r="E71" s="5">
-        <v>0.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B72" s="5">
-        <v>0.48899999999999999</v>
+        <v>0.129</v>
       </c>
       <c r="C72" s="5">
-        <v>0.48899999999999999</v>
+        <v>0.121</v>
       </c>
       <c r="D72" s="5">
-        <v>0.48199999999999998</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="E72" s="5">
-        <v>0.46600000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B73" s="5">
-        <v>1.3999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C73" s="5">
-        <v>1.3999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D73" s="5">
-        <v>1.3999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E73" s="5">
-        <v>1.3000000000000001E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="B74" s="5">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="C74" s="5">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="D74" s="5">
-        <v>0.105</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E74" s="5">
-        <v>0.10200000000000001</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75" s="5">
-        <v>0</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C75" s="5">
-        <v>9.0000000000000011E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D75" s="5">
-        <v>0</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E75" s="5">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="B76" s="5">
-        <v>0.129</v>
+        <v>0</v>
       </c>
       <c r="C76" s="5">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="D76" s="5">
-        <v>0.11899999999999999</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E76" s="5">
-        <v>0</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="B77" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C77" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D77" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E77" s="5">
-        <v>3.0000000000000001E-3</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="B78" s="5">
-        <v>0</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C78" s="5">
-        <v>0</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D78" s="5">
-        <v>1.2E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="E78" s="5">
-        <v>5.0999999999999997E-2</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="B79" s="5">
-        <v>2.1000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C79" s="5">
-        <v>2.1000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D79" s="5">
-        <v>2.1000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="E79" s="5">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="B80" s="5">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="C80" s="5">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="D80" s="5">
-        <v>2.4E-2</v>
+        <v>0.214</v>
       </c>
       <c r="E80" s="5">
-        <v>0.10100000000000001</v>
+        <v>0.20699999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="B81" s="5">
-        <v>5.8999999999999997E-2</v>
+        <v>0.13</v>
       </c>
       <c r="C81" s="5">
-        <v>5.8999999999999997E-2</v>
+        <v>0.13</v>
       </c>
       <c r="D81" s="5">
-        <v>5.8000000000000003E-2</v>
+        <v>0.128</v>
       </c>
       <c r="E81" s="5">
-        <v>5.6000000000000001E-2</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B82" s="5">
-        <v>0.13500000000000001</v>
+        <v>0.106</v>
       </c>
       <c r="C82" s="5">
-        <v>0.13500000000000001</v>
+        <v>0.106</v>
       </c>
       <c r="D82" s="5">
-        <v>0.13400000000000001</v>
+        <v>0.104</v>
       </c>
       <c r="E82" s="5">
-        <v>0.129</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="B83" s="5">
-        <v>5.0999999999999997E-2</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C83" s="5">
-        <v>5.0999999999999997E-2</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D83" s="5">
-        <v>5.0999999999999997E-2</v>
+        <v>0.65</v>
       </c>
       <c r="E83" s="5">
-        <v>0</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="B84" s="5">
-        <v>0.217</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C84" s="5">
-        <v>0.217</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D84" s="5">
-        <v>0.214</v>
+        <v>0.65</v>
       </c>
       <c r="E84" s="5">
-        <v>0.20699999999999999</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="B85" s="5">
-        <v>0.108</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C85" s="5">
-        <v>0.108</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D85" s="5">
-        <v>0.106</v>
+        <v>0.65</v>
       </c>
       <c r="E85" s="5">
-        <v>0.10299999999999999</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="B86" s="5">
-        <v>2.3E-2</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C86" s="5">
-        <v>2.3E-2</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D86" s="5">
-        <v>2.1999999999999999E-2</v>
+        <v>0.65</v>
       </c>
       <c r="E86" s="5">
-        <v>2.1999999999999999E-2</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="B87" s="5">
-        <v>0.106</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C87" s="5">
-        <v>0.106</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D87" s="5">
-        <v>0.104</v>
+        <v>0.65</v>
       </c>
       <c r="E87" s="5">
-        <v>0.10100000000000001</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B88" s="5">
         <v>0.65900000000000003</v>
@@ -5438,7 +5536,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B89" s="5">
         <v>0.65900000000000003</v>
@@ -5455,7 +5553,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B90" s="5">
         <v>0.65900000000000003</v>
@@ -5472,92 +5570,92 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B91" s="5">
-        <v>0.65900000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C91" s="5">
-        <v>0.65900000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D91" s="5">
-        <v>0.65</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E91" s="5">
-        <v>0.628</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B92" s="5">
-        <v>0.65900000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C92" s="5">
-        <v>0.65900000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D92" s="5">
-        <v>0.65</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E92" s="5">
-        <v>0.628</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B93" s="5">
-        <v>0.65900000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C93" s="5">
-        <v>0.65900000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D93" s="5">
-        <v>0.65</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E93" s="5">
-        <v>0.628</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B94" s="5">
-        <v>0.65900000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C94" s="5">
-        <v>0.65900000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D94" s="5">
-        <v>0.65</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E94" s="5">
-        <v>0.628</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B95" s="5">
-        <v>0.65900000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C95" s="5">
-        <v>0.65900000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D95" s="5">
-        <v>0.65</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E95" s="5">
-        <v>0.628</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B96" s="5">
         <v>0.65800000000000003</v>
@@ -5574,7 +5672,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B97" s="5">
         <v>0.65800000000000003</v>
@@ -5591,347 +5689,347 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B98" s="5">
-        <v>0.65800000000000003</v>
+        <v>0.79</v>
       </c>
       <c r="C98" s="5">
-        <v>0.65800000000000003</v>
+        <v>0.79</v>
       </c>
       <c r="D98" s="5">
-        <v>0.64900000000000002</v>
+        <v>0.78</v>
       </c>
       <c r="E98" s="5">
-        <v>0.627</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B99" s="5">
-        <v>0.65800000000000003</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="C99" s="5">
-        <v>0.65800000000000003</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="D99" s="5">
-        <v>0.64900000000000002</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="E99" s="5">
-        <v>0.627</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B100" s="5">
-        <v>0.65800000000000003</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="C100" s="5">
-        <v>0.65800000000000003</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D100" s="5">
-        <v>0.64900000000000002</v>
+        <v>0.754</v>
       </c>
       <c r="E100" s="5">
-        <v>0.627</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B101" s="5">
-        <v>0.65800000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="C101" s="5">
-        <v>0.65800000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="D101" s="5">
-        <v>0.64900000000000002</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="E101" s="5">
-        <v>0.627</v>
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B102" s="5">
-        <v>0.65800000000000003</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="C102" s="5">
-        <v>0.65800000000000003</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="D102" s="5">
-        <v>0.64900000000000002</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="E102" s="5">
-        <v>0.627</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B103" s="5">
-        <v>0.79</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="C103" s="5">
-        <v>0.79</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="D103" s="5">
-        <v>0.78</v>
+        <v>0.751</v>
       </c>
       <c r="E103" s="5">
-        <v>0.752</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B104" s="5">
-        <v>0.78400000000000003</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="C104" s="5">
-        <v>0.78400000000000003</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D104" s="5">
-        <v>0.77300000000000002</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="E104" s="5">
-        <v>0.746</v>
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B105" s="5">
-        <v>0.76500000000000001</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="C105" s="5">
-        <v>0.76500000000000001</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="D105" s="5">
-        <v>0.754</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="E105" s="5">
-        <v>0.72799999999999998</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B106" s="5">
-        <v>0.75</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="C106" s="5">
-        <v>0.75</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D106" s="5">
-        <v>0.73899999999999999</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="E106" s="5">
-        <v>0.71399999999999997</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B107" s="5">
-        <v>0.78300000000000003</v>
+        <v>0.874</v>
       </c>
       <c r="C107" s="5">
-        <v>0.78300000000000003</v>
+        <v>0.874</v>
       </c>
       <c r="D107" s="5">
-        <v>0.77300000000000002</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="E107" s="5">
-        <v>0.746</v>
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B108" s="5">
-        <v>0.76200000000000001</v>
+        <v>0.876</v>
       </c>
       <c r="C108" s="5">
-        <v>0.76200000000000001</v>
+        <v>0.876</v>
       </c>
       <c r="D108" s="5">
-        <v>0.751</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="E108" s="5">
-        <v>0.72499999999999998</v>
+        <v>0.83399999999999996</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B109" s="5">
-        <v>0.73799999999999999</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="C109" s="5">
-        <v>0.73799999999999999</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="D109" s="5">
-        <v>0.72799999999999998</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="E109" s="5">
-        <v>0.70299999999999996</v>
+        <v>0.79700000000000004</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B110" s="5">
-        <v>0.76700000000000002</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="C110" s="5">
-        <v>0.76700000000000002</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D110" s="5">
-        <v>0.75600000000000001</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="E110" s="5">
-        <v>0.73</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B111" s="5">
-        <v>0.89800000000000002</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="C111" s="5">
-        <v>0.89800000000000002</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D111" s="5">
-        <v>0.88600000000000001</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E111" s="5">
-        <v>0.85499999999999998</v>
+        <v>0.83899999999999997</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B112" s="5">
-        <v>0.874</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C112" s="5">
-        <v>0.874</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D112" s="5">
-        <v>0.86199999999999999</v>
+        <v>0.873</v>
       </c>
       <c r="E112" s="5">
-        <v>0.83199999999999996</v>
+        <v>0.84199999999999997</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B113" s="5">
-        <v>0.876</v>
+        <v>0.02</v>
       </c>
       <c r="C113" s="5">
-        <v>0.876</v>
+        <v>0.02</v>
       </c>
       <c r="D113" s="5">
-        <v>0.86399999999999999</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E113" s="5">
-        <v>0.83399999999999996</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B114" s="5">
-        <v>0.83699999999999997</v>
+        <v>0.02</v>
       </c>
       <c r="C114" s="5">
-        <v>0.83699999999999997</v>
+        <v>0.02</v>
       </c>
       <c r="D114" s="5">
-        <v>0.82599999999999996</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E114" s="5">
-        <v>0.79700000000000004</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B115" s="5">
-        <v>0.89300000000000002</v>
+        <v>0.02</v>
       </c>
       <c r="C115" s="5">
-        <v>0.89300000000000002</v>
+        <v>0.02</v>
       </c>
       <c r="D115" s="5">
-        <v>0.88100000000000001</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E115" s="5">
-        <v>0.85</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B116" s="5">
-        <v>0.88200000000000001</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C116" s="5">
-        <v>0.88200000000000001</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D116" s="5">
-        <v>0.86899999999999999</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E116" s="5">
-        <v>0.83899999999999997</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B117" s="5">
-        <v>0.88500000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="C117" s="5">
-        <v>0.88500000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="D117" s="5">
-        <v>0.873</v>
+        <v>0.02</v>
       </c>
       <c r="E117" s="5">
-        <v>0.84199999999999997</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B118" s="5">
         <v>0.02</v>
@@ -5940,7 +6038,7 @@
         <v>0.02</v>
       </c>
       <c r="D118" s="5">
-        <v>1.9E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E118" s="5">
         <v>1.9E-2</v>
@@ -5948,126 +6046,126 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B119" s="5">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C119" s="5">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D119" s="5">
         <v>1.9E-2</v>
       </c>
       <c r="E119" s="5">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B120" s="5">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C120" s="5">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D120" s="5">
         <v>1.9E-2</v>
       </c>
       <c r="E120" s="5">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B121" s="5">
-        <v>1.9E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C121" s="5">
-        <v>1.9E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D121" s="5">
-        <v>1.9E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E121" s="5">
-        <v>1.7999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B122" s="5">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C122" s="5">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D122" s="5">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E122" s="5">
-        <v>0.02</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B123" s="5">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C123" s="5">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D123" s="5">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E123" s="5">
-        <v>1.9E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B124" s="5">
-        <v>1.9E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C124" s="5">
-        <v>1.9E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D124" s="5">
-        <v>1.9E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E124" s="5">
-        <v>1.7999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B125" s="5">
-        <v>1.9E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C125" s="5">
-        <v>1.9E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D125" s="5">
-        <v>1.9E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E125" s="5">
-        <v>1.7999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B126" s="5">
         <v>1.4E-2</v>
@@ -6079,369 +6177,369 @@
         <v>1.4E-2</v>
       </c>
       <c r="E126" s="5">
-        <v>1.4E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B127" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C127" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D127" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E127" s="5">
-        <v>1.4E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B128" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>4.6769999999999996</v>
       </c>
       <c r="C128" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>4.6769999999999996</v>
       </c>
       <c r="D128" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>4.6130000000000004</v>
       </c>
       <c r="E128" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>4.4530000000000003</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B129" s="5">
-        <v>1.4E-2</v>
+        <v>4.7670000000000003</v>
       </c>
       <c r="C129" s="5">
-        <v>1.4E-2</v>
+        <v>4.7670000000000003</v>
       </c>
       <c r="D129" s="5">
-        <v>1.4E-2</v>
+        <v>4.702</v>
       </c>
       <c r="E129" s="5">
-        <v>1.4E-2</v>
+        <v>4.5380000000000003</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B130" s="5">
-        <v>1.2999999999999999E-2</v>
+        <v>4.71</v>
       </c>
       <c r="C130" s="5">
-        <v>1.2999999999999999E-2</v>
+        <v>4.71</v>
       </c>
       <c r="D130" s="5">
-        <v>1.2999999999999999E-2</v>
+        <v>4.6449999999999996</v>
       </c>
       <c r="E130" s="5">
-        <v>1.2999999999999999E-2</v>
+        <v>4.484</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B131" s="5">
-        <v>1.4E-2</v>
+        <v>4.2759999999999998</v>
       </c>
       <c r="C131" s="5">
-        <v>1.4E-2</v>
+        <v>4.2759999999999998</v>
       </c>
       <c r="D131" s="5">
-        <v>1.4E-2</v>
+        <v>4.2169999999999996</v>
       </c>
       <c r="E131" s="5">
-        <v>1.2999999999999999E-2</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B132" s="5">
-        <v>1.2E-2</v>
+        <v>4.5780000000000003</v>
       </c>
       <c r="C132" s="5">
-        <v>1.2E-2</v>
+        <v>4.5780000000000003</v>
       </c>
       <c r="D132" s="5">
-        <v>1.2E-2</v>
+        <v>4.5149999999999997</v>
       </c>
       <c r="E132" s="5">
-        <v>1.2E-2</v>
+        <v>4.3579999999999997</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B133" s="5">
-        <v>4.6769999999999996</v>
+        <v>4.3559999999999999</v>
       </c>
       <c r="C133" s="5">
-        <v>4.6769999999999996</v>
+        <v>4.3559999999999999</v>
       </c>
       <c r="D133" s="5">
-        <v>4.6130000000000004</v>
+        <v>4.2960000000000003</v>
       </c>
       <c r="E133" s="5">
-        <v>4.4530000000000003</v>
+        <v>4.1470000000000002</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B134" s="5">
-        <v>4.7670000000000003</v>
+        <v>4.2210000000000001</v>
       </c>
       <c r="C134" s="5">
-        <v>4.7670000000000003</v>
+        <v>4.2210000000000001</v>
       </c>
       <c r="D134" s="5">
-        <v>4.702</v>
+        <v>4.1630000000000003</v>
       </c>
       <c r="E134" s="5">
-        <v>4.5380000000000003</v>
+        <v>4.0190000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B135" s="5">
-        <v>4.71</v>
+        <v>4.55</v>
       </c>
       <c r="C135" s="5">
-        <v>4.71</v>
+        <v>4.55</v>
       </c>
       <c r="D135" s="5">
-        <v>4.6449999999999996</v>
+        <v>4.4870000000000001</v>
       </c>
       <c r="E135" s="5">
-        <v>4.484</v>
+        <v>4.3310000000000004</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B136" s="5">
-        <v>4.2759999999999998</v>
+        <v>4.9349999999999996</v>
       </c>
       <c r="C136" s="5">
-        <v>4.2759999999999998</v>
+        <v>4.9349999999999996</v>
       </c>
       <c r="D136" s="5">
-        <v>4.2169999999999996</v>
+        <v>4.867</v>
       </c>
       <c r="E136" s="5">
-        <v>4.07</v>
+        <v>4.6980000000000004</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B137" s="5">
-        <v>4.5780000000000003</v>
+        <v>4.6520000000000001</v>
       </c>
       <c r="C137" s="5">
-        <v>4.5780000000000003</v>
+        <v>4.6520000000000001</v>
       </c>
       <c r="D137" s="5">
-        <v>4.5149999999999997</v>
+        <v>4.5880000000000001</v>
       </c>
       <c r="E137" s="5">
-        <v>4.3579999999999997</v>
+        <v>4.4290000000000003</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B138" s="5">
-        <v>4.3559999999999999</v>
+        <v>4.6349999999999998</v>
       </c>
       <c r="C138" s="5">
-        <v>4.3559999999999999</v>
+        <v>4.6349999999999998</v>
       </c>
       <c r="D138" s="5">
-        <v>4.2960000000000003</v>
+        <v>4.5720000000000001</v>
       </c>
       <c r="E138" s="5">
-        <v>4.1470000000000002</v>
+        <v>4.4130000000000003</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B139" s="5">
-        <v>4.2210000000000001</v>
+        <v>4.4109999999999996</v>
       </c>
       <c r="C139" s="5">
-        <v>4.2210000000000001</v>
+        <v>4.4109999999999996</v>
       </c>
       <c r="D139" s="5">
-        <v>4.1630000000000003</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E139" s="5">
-        <v>4.0190000000000001</v>
+        <v>4.1989999999999998</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B140" s="5">
-        <v>4.55</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C140" s="5">
-        <v>4.55</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D140" s="5">
-        <v>4.4870000000000001</v>
+        <v>5.03</v>
       </c>
       <c r="E140" s="5">
-        <v>4.3310000000000004</v>
+        <v>4.8550000000000004</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B141" s="5">
-        <v>4.9349999999999996</v>
+        <v>4.7859999999999996</v>
       </c>
       <c r="C141" s="5">
-        <v>4.9349999999999996</v>
+        <v>4.7859999999999996</v>
       </c>
       <c r="D141" s="5">
-        <v>4.867</v>
+        <v>4.72</v>
       </c>
       <c r="E141" s="5">
-        <v>4.6980000000000004</v>
+        <v>4.556</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B142" s="5">
-        <v>4.6520000000000001</v>
+        <v>5.2409999999999997</v>
       </c>
       <c r="C142" s="5">
-        <v>4.6520000000000001</v>
+        <v>5.2409999999999997</v>
       </c>
       <c r="D142" s="5">
-        <v>4.5880000000000001</v>
+        <v>5.1689999999999996</v>
       </c>
       <c r="E142" s="5">
-        <v>4.4290000000000003</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B143" s="5">
-        <v>4.6349999999999998</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C143" s="5">
-        <v>4.6349999999999998</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D143" s="5">
-        <v>4.5720000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E143" s="5">
-        <v>4.4130000000000003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B144" s="5">
-        <v>4.4109999999999996</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C144" s="5">
-        <v>4.4109999999999996</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D144" s="5">
-        <v>4.3499999999999996</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E144" s="5">
-        <v>4.1989999999999998</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B145" s="5">
-        <v>5.0999999999999996</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C145" s="5">
-        <v>5.0999999999999996</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D145" s="5">
-        <v>5.03</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E145" s="5">
-        <v>4.8550000000000004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B146" s="5">
-        <v>4.7859999999999996</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C146" s="5">
-        <v>4.7859999999999996</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D146" s="5">
-        <v>4.72</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E146" s="5">
-        <v>4.556</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B147" s="5">
-        <v>5.2409999999999997</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C147" s="5">
-        <v>5.2409999999999997</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D147" s="5">
-        <v>5.1689999999999996</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E147" s="5">
-        <v>4.99</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B148" s="5">
         <v>4.0000000000000001E-3</v>
@@ -6453,12 +6551,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E148" s="5">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B149" s="5">
         <v>4.0000000000000001E-3</v>
@@ -6470,12 +6568,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E149" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B150" s="5">
         <v>4.0000000000000001E-3</v>
@@ -6487,97 +6585,97 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E150" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B151" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C151" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D151" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E151" s="5">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B152" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C152" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D152" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E152" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B153" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C153" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D153" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E153" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B154" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C154" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D154" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E154" s="5">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B155" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C155" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D155" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E155" s="5">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B156" s="5">
         <v>2E-3</v>
@@ -6594,7 +6692,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B157" s="5">
         <v>2E-3</v>
@@ -6611,92 +6709,92 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B158" s="5">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="C158" s="5">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D158" s="5">
-        <v>2E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E158" s="5">
-        <v>2E-3</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B159" s="5">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="C159" s="5">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D159" s="5">
-        <v>2E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E159" s="5">
-        <v>2E-3</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B160" s="5">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="C160" s="5">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D160" s="5">
-        <v>2E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E160" s="5">
-        <v>2E-3</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B161" s="5">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="C161" s="5">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D161" s="5">
-        <v>2E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E161" s="5">
-        <v>2E-3</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B162" s="5">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="C162" s="5">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D162" s="5">
-        <v>2E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E162" s="5">
-        <v>2E-3</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B163" s="5">
         <v>0</v>
@@ -6708,12 +6806,12 @@
         <v>0.01</v>
       </c>
       <c r="E163" s="5">
-        <v>8.4000000000000005E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B164" s="5">
         <v>0</v>
@@ -6725,12 +6823,12 @@
         <v>0.01</v>
       </c>
       <c r="E164" s="5">
-        <v>8.3000000000000004E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B165" s="5">
         <v>0</v>
@@ -6747,7 +6845,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B166" s="5">
         <v>0</v>
@@ -6756,15 +6854,15 @@
         <v>0</v>
       </c>
       <c r="D166" s="5">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E166" s="5">
-        <v>7.9000000000000001E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B167" s="5">
         <v>0</v>
@@ -6773,15 +6871,15 @@
         <v>0</v>
       </c>
       <c r="D167" s="5">
-        <v>1.0999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E167" s="5">
-        <v>8.2000000000000003E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B168" s="5">
         <v>0</v>
@@ -6790,15 +6888,15 @@
         <v>0</v>
       </c>
       <c r="D168" s="5">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E168" s="5">
-        <v>0.08</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B169" s="5">
         <v>0</v>
@@ -6807,15 +6905,15 @@
         <v>0</v>
       </c>
       <c r="D169" s="5">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E169" s="5">
-        <v>7.6999999999999999E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B170" s="5">
         <v>0</v>
@@ -6824,15 +6922,15 @@
         <v>0</v>
       </c>
       <c r="D170" s="5">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E170" s="5">
-        <v>8.1000000000000003E-2</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B171" s="5">
         <v>0</v>
@@ -6844,12 +6942,12 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E171" s="5">
-        <v>0.1</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B172" s="5">
         <v>0</v>
@@ -6858,100 +6956,100 @@
         <v>0</v>
       </c>
       <c r="D172" s="5">
-        <v>7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E172" s="5">
-        <v>9.7000000000000003E-2</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="B173" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C173" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D173" s="5">
-        <v>8.0000000000000002E-3</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="E173" s="5">
-        <v>9.7000000000000003E-2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="B174" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C174" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D174" s="5">
-        <v>7.0000000000000001E-3</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="E174" s="5">
-        <v>9.2999999999999999E-2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="B175" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C175" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D175" s="5">
-        <v>7.0000000000000001E-3</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="E175" s="5">
-        <v>0.10100000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="B176" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C176" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D176" s="5">
-        <v>7.0000000000000001E-3</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="E176" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="B177" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C177" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D177" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="E177" s="5">
-        <v>0.10100000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B178" s="5">
         <v>0.2</v>
@@ -6968,7 +7066,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B179" s="5">
         <v>0.2</v>
@@ -6985,7 +7083,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B180" s="5">
         <v>0.2</v>
@@ -7002,92 +7100,92 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="B181" s="5">
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="C181" s="5">
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D181" s="5">
-        <v>0.19700000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="E181" s="5">
-        <v>0.19</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="B182" s="5">
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="C182" s="5">
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D182" s="5">
-        <v>0.19700000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="E182" s="5">
-        <v>0.19</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="B183" s="5">
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="C183" s="5">
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D183" s="5">
-        <v>0.19700000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="E183" s="5">
-        <v>0.19</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="B184" s="5">
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="C184" s="5">
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D184" s="5">
-        <v>0.19700000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="E184" s="5">
-        <v>0.19</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="B185" s="5">
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="C185" s="5">
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D185" s="5">
-        <v>0.19700000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="E185" s="5">
-        <v>0.19</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B186" s="5">
         <v>0.19900000000000001</v>
@@ -7104,7 +7202,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B187" s="5">
         <v>0.19900000000000001</v>
@@ -7121,381 +7219,381 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="B188" s="5">
-        <v>0.19900000000000001</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="C188" s="5">
-        <v>0.19900000000000001</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="D188" s="5">
-        <v>0.19600000000000001</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="E188" s="5">
-        <v>0.189</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="B189" s="5">
-        <v>0.19900000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="C189" s="5">
-        <v>0.19900000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="D189" s="5">
-        <v>0.19600000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="E189" s="5">
-        <v>0.189</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="B190" s="5">
-        <v>0.19900000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C190" s="5">
-        <v>0.19900000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D190" s="5">
-        <v>0.19600000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="E190" s="5">
-        <v>0.189</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="B191" s="5">
-        <v>0.19900000000000001</v>
+        <v>0.215</v>
       </c>
       <c r="C191" s="5">
-        <v>0.19900000000000001</v>
+        <v>0.215</v>
       </c>
       <c r="D191" s="5">
-        <v>0.19600000000000001</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="E191" s="5">
-        <v>0.189</v>
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="B192" s="5">
-        <v>0.19900000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C192" s="5">
-        <v>0.19900000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D192" s="5">
-        <v>0.19600000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="E192" s="5">
-        <v>0.189</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B193" s="5">
-        <v>0.23100000000000001</v>
+        <v>0.218</v>
       </c>
       <c r="C193" s="5">
-        <v>0.23100000000000001</v>
+        <v>0.218</v>
       </c>
       <c r="D193" s="5">
-        <v>0.22800000000000001</v>
+        <v>0.215</v>
       </c>
       <c r="E193" s="5">
-        <v>0.22</v>
+        <v>0.20699999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B194" s="5">
-        <v>0.23</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="C194" s="5">
-        <v>0.23</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="D194" s="5">
-        <v>0.22700000000000001</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="E194" s="5">
-        <v>0.219</v>
+        <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B195" s="5">
-        <v>0.22500000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="C195" s="5">
-        <v>0.22500000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="D195" s="5">
-        <v>0.222</v>
+        <v>0.221</v>
       </c>
       <c r="E195" s="5">
-        <v>0.215</v>
+        <v>0.21299999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="B196" s="5">
-        <v>0.215</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="C196" s="5">
-        <v>0.215</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D196" s="5">
-        <v>0.21199999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="E196" s="5">
-        <v>0.20499999999999999</v>
+        <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="B197" s="5">
-        <v>0.22500000000000001</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="C197" s="5">
-        <v>0.22500000000000001</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="D197" s="5">
-        <v>0.222</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="E197" s="5">
-        <v>0.214</v>
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="B198" s="5">
-        <v>0.218</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="C198" s="5">
-        <v>0.218</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="D198" s="5">
-        <v>0.215</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="E198" s="5">
-        <v>0.20699999999999999</v>
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="B199" s="5">
-        <v>0.21199999999999999</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="C199" s="5">
-        <v>0.21199999999999999</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="D199" s="5">
-        <v>0.20899999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="E199" s="5">
-        <v>0.20200000000000001</v>
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="B200" s="5">
-        <v>0.224</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="C200" s="5">
-        <v>0.224</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D200" s="5">
-        <v>0.221</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="E200" s="5">
-        <v>0.21299999999999999</v>
+        <v>0.28899999999999998</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B201" s="5">
-        <v>0.29899999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="C201" s="5">
-        <v>0.29899999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D201" s="5">
-        <v>0.29499999999999998</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="E201" s="5">
-        <v>0.28499999999999998</v>
+        <v>0.28100000000000003</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B202" s="5">
-        <v>0.28699999999999998</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="C202" s="5">
-        <v>0.28699999999999998</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="D202" s="5">
-        <v>0.28299999999999997</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="E202" s="5">
-        <v>0.27300000000000002</v>
+        <v>0.29099999999999998</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="B203" s="5">
-        <v>0.28599999999999998</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="C203" s="5">
-        <v>0.28599999999999998</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="D203" s="5">
-        <v>0.28199999999999997</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="E203" s="5">
-        <v>0.27200000000000002</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="B204" s="5">
-        <v>0.27400000000000002</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="C204" s="5">
-        <v>0.27400000000000002</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D204" s="5">
-        <v>0.27</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="E204" s="5">
-        <v>0.26100000000000001</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="B205" s="5">
-        <v>0.30299999999999999</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="C205" s="5">
-        <v>0.30299999999999999</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="D205" s="5">
-        <v>0.29899999999999999</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="E205" s="5">
-        <v>0.28899999999999998</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="B206" s="5">
-        <v>0.29499999999999998</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="C206" s="5">
-        <v>0.29499999999999998</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D206" s="5">
-        <v>0.29099999999999998</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="E206" s="5">
-        <v>0.28100000000000003</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="B207" s="5">
-        <v>0.30599999999999999</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="C207" s="5">
-        <v>0.30599999999999999</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D207" s="5">
-        <v>0.30199999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="E207" s="5">
-        <v>0.29099999999999998</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B208" s="5">
-        <v>0.53600000000000003</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="C208" s="5">
-        <v>0.53600000000000003</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D208" s="5">
-        <v>0.52800000000000002</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="E208" s="5">
-        <v>0.51</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B209" s="5">
-        <v>0.53500000000000003</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="C209" s="5">
-        <v>0.53500000000000003</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D209" s="5">
-        <v>0.52700000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="E209" s="5">
-        <v>0.50900000000000001</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B210" s="5">
         <v>0.53100000000000003</v>
@@ -7512,84 +7610,84 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="B211" s="5">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="C211" s="5">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D211" s="5">
         <v>0.52900000000000003</v>
       </c>
-      <c r="C211" s="5">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="D211" s="5">
-        <v>0.52200000000000002</v>
-      </c>
       <c r="E211" s="5">
-        <v>0.504</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="B212" s="5">
-        <v>0.53800000000000003</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="C212" s="5">
-        <v>0.53800000000000003</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D212" s="5">
-        <v>0.53</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="E212" s="5">
-        <v>0.51200000000000001</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="B213" s="5">
-        <v>0.53300000000000003</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="C213" s="5">
-        <v>0.53300000000000003</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="D213" s="5">
-        <v>0.52600000000000002</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="E213" s="5">
-        <v>0.50800000000000001</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="B214" s="5">
-        <v>0.52700000000000002</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="C214" s="5">
-        <v>0.52700000000000002</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D214" s="5">
-        <v>0.52</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="E214" s="5">
-        <v>0.502</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="B215" s="5">
-        <v>0.53100000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="C215" s="5">
-        <v>0.53100000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D215" s="5">
-        <v>0.52400000000000002</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="E215" s="5">
         <v>0.50600000000000001</v>
@@ -7597,885 +7695,545 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B216" s="5">
-        <v>0.53600000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="C216" s="5">
-        <v>0.53600000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D216" s="5">
-        <v>0.52900000000000003</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="E216" s="5">
-        <v>0.51</v>
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B217" s="5">
-        <v>0.53500000000000003</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="C217" s="5">
-        <v>0.53500000000000003</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D217" s="5">
-        <v>0.52700000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="E217" s="5">
-        <v>0.50900000000000001</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="B218" s="5">
-        <v>0.53600000000000003</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="C218" s="5">
-        <v>0.53600000000000003</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="D218" s="5">
-        <v>0.52900000000000003</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="E218" s="5">
-        <v>0.51</v>
+        <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="B219" s="5">
-        <v>0.52800000000000002</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="C219" s="5">
-        <v>0.52800000000000002</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="D219" s="5">
-        <v>0.52100000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="E219" s="5">
-        <v>0.503</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="B220" s="5">
-        <v>0.53200000000000003</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="C220" s="5">
-        <v>0.53200000000000003</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D220" s="5">
-        <v>0.52500000000000002</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="E220" s="5">
-        <v>0.50600000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B221" s="5">
-        <v>0.53200000000000003</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="C221" s="5">
-        <v>0.53200000000000003</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="D221" s="5">
-        <v>0.52500000000000002</v>
+        <v>0.192</v>
       </c>
       <c r="E221" s="5">
-        <v>0.50700000000000001</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="B222" s="5">
-        <v>0.52800000000000002</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="C222" s="5">
-        <v>0.52800000000000002</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="D222" s="5">
-        <v>0.52</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="E222" s="5">
-        <v>0.502</v>
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="B223" s="5">
-        <v>0.17199999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="C223" s="5">
-        <v>0.17199999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D223" s="5">
-        <v>0.17</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="E223" s="5">
-        <v>0.16400000000000001</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="B224" s="5">
-        <v>0.17100000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="C224" s="5">
-        <v>0.17100000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="D224" s="5">
-        <v>0.16900000000000001</v>
+        <v>0.189</v>
       </c>
       <c r="E224" s="5">
-        <v>0.16300000000000001</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="B225" s="5">
-        <v>0.16800000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="C225" s="5">
-        <v>0.16800000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D225" s="5">
-        <v>0.16600000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="E225" s="5">
-        <v>0.16</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="B226" s="5">
-        <v>0.16300000000000001</v>
+        <v>0.214</v>
       </c>
       <c r="C226" s="5">
-        <v>0.16300000000000001</v>
+        <v>0.214</v>
       </c>
       <c r="D226" s="5">
-        <v>0.161</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="E226" s="5">
-        <v>0.155</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="B227" s="5">
-        <v>0.17100000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="C227" s="5">
-        <v>0.17100000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="D227" s="5">
-        <v>0.16900000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E227" s="5">
-        <v>0.16300000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="B228" s="5">
-        <v>0.16700000000000001</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="C228" s="5">
-        <v>0.16700000000000001</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="D228" s="5">
-        <v>0.16400000000000001</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="E228" s="5">
-        <v>0.159</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="B229" s="5">
-        <v>0.161</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="C229" s="5">
-        <v>0.161</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D229" s="5">
-        <v>0.159</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="E229" s="5">
-        <v>0.153</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="B230" s="5">
-        <v>0.16700000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="C230" s="5">
-        <v>0.16700000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="D230" s="5">
-        <v>0.16500000000000001</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="E230" s="5">
-        <v>0.159</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="B231" s="5">
-        <v>0.189</v>
+        <v>0.21</v>
       </c>
       <c r="C231" s="5">
-        <v>0.189</v>
+        <v>0.21</v>
       </c>
       <c r="D231" s="5">
-        <v>0.186</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="E231" s="5">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="B232" s="5">
-        <v>0.185</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="C232" s="5">
-        <v>0.185</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D232" s="5">
-        <v>0.182</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="E232" s="5">
-        <v>0.17599999999999999</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="B233" s="5">
-        <v>0.185</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="C233" s="5">
-        <v>0.185</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D233" s="5">
-        <v>0.183</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="E233" s="5">
-        <v>0.17599999999999999</v>
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="B234" s="5">
-        <v>0.17699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="C234" s="5">
-        <v>0.17699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D234" s="5">
-        <v>0.17399999999999999</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="E234" s="5">
-        <v>0.16800000000000001</v>
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="B235" s="5">
-        <v>0.187</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C235" s="5">
-        <v>0.187</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D235" s="5">
-        <v>0.184</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E235" s="5">
-        <v>0.17799999999999999</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="B236" s="5">
-        <v>0.186</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="C236" s="5">
-        <v>0.186</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D236" s="5">
-        <v>0.183</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E236" s="5">
-        <v>0.17699999999999999</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B237" s="5">
-        <v>0.184</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C237" s="5">
-        <v>0.184</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D237" s="5">
-        <v>0.182</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E237" s="5">
-        <v>0.17599999999999999</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B238" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C238" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D238" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E238" s="5">
-        <v>3.1E-2</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B239" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="C239" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D239" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E239" s="5">
-        <v>3.1E-2</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B240" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C240" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D240" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E240" s="5">
-        <v>0.03</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="B241" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>0.106</v>
       </c>
       <c r="C241" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>0.106</v>
       </c>
       <c r="D241" s="5">
-        <v>3.1E-2</v>
+        <v>0.104</v>
       </c>
       <c r="E241" s="5">
-        <v>0.03</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B242" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C242" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D242" s="5">
-        <v>3.3000000000000002E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="E242" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="B243" s="5">
-        <v>3.3000000000000002E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C243" s="5">
-        <v>3.3000000000000002E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D243" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="E243" s="5">
-        <v>3.1E-2</v>
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="B244" s="5">
-        <v>3.1E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="C244" s="5">
-        <v>3.1E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D244" s="5">
-        <v>3.1E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E244" s="5">
-        <v>0.03</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="B245" s="5">
-        <v>3.1E-2</v>
+        <v>0.106</v>
       </c>
       <c r="C245" s="5">
-        <v>3.1E-2</v>
+        <v>0.106</v>
       </c>
       <c r="D245" s="5">
-        <v>3.1E-2</v>
+        <v>0.105</v>
       </c>
       <c r="E245" s="5">
-        <v>0.03</v>
+        <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B246" s="5">
-        <v>2.4E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="C246" s="5">
-        <v>2.4E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D246" s="5">
-        <v>2.4E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E246" s="5">
-        <v>2.3E-2</v>
+        <v>0.19700000000000001</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B247" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>0.106</v>
       </c>
       <c r="C247" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>0.106</v>
       </c>
       <c r="D247" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>0.105</v>
       </c>
       <c r="E247" s="5">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" t="s">
-        <v>283</v>
-      </c>
-      <c r="B248" s="5">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C248" s="5">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D248" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E248" s="5">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" t="s">
-        <v>284</v>
-      </c>
-      <c r="B249" s="5">
-        <v>2.4E-2</v>
-      </c>
-      <c r="C249" s="5">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D249" s="5">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E249" s="5">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" t="s">
-        <v>285</v>
-      </c>
-      <c r="B250" s="5">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="C250" s="5">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="D250" s="5">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="E250" s="5">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="A251" t="s">
-        <v>286</v>
-      </c>
-      <c r="B251" s="5">
-        <v>2.4E-2</v>
-      </c>
-      <c r="C251" s="5">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D251" s="5">
-        <v>2.3E-2</v>
-      </c>
-      <c r="E251" s="5">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" t="s">
-        <v>287</v>
-      </c>
-      <c r="B252" s="5">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C252" s="5">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="D252" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="E252" s="5">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" t="s">
-        <v>245</v>
-      </c>
-      <c r="B253" s="5">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="C253" s="5">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="D253" s="5">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E253" s="5">
-        <v>0.16600000000000001</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" t="s">
-        <v>246</v>
-      </c>
-      <c r="B254" s="5">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="C254" s="5">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="D254" s="5">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E254" s="5">
-        <v>0.16600000000000001</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" t="s">
-        <v>247</v>
-      </c>
-      <c r="B255" s="5">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="C255" s="5">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="D255" s="5">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="E255" s="5">
-        <v>0.16200000000000001</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" t="s">
-        <v>248</v>
-      </c>
-      <c r="B256" s="5">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="C256" s="5">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="D256" s="5">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="E256" s="5">
-        <v>0.157</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" t="s">
-        <v>249</v>
-      </c>
-      <c r="B257" s="5">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="C257" s="5">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D257" s="5">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E257" s="5">
-        <v>0.16400000000000001</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" t="s">
-        <v>250</v>
-      </c>
-      <c r="B258" s="5">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C258" s="5">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="D258" s="5">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="E258" s="5">
-        <v>0.159</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" t="s">
-        <v>251</v>
-      </c>
-      <c r="B259" s="5">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="C259" s="5">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="D259" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="E259" s="5">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" t="s">
-        <v>252</v>
-      </c>
-      <c r="B260" s="5">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="C260" s="5">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="D260" s="5">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="E260" s="5">
-        <v>0.16200000000000001</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" t="s">
-        <v>288</v>
-      </c>
-      <c r="B261" s="5">
-        <v>0.106</v>
-      </c>
-      <c r="C261" s="5">
-        <v>0.106</v>
-      </c>
-      <c r="D261" s="5">
-        <v>0.104</v>
-      </c>
-      <c r="E261" s="5">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" t="s">
-        <v>289</v>
-      </c>
-      <c r="B262" s="5">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="C262" s="5">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="D262" s="5">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="E262" s="5">
-        <v>0.19500000000000001</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" t="s">
-        <v>290</v>
-      </c>
-      <c r="B263" s="5">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="C263" s="5">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="D263" s="5">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="E263" s="5">
-        <v>0.19500000000000001</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" t="s">
-        <v>291</v>
-      </c>
-      <c r="B264" s="5">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="C264" s="5">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="D264" s="5">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E264" s="5">
-        <v>0.186</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" t="s">
-        <v>292</v>
-      </c>
-      <c r="B265" s="5">
-        <v>0.106</v>
-      </c>
-      <c r="C265" s="5">
-        <v>0.106</v>
-      </c>
-      <c r="D265" s="5">
-        <v>0.105</v>
-      </c>
-      <c r="E265" s="5">
-        <v>0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" t="s">
-        <v>293</v>
-      </c>
-      <c r="B266" s="5">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="C266" s="5">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D266" s="5">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="E266" s="5">
-        <v>0.19700000000000001</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267" t="s">
-        <v>294</v>
-      </c>
-      <c r="B267" s="5">
-        <v>0.106</v>
-      </c>
-      <c r="C267" s="5">
-        <v>0.106</v>
-      </c>
-      <c r="D267" s="5">
-        <v>0.105</v>
-      </c>
-      <c r="E267" s="5">
         <v>0.20300000000000001</v>
       </c>
     </row>
@@ -8487,11 +8245,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ECC471-A60C-4EE5-94F5-B6269F8DA6CD}">
-  <dimension ref="A1:F166"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A54213-DE88-487B-B9ED-F82CF304DA25}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B221" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -8809,6 +8573,4599 @@
         <v>4</v>
       </c>
       <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3.31</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>48.36</v>
+      </c>
+      <c r="C18">
+        <v>45.05</v>
+      </c>
+      <c r="D18">
+        <v>45.05</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>0.33</v>
+      </c>
+      <c r="C20">
+        <v>0.33</v>
+      </c>
+      <c r="D20">
+        <v>0.33</v>
+      </c>
+      <c r="E20">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>0.25</v>
+      </c>
+      <c r="C21">
+        <v>0.25</v>
+      </c>
+      <c r="D21">
+        <v>0.25</v>
+      </c>
+      <c r="E21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.91</v>
+      </c>
+      <c r="E25">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.91</v>
+      </c>
+      <c r="E26">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1.82</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>1.82</v>
+      </c>
+      <c r="C35">
+        <v>1.82</v>
+      </c>
+      <c r="D35">
+        <v>1.82</v>
+      </c>
+      <c r="E35">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>1.37</v>
+      </c>
+      <c r="C36">
+        <v>1.37</v>
+      </c>
+      <c r="D36">
+        <v>1.37</v>
+      </c>
+      <c r="E36">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>3.19</v>
+      </c>
+      <c r="C38">
+        <v>3.19</v>
+      </c>
+      <c r="D38">
+        <v>3.19</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1.82</v>
+      </c>
+      <c r="E40">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1.82</v>
+      </c>
+      <c r="E41">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>3.64</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="C49" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="D49" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="E49" s="4">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="4">
+        <v>13.89</v>
+      </c>
+      <c r="C50" s="4">
+        <v>13.89</v>
+      </c>
+      <c r="D50" s="4">
+        <v>13.89</v>
+      </c>
+      <c r="E50" s="4">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="C51" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="D51" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E51" s="4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="C52" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="D52" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E52" s="4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="4">
+        <v>10.32</v>
+      </c>
+      <c r="C53" s="4">
+        <v>10.32</v>
+      </c>
+      <c r="D53" s="4">
+        <v>10.32</v>
+      </c>
+      <c r="E53" s="4">
+        <v>10.32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="4">
+        <v>19.04</v>
+      </c>
+      <c r="C54" s="4">
+        <v>19.04</v>
+      </c>
+      <c r="D54" s="4">
+        <v>19.04</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="C55" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="D55" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="E55" s="4">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" s="4">
+        <v>14.23</v>
+      </c>
+      <c r="C56" s="4">
+        <v>14.23</v>
+      </c>
+      <c r="D56" s="4">
+        <v>14.23</v>
+      </c>
+      <c r="E56" s="4">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="C57" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="D57" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="C58" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="E58" s="4">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="C59" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="D59" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E59" s="4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="C60" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="D60" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="E60" s="4">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="C61" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="D61" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E61" s="4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="C62" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="D62" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="E62" s="4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="C64" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="D64" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="E64" s="4">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="C67" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="D67" s="4">
+        <v>10.61</v>
+      </c>
+      <c r="E67" s="4">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="C68" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="E68" s="4">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="4">
+        <v>9.24</v>
+      </c>
+      <c r="C69" s="4">
+        <v>9.24</v>
+      </c>
+      <c r="D69" s="4">
+        <v>9.24</v>
+      </c>
+      <c r="E69" s="4">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="C70" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="D70" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="E70" s="4">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0.192</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="E73" s="5">
+        <v>1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.107</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.107</v>
+      </c>
+      <c r="D74" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0.10200000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0</v>
+      </c>
+      <c r="C75" s="5">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.129</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0.121</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C77" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D77" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E77" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E78" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D79" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>198</v>
+      </c>
+      <c r="B81" s="5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C81" s="5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D81" s="5">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E81" s="5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>199</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C83" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D83" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.217</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0.217</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0.214</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.108</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0.108</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D86" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E86" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>204</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C88" s="5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D92" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D93" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D95" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C97" s="5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D97" s="5">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D98" s="5">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E98" s="5">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E100" s="5">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D101" s="5">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E101" s="5">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C102" s="5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D102" s="5">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E102" s="5">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="D103" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" s="5">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="C104" s="5">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D104" s="5">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" s="5">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D105" s="5">
+        <v>0.754</v>
+      </c>
+      <c r="E105" s="5">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>96</v>
+      </c>
+      <c r="B106" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C106" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D106" s="5">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="E106" s="5">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="C107" s="5">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="D107" s="5">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E107" s="5">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108" s="5">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="C108" s="5">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D108" s="5">
+        <v>0.751</v>
+      </c>
+      <c r="E108" s="5">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="C109" s="5">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D109" s="5">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>100</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="C110" s="5">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D110" s="5">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>101</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="C111" s="5">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="D111" s="5">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="E111" s="5">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0.874</v>
+      </c>
+      <c r="C112" s="5">
+        <v>0.874</v>
+      </c>
+      <c r="D112" s="5">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="E112" s="5">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>103</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0.876</v>
+      </c>
+      <c r="C113" s="5">
+        <v>0.876</v>
+      </c>
+      <c r="D113" s="5">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="E113" s="5">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>104</v>
+      </c>
+      <c r="B114" s="5">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="C114" s="5">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="D114" s="5">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E114" s="5">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" s="5">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="C115" s="5">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="D115" s="5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="E115" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" s="5">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="C116" s="5">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D116" s="5">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E116" s="5">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" s="5">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="C117" s="5">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="D117" s="5">
+        <v>0.873</v>
+      </c>
+      <c r="E117" s="5">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C118" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E118" s="5">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C119" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D119" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E119" s="5">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>110</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C120" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E120" s="5">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>111</v>
+      </c>
+      <c r="B121" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C121" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E121" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C122" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D122" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E122" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>113</v>
+      </c>
+      <c r="B123" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C123" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D123" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E123" s="5">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>114</v>
+      </c>
+      <c r="B124" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C124" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D124" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E124" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>115</v>
+      </c>
+      <c r="B125" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C125" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D125" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E125" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C126" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D126" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E126" s="5">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>117</v>
+      </c>
+      <c r="B127" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C127" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D127" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E127" s="5">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>118</v>
+      </c>
+      <c r="B128" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C128" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D128" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E128" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>119</v>
+      </c>
+      <c r="B129" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C129" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D129" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E129" s="5">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>120</v>
+      </c>
+      <c r="B130" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C130" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D130" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E130" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>121</v>
+      </c>
+      <c r="B131" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C131" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D131" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E131" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>122</v>
+      </c>
+      <c r="B132" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C132" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D132" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E132" s="5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>123</v>
+      </c>
+      <c r="B133" s="5">
+        <v>4.6769999999999996</v>
+      </c>
+      <c r="C133" s="5">
+        <v>4.6769999999999996</v>
+      </c>
+      <c r="D133" s="5">
+        <v>4.6130000000000004</v>
+      </c>
+      <c r="E133" s="5">
+        <v>4.4530000000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" s="5">
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="C134" s="5">
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="D134" s="5">
+        <v>4.702</v>
+      </c>
+      <c r="E134" s="5">
+        <v>4.5380000000000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>125</v>
+      </c>
+      <c r="B135" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="C135" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="D135" s="5">
+        <v>4.6449999999999996</v>
+      </c>
+      <c r="E135" s="5">
+        <v>4.484</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>126</v>
+      </c>
+      <c r="B136" s="5">
+        <v>4.2759999999999998</v>
+      </c>
+      <c r="C136" s="5">
+        <v>4.2759999999999998</v>
+      </c>
+      <c r="D136" s="5">
+        <v>4.2169999999999996</v>
+      </c>
+      <c r="E136" s="5">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137" s="5">
+        <v>4.5780000000000003</v>
+      </c>
+      <c r="C137" s="5">
+        <v>4.5780000000000003</v>
+      </c>
+      <c r="D137" s="5">
+        <v>4.5149999999999997</v>
+      </c>
+      <c r="E137" s="5">
+        <v>4.3579999999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>128</v>
+      </c>
+      <c r="B138" s="5">
+        <v>4.3559999999999999</v>
+      </c>
+      <c r="C138" s="5">
+        <v>4.3559999999999999</v>
+      </c>
+      <c r="D138" s="5">
+        <v>4.2960000000000003</v>
+      </c>
+      <c r="E138" s="5">
+        <v>4.1470000000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>129</v>
+      </c>
+      <c r="B139" s="5">
+        <v>4.2210000000000001</v>
+      </c>
+      <c r="C139" s="5">
+        <v>4.2210000000000001</v>
+      </c>
+      <c r="D139" s="5">
+        <v>4.1630000000000003</v>
+      </c>
+      <c r="E139" s="5">
+        <v>4.0190000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>130</v>
+      </c>
+      <c r="B140" s="5">
+        <v>4.55</v>
+      </c>
+      <c r="C140" s="5">
+        <v>4.55</v>
+      </c>
+      <c r="D140" s="5">
+        <v>4.4870000000000001</v>
+      </c>
+      <c r="E140" s="5">
+        <v>4.3310000000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>131</v>
+      </c>
+      <c r="B141" s="5">
+        <v>4.9349999999999996</v>
+      </c>
+      <c r="C141" s="5">
+        <v>4.9349999999999996</v>
+      </c>
+      <c r="D141" s="5">
+        <v>4.867</v>
+      </c>
+      <c r="E141" s="5">
+        <v>4.6980000000000004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142" s="5">
+        <v>4.6520000000000001</v>
+      </c>
+      <c r="C142" s="5">
+        <v>4.6520000000000001</v>
+      </c>
+      <c r="D142" s="5">
+        <v>4.5880000000000001</v>
+      </c>
+      <c r="E142" s="5">
+        <v>4.4290000000000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>133</v>
+      </c>
+      <c r="B143" s="5">
+        <v>4.6349999999999998</v>
+      </c>
+      <c r="C143" s="5">
+        <v>4.6349999999999998</v>
+      </c>
+      <c r="D143" s="5">
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="E143" s="5">
+        <v>4.4130000000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>134</v>
+      </c>
+      <c r="B144" s="5">
+        <v>4.4109999999999996</v>
+      </c>
+      <c r="C144" s="5">
+        <v>4.4109999999999996</v>
+      </c>
+      <c r="D144" s="5">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E144" s="5">
+        <v>4.1989999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>135</v>
+      </c>
+      <c r="B145" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C145" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D145" s="5">
+        <v>5.03</v>
+      </c>
+      <c r="E145" s="5">
+        <v>4.8550000000000004</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146" s="5">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="C146" s="5">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="D146" s="5">
+        <v>4.72</v>
+      </c>
+      <c r="E146" s="5">
+        <v>4.556</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147" s="5">
+        <v>5.2409999999999997</v>
+      </c>
+      <c r="C147" s="5">
+        <v>5.2409999999999997</v>
+      </c>
+      <c r="D147" s="5">
+        <v>5.1689999999999996</v>
+      </c>
+      <c r="E147" s="5">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>138</v>
+      </c>
+      <c r="B148" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C148" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D148" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E148" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>139</v>
+      </c>
+      <c r="B149" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C149" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D149" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E149" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C150" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D150" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E150" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>141</v>
+      </c>
+      <c r="B151" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C151" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D151" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E151" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C152" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D152" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E152" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>143</v>
+      </c>
+      <c r="B153" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C153" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D153" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E153" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>144</v>
+      </c>
+      <c r="B154" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C154" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D154" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E154" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>145</v>
+      </c>
+      <c r="B155" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C155" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D155" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E155" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>146</v>
+      </c>
+      <c r="B156" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="C156" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="D156" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="E156" s="5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>147</v>
+      </c>
+      <c r="B157" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="C157" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="D157" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="E157" s="5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>148</v>
+      </c>
+      <c r="B158" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="C158" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="D158" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="E158" s="5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>149</v>
+      </c>
+      <c r="B159" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="C159" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="D159" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="E159" s="5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>150</v>
+      </c>
+      <c r="B160" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="C160" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="D160" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="E160" s="5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>151</v>
+      </c>
+      <c r="B161" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="C161" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="D161" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="E161" s="5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>152</v>
+      </c>
+      <c r="B162" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="C162" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="D162" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="E162" s="5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>155</v>
+      </c>
+      <c r="B163" s="5">
+        <v>0</v>
+      </c>
+      <c r="C163" s="5">
+        <v>0</v>
+      </c>
+      <c r="D163" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E163" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>156</v>
+      </c>
+      <c r="B164" s="5">
+        <v>0</v>
+      </c>
+      <c r="C164" s="5">
+        <v>0</v>
+      </c>
+      <c r="D164" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E164" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>157</v>
+      </c>
+      <c r="B165" s="5">
+        <v>0</v>
+      </c>
+      <c r="C165" s="5">
+        <v>0</v>
+      </c>
+      <c r="D165" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E165" s="5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>158</v>
+      </c>
+      <c r="B166" s="5">
+        <v>0</v>
+      </c>
+      <c r="C166" s="5">
+        <v>0</v>
+      </c>
+      <c r="D166" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E166" s="5">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>159</v>
+      </c>
+      <c r="B167" s="5">
+        <v>0</v>
+      </c>
+      <c r="C167" s="5">
+        <v>0</v>
+      </c>
+      <c r="D167" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E167" s="5">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>160</v>
+      </c>
+      <c r="B168" s="5">
+        <v>0</v>
+      </c>
+      <c r="C168" s="5">
+        <v>0</v>
+      </c>
+      <c r="D168" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E168" s="5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>161</v>
+      </c>
+      <c r="B169" s="5">
+        <v>0</v>
+      </c>
+      <c r="C169" s="5">
+        <v>0</v>
+      </c>
+      <c r="D169" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E169" s="5">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>162</v>
+      </c>
+      <c r="B170" s="5">
+        <v>0</v>
+      </c>
+      <c r="C170" s="5">
+        <v>0</v>
+      </c>
+      <c r="D170" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E170" s="5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>163</v>
+      </c>
+      <c r="B171" s="5">
+        <v>0</v>
+      </c>
+      <c r="C171" s="5">
+        <v>0</v>
+      </c>
+      <c r="D171" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E171" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>164</v>
+      </c>
+      <c r="B172" s="5">
+        <v>0</v>
+      </c>
+      <c r="C172" s="5">
+        <v>0</v>
+      </c>
+      <c r="D172" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E172" s="5">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>165</v>
+      </c>
+      <c r="B173" s="5">
+        <v>0</v>
+      </c>
+      <c r="C173" s="5">
+        <v>0</v>
+      </c>
+      <c r="D173" s="5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E173" s="5">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>166</v>
+      </c>
+      <c r="B174" s="5">
+        <v>0</v>
+      </c>
+      <c r="C174" s="5">
+        <v>0</v>
+      </c>
+      <c r="D174" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E174" s="5">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>167</v>
+      </c>
+      <c r="B175" s="5">
+        <v>0</v>
+      </c>
+      <c r="C175" s="5">
+        <v>0</v>
+      </c>
+      <c r="D175" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E175" s="5">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>168</v>
+      </c>
+      <c r="B176" s="5">
+        <v>0</v>
+      </c>
+      <c r="C176" s="5">
+        <v>0</v>
+      </c>
+      <c r="D176" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E176" s="5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>169</v>
+      </c>
+      <c r="B177" s="5">
+        <v>0</v>
+      </c>
+      <c r="C177" s="5">
+        <v>0</v>
+      </c>
+      <c r="D177" s="5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E177" s="5">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>205</v>
+      </c>
+      <c r="B178" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C178" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D178" s="5">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E178" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>206</v>
+      </c>
+      <c r="B179" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C179" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D179" s="5">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E179" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>207</v>
+      </c>
+      <c r="B180" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C180" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D180" s="5">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E180" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>208</v>
+      </c>
+      <c r="B181" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C181" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D181" s="5">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E181" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>209</v>
+      </c>
+      <c r="B182" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C182" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D182" s="5">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E182" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>210</v>
+      </c>
+      <c r="B183" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C183" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D183" s="5">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E183" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>211</v>
+      </c>
+      <c r="B184" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C184" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D184" s="5">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E184" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>212</v>
+      </c>
+      <c r="B185" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C185" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D185" s="5">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E185" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>253</v>
+      </c>
+      <c r="B186" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C186" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D186" s="5">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E186" s="5">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>254</v>
+      </c>
+      <c r="B187" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C187" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D187" s="5">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E187" s="5">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>255</v>
+      </c>
+      <c r="B188" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C188" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D188" s="5">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E188" s="5">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>256</v>
+      </c>
+      <c r="B189" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C189" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D189" s="5">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E189" s="5">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>257</v>
+      </c>
+      <c r="B190" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C190" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D190" s="5">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E190" s="5">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>258</v>
+      </c>
+      <c r="B191" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C191" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D191" s="5">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E191" s="5">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>259</v>
+      </c>
+      <c r="B192" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C192" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D192" s="5">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E192" s="5">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>213</v>
+      </c>
+      <c r="B193" s="5">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C193" s="5">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="D193" s="5">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="E193" s="5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>214</v>
+      </c>
+      <c r="B194" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="C194" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="D194" s="5">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E194" s="5">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>215</v>
+      </c>
+      <c r="B195" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C195" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D195" s="5">
+        <v>0.222</v>
+      </c>
+      <c r="E195" s="5">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>216</v>
+      </c>
+      <c r="B196" s="5">
+        <v>0.215</v>
+      </c>
+      <c r="C196" s="5">
+        <v>0.215</v>
+      </c>
+      <c r="D196" s="5">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E196" s="5">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>217</v>
+      </c>
+      <c r="B197" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C197" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D197" s="5">
+        <v>0.222</v>
+      </c>
+      <c r="E197" s="5">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>218</v>
+      </c>
+      <c r="B198" s="5">
+        <v>0.218</v>
+      </c>
+      <c r="C198" s="5">
+        <v>0.218</v>
+      </c>
+      <c r="D198" s="5">
+        <v>0.215</v>
+      </c>
+      <c r="E198" s="5">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>219</v>
+      </c>
+      <c r="B199" s="5">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C199" s="5">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="D199" s="5">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E199" s="5">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>220</v>
+      </c>
+      <c r="B200" s="5">
+        <v>0.224</v>
+      </c>
+      <c r="C200" s="5">
+        <v>0.224</v>
+      </c>
+      <c r="D200" s="5">
+        <v>0.221</v>
+      </c>
+      <c r="E200" s="5">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>260</v>
+      </c>
+      <c r="B201" s="5">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="C201" s="5">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D201" s="5">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="E201" s="5">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>261</v>
+      </c>
+      <c r="B202" s="5">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="C202" s="5">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="D202" s="5">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="E202" s="5">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>262</v>
+      </c>
+      <c r="B203" s="5">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="C203" s="5">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D203" s="5">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="E203" s="5">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>263</v>
+      </c>
+      <c r="B204" s="5">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="C204" s="5">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="D204" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E204" s="5">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>264</v>
+      </c>
+      <c r="B205" s="5">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="C205" s="5">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D205" s="5">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E205" s="5">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>265</v>
+      </c>
+      <c r="B206" s="5">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="C206" s="5">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D206" s="5">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="E206" s="5">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>266</v>
+      </c>
+      <c r="B207" s="5">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C207" s="5">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D207" s="5">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E207" s="5">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>221</v>
+      </c>
+      <c r="B208" s="5">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="C208" s="5">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D208" s="5">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E208" s="5">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>222</v>
+      </c>
+      <c r="B209" s="5">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="C209" s="5">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="D209" s="5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E209" s="5">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>223</v>
+      </c>
+      <c r="B210" s="5">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="C210" s="5">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D210" s="5">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="E210" s="5">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>224</v>
+      </c>
+      <c r="B211" s="5">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="C211" s="5">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D211" s="5">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E211" s="5">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>225</v>
+      </c>
+      <c r="B212" s="5">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="C212" s="5">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="D212" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="E212" s="5">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>226</v>
+      </c>
+      <c r="B213" s="5">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="C213" s="5">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D213" s="5">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="E213" s="5">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>227</v>
+      </c>
+      <c r="B214" s="5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="C214" s="5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D214" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="E214" s="5">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>228</v>
+      </c>
+      <c r="B215" s="5">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="C215" s="5">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D215" s="5">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="E215" s="5">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>267</v>
+      </c>
+      <c r="B216" s="5">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="C216" s="5">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D216" s="5">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="E216" s="5">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>268</v>
+      </c>
+      <c r="B217" s="5">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="C217" s="5">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="D217" s="5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E217" s="5">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>269</v>
+      </c>
+      <c r="B218" s="5">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="C218" s="5">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D218" s="5">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="E218" s="5">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>270</v>
+      </c>
+      <c r="B219" s="5">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="C219" s="5">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D219" s="5">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="E219" s="5">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>271</v>
+      </c>
+      <c r="B220" s="5">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="C220" s="5">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D220" s="5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E220" s="5">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>272</v>
+      </c>
+      <c r="B221" s="5">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="C221" s="5">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D221" s="5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E221" s="5">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>273</v>
+      </c>
+      <c r="B222" s="5">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="C222" s="5">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D222" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="E222" s="5">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223" s="5">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C223" s="5">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D223" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="E223" s="5">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>230</v>
+      </c>
+      <c r="B224" s="5">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C224" s="5">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D224" s="5">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E224" s="5">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>231</v>
+      </c>
+      <c r="B225" s="5">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C225" s="5">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D225" s="5">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E225" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>232</v>
+      </c>
+      <c r="B226" s="5">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="C226" s="5">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D226" s="5">
+        <v>0.161</v>
+      </c>
+      <c r="E226" s="5">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>233</v>
+      </c>
+      <c r="B227" s="5">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C227" s="5">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D227" s="5">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E227" s="5">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>234</v>
+      </c>
+      <c r="B228" s="5">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C228" s="5">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D228" s="5">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E228" s="5">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>235</v>
+      </c>
+      <c r="B229" s="5">
+        <v>0.161</v>
+      </c>
+      <c r="C229" s="5">
+        <v>0.161</v>
+      </c>
+      <c r="D229" s="5">
+        <v>0.159</v>
+      </c>
+      <c r="E229" s="5">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>236</v>
+      </c>
+      <c r="B230" s="5">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C230" s="5">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D230" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E230" s="5">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>274</v>
+      </c>
+      <c r="B231" s="5">
+        <v>0.189</v>
+      </c>
+      <c r="C231" s="5">
+        <v>0.189</v>
+      </c>
+      <c r="D231" s="5">
+        <v>0.186</v>
+      </c>
+      <c r="E231" s="5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>275</v>
+      </c>
+      <c r="B232" s="5">
+        <v>0.185</v>
+      </c>
+      <c r="C232" s="5">
+        <v>0.185</v>
+      </c>
+      <c r="D232" s="5">
+        <v>0.182</v>
+      </c>
+      <c r="E232" s="5">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>276</v>
+      </c>
+      <c r="B233" s="5">
+        <v>0.185</v>
+      </c>
+      <c r="C233" s="5">
+        <v>0.185</v>
+      </c>
+      <c r="D233" s="5">
+        <v>0.183</v>
+      </c>
+      <c r="E233" s="5">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>277</v>
+      </c>
+      <c r="B234" s="5">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C234" s="5">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D234" s="5">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E234" s="5">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>278</v>
+      </c>
+      <c r="B235" s="5">
+        <v>0.187</v>
+      </c>
+      <c r="C235" s="5">
+        <v>0.187</v>
+      </c>
+      <c r="D235" s="5">
+        <v>0.184</v>
+      </c>
+      <c r="E235" s="5">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>279</v>
+      </c>
+      <c r="B236" s="5">
+        <v>0.186</v>
+      </c>
+      <c r="C236" s="5">
+        <v>0.186</v>
+      </c>
+      <c r="D236" s="5">
+        <v>0.183</v>
+      </c>
+      <c r="E236" s="5">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>280</v>
+      </c>
+      <c r="B237" s="5">
+        <v>0.184</v>
+      </c>
+      <c r="C237" s="5">
+        <v>0.184</v>
+      </c>
+      <c r="D237" s="5">
+        <v>0.182</v>
+      </c>
+      <c r="E237" s="5">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C238" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D238" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E238" s="5">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C239" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D239" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E239" s="5">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C240" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D240" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E240" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C241" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D241" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E241" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C242" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D242" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E242" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C243" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D243" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E243" s="5">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C244" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D244" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E244" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C245" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D245" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E245" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>281</v>
+      </c>
+      <c r="B246" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C246" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D246" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E246" s="5">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>282</v>
+      </c>
+      <c r="B247" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C247" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D247" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E247" s="5">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>283</v>
+      </c>
+      <c r="B248" s="5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C248" s="5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D248" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E248" s="5">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>284</v>
+      </c>
+      <c r="B249" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C249" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D249" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E249" s="5">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>285</v>
+      </c>
+      <c r="B250" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C250" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D250" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E250" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>286</v>
+      </c>
+      <c r="B251" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C251" s="5">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D251" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E251" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>287</v>
+      </c>
+      <c r="B252" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C252" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D252" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E252" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>245</v>
+      </c>
+      <c r="B253" s="5">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C253" s="5">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D253" s="5">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E253" s="5">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>246</v>
+      </c>
+      <c r="B254" s="5">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C254" s="5">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D254" s="5">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E254" s="5">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>247</v>
+      </c>
+      <c r="B255" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C255" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D255" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E255" s="5">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>248</v>
+      </c>
+      <c r="B256" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C256" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D256" s="5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E256" s="5">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>249</v>
+      </c>
+      <c r="B257" s="5">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C257" s="5">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D257" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E257" s="5">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>250</v>
+      </c>
+      <c r="B258" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C258" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D258" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E258" s="5">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>251</v>
+      </c>
+      <c r="B259" s="5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C259" s="5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D259" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="E259" s="5">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>252</v>
+      </c>
+      <c r="B260" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C260" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D260" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E260" s="5">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>288</v>
+      </c>
+      <c r="B261" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="C261" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="D261" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="E261" s="5">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>289</v>
+      </c>
+      <c r="B262" s="5">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C262" s="5">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D262" s="5">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E262" s="5">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>290</v>
+      </c>
+      <c r="B263" s="5">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C263" s="5">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D263" s="5">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E263" s="5">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>291</v>
+      </c>
+      <c r="B264" s="5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C264" s="5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D264" s="5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E264" s="5">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>292</v>
+      </c>
+      <c r="B265" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="C265" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="D265" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="E265" s="5">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>293</v>
+      </c>
+      <c r="B266" s="5">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="C266" s="5">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D266" s="5">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E266" s="5">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>294</v>
+      </c>
+      <c r="B267" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="C267" s="5">
+        <v>0.106</v>
+      </c>
+      <c r="D267" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="E267" s="5">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ECC471-A60C-4EE5-94F5-B6269F8DA6CD}">
+  <dimension ref="A1:F166"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="44.6875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="102.8125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="35.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3">
+        <v>262.45999999999998</v>
+      </c>
+      <c r="C2" s="3">
+        <v>262.45999999999998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="E2">
+        <v>275.69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>50.85</v>
+      </c>
+      <c r="C4">
+        <v>50.85</v>
+      </c>
+      <c r="D4">
+        <v>50.85</v>
+      </c>
+      <c r="E4">
+        <v>50.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1">
+        <v>34.06</v>
+      </c>
+      <c r="C5" s="1">
+        <v>34.06</v>
+      </c>
+      <c r="D5" s="1">
+        <v>34.06</v>
+      </c>
+      <c r="E5" s="1">
+        <v>34.06</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>22.74</v>
+      </c>
+      <c r="C6" s="1">
+        <v>22.74</v>
+      </c>
+      <c r="D6" s="1">
+        <v>22.74</v>
+      </c>
+      <c r="E6" s="1">
+        <v>22.74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1">
+        <v>48.49</v>
+      </c>
+      <c r="C7" s="1">
+        <v>48.49</v>
+      </c>
+      <c r="D7" s="1">
+        <v>48.49</v>
+      </c>
+      <c r="E7" s="1">
+        <v>48.49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22.97</v>
+      </c>
+      <c r="C8" s="1">
+        <v>22.97</v>
+      </c>
+      <c r="D8" s="1">
+        <v>22.97</v>
+      </c>
+      <c r="E8" s="1">
+        <v>22.97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1">
+        <v>19.11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>19.11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>19.11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>19.11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
         <v>3.31</v>
       </c>
       <c r="C17">
@@ -11364,7 +15721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
@@ -12209,7 +16566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AB0EC2-B5C0-44C7-91F4-9237E42E2BAB}">
   <dimension ref="A1:D37"/>
   <sheetViews>
@@ -12641,7 +16998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2231F8E3-CA17-4967-B794-336E0B405E29}">
   <dimension ref="A1:M1"/>
   <sheetViews>
